--- a/dados.xlsx
+++ b/dados.xlsx
@@ -495,6 +495,9 @@
       <c r="M2">
         <v>108573</v>
       </c>
+      <c r="N2">
+        <v>4.052572923286637</v>
+      </c>
       <c r="O2">
         <v>214.12</v>
       </c>
@@ -554,6 +557,9 @@
       <c r="M3">
         <v>97637</v>
       </c>
+      <c r="N3">
+        <v>2.44784251871729</v>
+      </c>
       <c r="O3">
         <v>221.32</v>
       </c>
@@ -613,6 +619,9 @@
       <c r="M4">
         <v>43553</v>
       </c>
+      <c r="N4">
+        <v>3.788487589833077</v>
+      </c>
       <c r="O4">
         <v>208.96</v>
       </c>
@@ -672,6 +681,9 @@
       <c r="M5">
         <v>55583</v>
       </c>
+      <c r="N5">
+        <v>4.317866973714985</v>
+      </c>
       <c r="O5">
         <v>220.46</v>
       </c>
@@ -731,6 +743,9 @@
       <c r="M6">
         <v>139359</v>
       </c>
+      <c r="N6">
+        <v>2.762648985713158</v>
+      </c>
       <c r="O6">
         <v>224.84</v>
       </c>
@@ -790,6 +805,9 @@
       <c r="M7">
         <v>38681</v>
       </c>
+      <c r="N7">
+        <v>3.903725343191748</v>
+      </c>
       <c r="O7">
         <v>230.14</v>
       </c>
@@ -849,6 +867,9 @@
       <c r="M8">
         <v>39053</v>
       </c>
+      <c r="N8">
+        <v>4.967608122295342</v>
+      </c>
       <c r="O8">
         <v>226.59</v>
       </c>
@@ -908,6 +929,9 @@
       <c r="M9">
         <v>514873</v>
       </c>
+      <c r="N9">
+        <v>3.65332810226988</v>
+      </c>
       <c r="O9">
         <v>215.05</v>
       </c>
@@ -967,6 +991,9 @@
       <c r="M10">
         <v>62559</v>
       </c>
+      <c r="N10">
+        <v>4.22001630460845</v>
+      </c>
       <c r="O10">
         <v>227.86</v>
       </c>
@@ -1026,6 +1053,9 @@
       <c r="M11">
         <v>108528</v>
       </c>
+      <c r="N11">
+        <v>3.989753796255344</v>
+      </c>
       <c r="O11">
         <v>220.04</v>
       </c>
@@ -1085,6 +1115,9 @@
       <c r="M12">
         <v>98382</v>
       </c>
+      <c r="N12">
+        <v>6.678050862962737</v>
+      </c>
       <c r="O12">
         <v>218.98</v>
       </c>
@@ -1144,6 +1177,9 @@
       <c r="M13">
         <v>37644</v>
       </c>
+      <c r="N13">
+        <v>6.667729253001807</v>
+      </c>
       <c r="O13">
         <v>230.55</v>
       </c>
@@ -1182,6 +1218,9 @@
       <c r="M14">
         <v>43916</v>
       </c>
+      <c r="N14">
+        <v>6.557974314600601</v>
+      </c>
       <c r="O14">
         <v>226.29</v>
       </c>
@@ -1241,6 +1280,9 @@
       <c r="M15">
         <v>46517</v>
       </c>
+      <c r="N15">
+        <v>7.287658275469183</v>
+      </c>
       <c r="O15">
         <v>226</v>
       </c>
@@ -1300,6 +1342,9 @@
       <c r="M16">
         <v>45328</v>
       </c>
+      <c r="N16">
+        <v>9.199611719025768</v>
+      </c>
       <c r="O16">
         <v>186.44</v>
       </c>
@@ -1359,6 +1404,9 @@
       <c r="M17">
         <v>40509</v>
       </c>
+      <c r="N17">
+        <v>13.15756992273322</v>
+      </c>
       <c r="O17">
         <v>177.13</v>
       </c>
@@ -1415,6 +1463,9 @@
       <c r="M18">
         <v>38246</v>
       </c>
+      <c r="N18">
+        <v>8.131569314438112</v>
+      </c>
       <c r="O18">
         <v>224.1</v>
       </c>
@@ -1474,6 +1525,9 @@
       <c r="M19">
         <v>34879</v>
       </c>
+      <c r="N19">
+        <v>18.54984374552023</v>
+      </c>
       <c r="O19">
         <v>184.69</v>
       </c>
@@ -1533,6 +1587,9 @@
       <c r="M20">
         <v>73820</v>
       </c>
+      <c r="N20">
+        <v>10.63397453264698</v>
+      </c>
       <c r="O20">
         <v>188.73</v>
       </c>
@@ -1571,6 +1628,9 @@
       <c r="M21">
         <v>35534</v>
       </c>
+      <c r="N21">
+        <v>11.11611414419992</v>
+      </c>
       <c r="O21">
         <v>189.52</v>
       </c>
@@ -1630,6 +1690,9 @@
       <c r="M22">
         <v>62312</v>
       </c>
+      <c r="N22">
+        <v>6.916805751701117</v>
+      </c>
       <c r="O22">
         <v>188.01</v>
       </c>
@@ -1689,6 +1752,9 @@
       <c r="M23">
         <v>67114</v>
       </c>
+      <c r="N23">
+        <v>7.837410972375361</v>
+      </c>
       <c r="O23">
         <v>195.37</v>
       </c>
@@ -1748,6 +1814,9 @@
       <c r="M24">
         <v>112520</v>
       </c>
+      <c r="N24">
+        <v>9.127266263775329</v>
+      </c>
       <c r="O24">
         <v>203.87</v>
       </c>
@@ -1807,6 +1876,9 @@
       <c r="M25">
         <v>48927</v>
       </c>
+      <c r="N25">
+        <v>10.26018353874139</v>
+      </c>
       <c r="O25">
         <v>192.95</v>
       </c>
@@ -1866,6 +1938,9 @@
       <c r="M26">
         <v>110691</v>
       </c>
+      <c r="N26">
+        <v>6.378115655292661</v>
+      </c>
       <c r="O26">
         <v>206.54</v>
       </c>
@@ -1925,6 +2000,9 @@
       <c r="M27">
         <v>2279686</v>
       </c>
+      <c r="N27">
+        <v>3.375903523555437</v>
+      </c>
       <c r="O27">
         <v>226.82</v>
       </c>
@@ -1984,6 +2062,9 @@
       <c r="M28">
         <v>57758</v>
       </c>
+      <c r="N28">
+        <v>11.34042037466671</v>
+      </c>
       <c r="O28">
         <v>204.58</v>
       </c>
@@ -2043,6 +2124,9 @@
       <c r="M29">
         <v>65714</v>
       </c>
+      <c r="N29">
+        <v>11.85439936695377</v>
+      </c>
       <c r="O29">
         <v>204.25</v>
       </c>
@@ -2102,6 +2186,9 @@
       <c r="M30">
         <v>101956</v>
       </c>
+      <c r="N30">
+        <v>8.052493232374751</v>
+      </c>
       <c r="O30">
         <v>213.05</v>
       </c>
@@ -2161,6 +2248,9 @@
       <c r="M31">
         <v>56406</v>
       </c>
+      <c r="N31">
+        <v>12.00226926213523</v>
+      </c>
       <c r="O31">
         <v>188.25</v>
       </c>
@@ -2217,6 +2307,9 @@
       <c r="M32">
         <v>35196</v>
       </c>
+      <c r="N32">
+        <v>11.05239231730878</v>
+      </c>
       <c r="O32">
         <v>175.17</v>
       </c>
@@ -2276,6 +2369,9 @@
       <c r="M33">
         <v>72283</v>
       </c>
+      <c r="N33">
+        <v>9.462805915637148</v>
+      </c>
       <c r="O33">
         <v>182.19</v>
       </c>
@@ -2335,6 +2431,9 @@
       <c r="M34">
         <v>79278</v>
       </c>
+      <c r="N34">
+        <v>11.84439567093014</v>
+      </c>
       <c r="O34">
         <v>198.34</v>
       </c>
@@ -2394,6 +2493,9 @@
       <c r="M35">
         <v>470169</v>
       </c>
+      <c r="N35">
+        <v>4.094272485000074</v>
+      </c>
       <c r="O35">
         <v>225.46</v>
       </c>
@@ -2453,6 +2555,9 @@
       <c r="M36">
         <v>36747</v>
       </c>
+      <c r="N36">
+        <v>6.50393229379269</v>
+      </c>
       <c r="O36">
         <v>202.13</v>
       </c>
@@ -2512,6 +2617,9 @@
       <c r="M37">
         <v>170999</v>
       </c>
+      <c r="N37">
+        <v>8.871396908753852</v>
+      </c>
       <c r="O37">
         <v>196.94</v>
       </c>
@@ -2571,6 +2679,9 @@
       <c r="M38">
         <v>62701</v>
       </c>
+      <c r="N38">
+        <v>10.71753241575095</v>
+      </c>
       <c r="O38">
         <v>179.17</v>
       </c>
@@ -2630,6 +2741,9 @@
       <c r="M39">
         <v>40246</v>
       </c>
+      <c r="N39">
+        <v>17.26879689907071</v>
+      </c>
       <c r="O39">
         <v>180.68</v>
       </c>
@@ -2686,6 +2800,9 @@
       <c r="M40">
         <v>74836</v>
       </c>
+      <c r="N40">
+        <v>7.990806563685926</v>
+      </c>
       <c r="O40">
         <v>182.02</v>
       </c>
@@ -2745,6 +2862,9 @@
       <c r="M41">
         <v>36334</v>
       </c>
+      <c r="N41">
+        <v>12.82545274398635</v>
+      </c>
       <c r="O41">
         <v>177.89</v>
       </c>
@@ -2804,6 +2924,9 @@
       <c r="M42">
         <v>136982</v>
       </c>
+      <c r="N42">
+        <v>7.460834270196084</v>
+      </c>
       <c r="O42">
         <v>218.57</v>
       </c>
@@ -2863,6 +2986,9 @@
       <c r="M43">
         <v>507838</v>
       </c>
+      <c r="N43">
+        <v>2.656358917607584</v>
+      </c>
       <c r="O43">
         <v>210.47</v>
       </c>
@@ -2922,6 +3048,9 @@
       <c r="M44">
         <v>34947</v>
       </c>
+      <c r="N44">
+        <v>8.870575442813402</v>
+      </c>
       <c r="O44">
         <v>185.25</v>
       </c>
@@ -2981,6 +3110,9 @@
       <c r="M45">
         <v>47596</v>
       </c>
+      <c r="N45">
+        <v>11.21943020421884</v>
+      </c>
       <c r="O45">
         <v>182.49</v>
       </c>
@@ -3019,6 +3151,9 @@
       <c r="M46">
         <v>34633</v>
       </c>
+      <c r="N46">
+        <v>8.864377905465885</v>
+      </c>
       <c r="O46">
         <v>190.78</v>
       </c>
@@ -3078,6 +3213,9 @@
       <c r="M47">
         <v>55949</v>
       </c>
+      <c r="N47">
+        <v>7.685570787681638</v>
+      </c>
       <c r="P47">
         <v>234.66</v>
       </c>
@@ -3131,6 +3269,9 @@
       <c r="M48">
         <v>137331</v>
       </c>
+      <c r="N48">
+        <v>5.33746932593515</v>
+      </c>
       <c r="O48">
         <v>193.08</v>
       </c>
@@ -3190,6 +3331,9 @@
       <c r="M49">
         <v>1398531</v>
       </c>
+      <c r="N49">
+        <v>1.825486885882401</v>
+      </c>
       <c r="O49">
         <v>207.49</v>
       </c>
@@ -3249,6 +3393,9 @@
       <c r="M50">
         <v>68191</v>
       </c>
+      <c r="N50">
+        <v>5.02998929477497</v>
+      </c>
       <c r="O50">
         <v>230.1</v>
       </c>
@@ -3308,6 +3455,9 @@
       <c r="M51">
         <v>131679</v>
       </c>
+      <c r="N51">
+        <v>6.158916759695927</v>
+      </c>
       <c r="O51">
         <v>190.17</v>
       </c>
@@ -3367,6 +3517,9 @@
       <c r="M52">
         <v>47351</v>
       </c>
+      <c r="N52">
+        <v>9.334544149014805</v>
+      </c>
       <c r="O52">
         <v>192.84</v>
       </c>
@@ -3426,6 +3579,9 @@
       <c r="M53">
         <v>115051</v>
       </c>
+      <c r="N53">
+        <v>11.80346107378467</v>
+      </c>
       <c r="O53">
         <v>184.84</v>
       </c>
@@ -3485,6 +3641,9 @@
       <c r="M54">
         <v>143837</v>
       </c>
+      <c r="N54">
+        <v>11.20713029331813</v>
+      </c>
       <c r="O54">
         <v>175.88</v>
       </c>
@@ -3544,6 +3703,9 @@
       <c r="M55">
         <v>86629</v>
       </c>
+      <c r="N55">
+        <v>4.813630539426751</v>
+      </c>
       <c r="O55">
         <v>206.08</v>
       </c>
@@ -3603,6 +3765,9 @@
       <c r="M56">
         <v>74808</v>
       </c>
+      <c r="N56">
+        <v>2.980964602716287</v>
+      </c>
       <c r="O56">
         <v>198.08</v>
       </c>
@@ -3662,6 +3827,9 @@
       <c r="M57">
         <v>59960</v>
       </c>
+      <c r="N57">
+        <v>10.44029352901935</v>
+      </c>
       <c r="O57">
         <v>189.84</v>
       </c>
@@ -3700,6 +3868,9 @@
       <c r="M58">
         <v>207603</v>
       </c>
+      <c r="N58">
+        <v>3.766804911297043</v>
+      </c>
       <c r="O58">
         <v>203.06</v>
       </c>
@@ -3759,6 +3930,9 @@
       <c r="M59">
         <v>47099</v>
       </c>
+      <c r="N59">
+        <v>5.286736448756874</v>
+      </c>
       <c r="O59">
         <v>189.44</v>
       </c>
@@ -3818,6 +3992,9 @@
       <c r="M60">
         <v>36451</v>
       </c>
+      <c r="N60">
+        <v>10.64442676469781</v>
+      </c>
       <c r="O60">
         <v>166.9</v>
       </c>
@@ -3877,6 +4054,9 @@
       <c r="M61">
         <v>44413</v>
       </c>
+      <c r="N61">
+        <v>6.101817035552654</v>
+      </c>
       <c r="O61">
         <v>185.99</v>
       </c>
@@ -3936,6 +4116,9 @@
       <c r="M62">
         <v>62322</v>
       </c>
+      <c r="N62">
+        <v>6.273867975995636</v>
+      </c>
       <c r="O62">
         <v>225.43</v>
       </c>
@@ -3995,6 +4178,9 @@
       <c r="M63">
         <v>37855</v>
       </c>
+      <c r="N63">
+        <v>7.58156122044644</v>
+      </c>
       <c r="O63">
         <v>178.09</v>
       </c>
@@ -4054,6 +4240,9 @@
       <c r="M64">
         <v>68955</v>
       </c>
+      <c r="N64">
+        <v>9.194402146327315</v>
+      </c>
       <c r="O64">
         <v>180.48</v>
       </c>
@@ -4113,6 +4302,9 @@
       <c r="M65">
         <v>133684</v>
       </c>
+      <c r="N65">
+        <v>8.819305227252327</v>
+      </c>
       <c r="O65">
         <v>208.66</v>
       </c>
@@ -4172,6 +4364,9 @@
       <c r="M66">
         <v>52187</v>
       </c>
+      <c r="N66">
+        <v>9.312664073428248</v>
+      </c>
       <c r="O66">
         <v>188.73</v>
       </c>
@@ -4231,6 +4426,9 @@
       <c r="M67">
         <v>38391</v>
       </c>
+      <c r="N67">
+        <v>9.924200984605767</v>
+      </c>
       <c r="O67">
         <v>194.86</v>
       </c>
@@ -4290,6 +4488,9 @@
       <c r="M68">
         <v>53952</v>
       </c>
+      <c r="N68">
+        <v>9.286032028469752</v>
+      </c>
       <c r="O68">
         <v>191.52</v>
       </c>
@@ -4349,6 +4550,9 @@
       <c r="M69">
         <v>37048</v>
       </c>
+      <c r="N69">
+        <v>7.989635068019866</v>
+      </c>
       <c r="O69">
         <v>199.37</v>
       </c>
@@ -4408,6 +4612,9 @@
       <c r="M70">
         <v>288513</v>
       </c>
+      <c r="N70">
+        <v>5.517948931244</v>
+      </c>
       <c r="O70">
         <v>201.25</v>
       </c>
@@ -4467,6 +4674,9 @@
       <c r="M71">
         <v>118998</v>
       </c>
+      <c r="N71">
+        <v>8.386695574715542</v>
+      </c>
       <c r="O71">
         <v>200.32</v>
       </c>
@@ -4526,6 +4736,9 @@
       <c r="M72">
         <v>90795</v>
       </c>
+      <c r="N72">
+        <v>9.031334324577344</v>
+      </c>
       <c r="O72">
         <v>183.52</v>
       </c>
@@ -4585,6 +4798,9 @@
       <c r="M73">
         <v>63641</v>
       </c>
+      <c r="N73">
+        <v>10.37067299382474</v>
+      </c>
       <c r="O73">
         <v>185.78</v>
       </c>
@@ -4623,6 +4839,9 @@
       <c r="M74">
         <v>48955</v>
       </c>
+      <c r="N74">
+        <v>8.089061382902665</v>
+      </c>
       <c r="O74">
         <v>178.73</v>
       </c>
@@ -4679,6 +4898,9 @@
       <c r="M75">
         <v>36518</v>
       </c>
+      <c r="N75">
+        <v>6.982857768771565</v>
+      </c>
       <c r="O75">
         <v>221.94</v>
       </c>
@@ -4735,6 +4957,9 @@
       <c r="M76">
         <v>63754</v>
       </c>
+      <c r="N76">
+        <v>10.21112400790539</v>
+      </c>
       <c r="O76">
         <v>188.09</v>
       </c>
@@ -4794,6 +5019,9 @@
       <c r="M77">
         <v>55271</v>
       </c>
+      <c r="N77">
+        <v>8.793037940330372</v>
+      </c>
       <c r="O77">
         <v>192.91</v>
       </c>
@@ -4853,6 +5081,9 @@
       <c r="M78">
         <v>36377</v>
       </c>
+      <c r="N78">
+        <v>11.65571652417736</v>
+      </c>
       <c r="O78">
         <v>175.36</v>
       </c>
@@ -4909,6 +5140,9 @@
       <c r="M79">
         <v>72460</v>
       </c>
+      <c r="N79">
+        <v>9.274082252277118</v>
+      </c>
       <c r="O79">
         <v>201.35</v>
       </c>
@@ -4968,6 +5202,9 @@
       <c r="M80">
         <v>34905</v>
       </c>
+      <c r="N80">
+        <v>7.649333906317146</v>
+      </c>
       <c r="O80">
         <v>198.81</v>
       </c>
@@ -5027,6 +5264,9 @@
       <c r="M81">
         <v>43594</v>
       </c>
+      <c r="N81">
+        <v>9.198513556911502</v>
+      </c>
       <c r="O81">
         <v>190.16</v>
       </c>
@@ -5086,6 +5326,9 @@
       <c r="M82">
         <v>112843</v>
       </c>
+      <c r="N82">
+        <v>5.503221289756564</v>
+      </c>
       <c r="O82">
         <v>229.26</v>
       </c>
@@ -5145,6 +5388,9 @@
       <c r="M83">
         <v>298854</v>
       </c>
+      <c r="N83">
+        <v>4.276335601999639</v>
+      </c>
       <c r="O83">
         <v>215.16</v>
       </c>
@@ -5204,6 +5450,9 @@
       <c r="M84">
         <v>66898</v>
       </c>
+      <c r="N84">
+        <v>13.81207210977907</v>
+      </c>
       <c r="O84">
         <v>183.51</v>
       </c>
@@ -5263,6 +5512,9 @@
       <c r="M85">
         <v>43673</v>
       </c>
+      <c r="N85">
+        <v>13.30341400865523</v>
+      </c>
       <c r="O85">
         <v>178.4</v>
       </c>
@@ -5322,6 +5574,9 @@
       <c r="M86">
         <v>38318</v>
       </c>
+      <c r="N86">
+        <v>12.13528889816796</v>
+      </c>
       <c r="O86">
         <v>182.27</v>
       </c>
@@ -5381,6 +5636,9 @@
       <c r="M87">
         <v>91947</v>
       </c>
+      <c r="N87">
+        <v>4.894123788704363</v>
+      </c>
       <c r="O87">
         <v>201.21</v>
       </c>
@@ -5419,6 +5677,9 @@
       <c r="M88">
         <v>56593</v>
       </c>
+      <c r="N88">
+        <v>4.982948421182832</v>
+      </c>
       <c r="O88">
         <v>210.48</v>
       </c>
@@ -5475,6 +5736,9 @@
       <c r="M89">
         <v>37360</v>
       </c>
+      <c r="N89">
+        <v>7.521413276231264</v>
+      </c>
       <c r="O89">
         <v>202.07</v>
       </c>
@@ -5534,6 +5798,9 @@
       <c r="M90">
         <v>48168</v>
       </c>
+      <c r="N90">
+        <v>5.937551901677462</v>
+      </c>
       <c r="O90">
         <v>196.36</v>
       </c>
@@ -5593,6 +5860,9 @@
       <c r="M91">
         <v>78317</v>
       </c>
+      <c r="N91">
+        <v>5.452200671629403</v>
+      </c>
       <c r="O91">
         <v>194.26</v>
       </c>
@@ -5652,6 +5922,9 @@
       <c r="M92">
         <v>357311</v>
       </c>
+      <c r="N92">
+        <v>7.78033701733224</v>
+      </c>
       <c r="O92">
         <v>211.24</v>
       </c>
@@ -5711,6 +5984,9 @@
       <c r="M93">
         <v>65957</v>
       </c>
+      <c r="N93">
+        <v>8.793607956699061</v>
+      </c>
       <c r="O93">
         <v>180.45</v>
       </c>
@@ -5770,6 +6046,9 @@
       <c r="M94">
         <v>55798</v>
       </c>
+      <c r="N94">
+        <v>10.86060432273558</v>
+      </c>
       <c r="O94">
         <v>191.74</v>
       </c>
@@ -5829,6 +6108,9 @@
       <c r="M95">
         <v>75526</v>
       </c>
+      <c r="N95">
+        <v>9.811190848184731</v>
+      </c>
       <c r="O95">
         <v>195.13</v>
       </c>
@@ -5888,6 +6170,9 @@
       <c r="M96">
         <v>72326</v>
       </c>
+      <c r="N96">
+        <v>10.92276636341012</v>
+      </c>
       <c r="O96">
         <v>189.34</v>
       </c>
@@ -5947,6 +6232,9 @@
       <c r="M97">
         <v>42480</v>
       </c>
+      <c r="N97">
+        <v>6.92090395480226</v>
+      </c>
       <c r="O97">
         <v>196.14</v>
       </c>
@@ -6006,6 +6294,9 @@
       <c r="M98">
         <v>96238</v>
       </c>
+      <c r="N98">
+        <v>8.645233691473223</v>
+      </c>
       <c r="O98">
         <v>201.05</v>
       </c>
@@ -6065,6 +6356,9 @@
       <c r="M99">
         <v>39576</v>
       </c>
+      <c r="N99">
+        <v>6.013745704467354</v>
+      </c>
       <c r="O99">
         <v>232.05</v>
       </c>
@@ -6124,6 +6418,9 @@
       <c r="M100">
         <v>45939</v>
       </c>
+      <c r="N100">
+        <v>9.403774570626265</v>
+      </c>
       <c r="O100">
         <v>189.78</v>
       </c>
@@ -6183,6 +6480,9 @@
       <c r="M101">
         <v>53806</v>
       </c>
+      <c r="N101">
+        <v>6.411924320707728</v>
+      </c>
       <c r="O101">
         <v>196.51</v>
       </c>
@@ -6242,6 +6542,9 @@
       <c r="M102">
         <v>61970</v>
       </c>
+      <c r="N102">
+        <v>15.76569307729546</v>
+      </c>
       <c r="O102">
         <v>168.34</v>
       </c>
@@ -6301,6 +6604,9 @@
       <c r="M103">
         <v>56999</v>
       </c>
+      <c r="N103">
+        <v>6.280811944069194</v>
+      </c>
       <c r="O103">
         <v>202.48</v>
       </c>
@@ -6360,6 +6666,9 @@
       <c r="M104">
         <v>37969</v>
       </c>
+      <c r="N104">
+        <v>9.033685374911112</v>
+      </c>
       <c r="O104">
         <v>191.24</v>
       </c>
@@ -6419,6 +6728,9 @@
       <c r="M105">
         <v>487200</v>
       </c>
+      <c r="N105">
+        <v>2.686781609195402</v>
+      </c>
       <c r="O105">
         <v>197.19</v>
       </c>
@@ -6457,6 +6769,9 @@
       <c r="M106">
         <v>118353</v>
       </c>
+      <c r="N106">
+        <v>5.137174385102194</v>
+      </c>
       <c r="O106">
         <v>197.59</v>
       </c>
@@ -6516,6 +6831,9 @@
       <c r="M107">
         <v>181493</v>
       </c>
+      <c r="N107">
+        <v>4.115861217788014</v>
+      </c>
       <c r="O107">
         <v>224.44</v>
       </c>
@@ -6575,6 +6893,9 @@
       <c r="M108">
         <v>35957</v>
       </c>
+      <c r="N108">
+        <v>5.895931251216731</v>
+      </c>
       <c r="O108">
         <v>222.53</v>
       </c>
@@ -6634,6 +6955,9 @@
       <c r="M109">
         <v>89574</v>
       </c>
+      <c r="N109">
+        <v>4.934467591042043</v>
+      </c>
       <c r="O109">
         <v>234.82</v>
       </c>
@@ -6693,6 +7017,9 @@
       <c r="M110">
         <v>55164</v>
       </c>
+      <c r="N110">
+        <v>3.897469364078022</v>
+      </c>
       <c r="O110">
         <v>234.78</v>
       </c>
@@ -6752,6 +7079,9 @@
       <c r="M111">
         <v>68555</v>
       </c>
+      <c r="N111">
+        <v>5.805557581503902</v>
+      </c>
       <c r="O111">
         <v>219.37</v>
       </c>
@@ -6811,6 +7141,9 @@
       <c r="M112">
         <v>323625</v>
       </c>
+      <c r="N112">
+        <v>5.806102742371572</v>
+      </c>
       <c r="O112">
         <v>237.87</v>
       </c>
@@ -6870,6 +7203,9 @@
       <c r="M113">
         <v>110506</v>
       </c>
+      <c r="N113">
+        <v>9.094528803865854</v>
+      </c>
       <c r="O113">
         <v>206.77</v>
       </c>
@@ -6929,6 +7265,9 @@
       <c r="M114">
         <v>38333</v>
       </c>
+      <c r="N114">
+        <v>11.11314011426186</v>
+      </c>
       <c r="O114">
         <v>178.37</v>
       </c>
@@ -6967,6 +7306,9 @@
       <c r="M115">
         <v>40278</v>
       </c>
+      <c r="N115">
+        <v>15.46750086896072</v>
+      </c>
       <c r="O115">
         <v>187.33</v>
       </c>
@@ -7005,6 +7347,9 @@
       <c r="M116">
         <v>107620</v>
       </c>
+      <c r="N116">
+        <v>8.855231369633897</v>
+      </c>
       <c r="O116">
         <v>204.66</v>
       </c>
@@ -7064,6 +7409,9 @@
       <c r="M117">
         <v>106094</v>
       </c>
+      <c r="N117">
+        <v>7.710143834712613</v>
+      </c>
       <c r="O117">
         <v>198.07</v>
       </c>
@@ -7123,6 +7471,9 @@
       <c r="M118">
         <v>87672</v>
       </c>
+      <c r="N118">
+        <v>13.49347568208778</v>
+      </c>
       <c r="O118">
         <v>194.49</v>
       </c>
@@ -7182,6 +7533,9 @@
       <c r="M119">
         <v>67999</v>
       </c>
+      <c r="N119">
+        <v>12.27959234694628</v>
+      </c>
       <c r="O119">
         <v>187.03</v>
       </c>
@@ -7220,6 +7574,9 @@
       <c r="M120">
         <v>35322</v>
       </c>
+      <c r="N120">
+        <v>12.82486835400034</v>
+      </c>
       <c r="O120">
         <v>173.05</v>
       </c>
@@ -7279,6 +7636,9 @@
       <c r="M121">
         <v>56896</v>
       </c>
+      <c r="N121">
+        <v>16.32803712035996</v>
+      </c>
       <c r="O121">
         <v>183.95</v>
       </c>
@@ -7338,6 +7698,9 @@
       <c r="M122">
         <v>163428</v>
       </c>
+      <c r="N122">
+        <v>11.56472575078934</v>
+      </c>
       <c r="O122">
         <v>196.5</v>
       </c>
@@ -7376,6 +7739,9 @@
       <c r="M123">
         <v>84202</v>
       </c>
+      <c r="N123">
+        <v>11.63867841618964</v>
+      </c>
       <c r="O123">
         <v>183.92</v>
       </c>
@@ -7435,6 +7801,9 @@
       <c r="M124">
         <v>118295</v>
       </c>
+      <c r="N124">
+        <v>11.90244727165138</v>
+      </c>
       <c r="O124">
         <v>193.66</v>
       </c>
@@ -7494,6 +7863,9 @@
       <c r="M125">
         <v>42918</v>
       </c>
+      <c r="N125">
+        <v>11.97632694906566</v>
+      </c>
       <c r="O125">
         <v>204.19</v>
       </c>
@@ -7532,6 +7904,9 @@
       <c r="M126">
         <v>41745</v>
       </c>
+      <c r="N126">
+        <v>11.76188765121571</v>
+      </c>
       <c r="O126">
         <v>175.12</v>
       </c>
@@ -7591,6 +7966,9 @@
       <c r="M127">
         <v>61351</v>
       </c>
+      <c r="N127">
+        <v>10.90446773483725</v>
+      </c>
       <c r="O127">
         <v>184.28</v>
       </c>
@@ -7650,6 +8028,9 @@
       <c r="M128">
         <v>76578</v>
       </c>
+      <c r="N128">
+        <v>13.60704118676382</v>
+      </c>
       <c r="O128">
         <v>179.66</v>
       </c>
@@ -7709,6 +8090,9 @@
       <c r="M129">
         <v>285146</v>
       </c>
+      <c r="N129">
+        <v>6.053039495556662</v>
+      </c>
       <c r="O129">
         <v>207.09</v>
       </c>
@@ -7768,6 +8152,9 @@
       <c r="M130">
         <v>62269</v>
       </c>
+      <c r="N130">
+        <v>9.410782251200438</v>
+      </c>
       <c r="O130">
         <v>179.29</v>
       </c>
@@ -7827,6 +8214,9 @@
       <c r="M131">
         <v>45875</v>
       </c>
+      <c r="N131">
+        <v>14.53950953678474</v>
+      </c>
       <c r="O131">
         <v>183.77</v>
       </c>
@@ -7886,6 +8276,9 @@
       <c r="M132">
         <v>152306</v>
       </c>
+      <c r="N132">
+        <v>5.482384147702652</v>
+      </c>
       <c r="O132">
         <v>200.73</v>
       </c>
@@ -7945,6 +8338,9 @@
       <c r="M133">
         <v>38267</v>
       </c>
+      <c r="N133">
+        <v>10.26994538375101</v>
+      </c>
       <c r="O133">
         <v>197.92</v>
       </c>
@@ -7983,6 +8379,9 @@
       <c r="M134">
         <v>87919</v>
       </c>
+      <c r="N134">
+        <v>12.02242973646197</v>
+      </c>
       <c r="O134">
         <v>189.95</v>
       </c>
@@ -8042,6 +8441,9 @@
       <c r="M135">
         <v>46578</v>
       </c>
+      <c r="N135">
+        <v>7.449869036884366</v>
+      </c>
       <c r="O135">
         <v>190.19</v>
       </c>
@@ -8101,6 +8503,9 @@
       <c r="M136">
         <v>39763</v>
       </c>
+      <c r="N136">
+        <v>12.67509996730629</v>
+      </c>
       <c r="O136">
         <v>207.19</v>
       </c>
@@ -8160,6 +8565,9 @@
       <c r="M137">
         <v>43112</v>
       </c>
+      <c r="N137">
+        <v>16.39914640935238</v>
+      </c>
       <c r="O137">
         <v>179.88</v>
       </c>
@@ -8219,6 +8627,9 @@
       <c r="M138">
         <v>88167</v>
       </c>
+      <c r="N138">
+        <v>13.82603468417889</v>
+      </c>
       <c r="O138">
         <v>184.83</v>
       </c>
@@ -8278,6 +8689,9 @@
       <c r="M139">
         <v>59037</v>
       </c>
+      <c r="N139">
+        <v>14.83815234513949</v>
+      </c>
       <c r="O139">
         <v>199.85</v>
       </c>
@@ -8316,6 +8730,9 @@
       <c r="M140">
         <v>38446</v>
       </c>
+      <c r="N140">
+        <v>14.8780107163294</v>
+      </c>
       <c r="O140">
         <v>192.85</v>
       </c>
@@ -8354,6 +8771,9 @@
       <c r="M141">
         <v>48036</v>
       </c>
+      <c r="N141">
+        <v>9.284703139312182</v>
+      </c>
       <c r="O141">
         <v>192.89</v>
       </c>
@@ -8392,6 +8812,9 @@
       <c r="M142">
         <v>35221</v>
       </c>
+      <c r="N142">
+        <v>20.21521251526078</v>
+      </c>
       <c r="O142">
         <v>194.3</v>
       </c>
@@ -8451,6 +8874,9 @@
       <c r="M143">
         <v>257414</v>
       </c>
+      <c r="N143">
+        <v>3.333152043012424</v>
+      </c>
       <c r="O143">
         <v>216.6</v>
       </c>
@@ -8510,6 +8936,9 @@
       <c r="M144">
         <v>1088057</v>
       </c>
+      <c r="N144">
+        <v>3.593561734357667</v>
+      </c>
       <c r="O144">
         <v>205.03</v>
       </c>
@@ -8569,6 +8998,9 @@
       <c r="M145">
         <v>40160</v>
       </c>
+      <c r="N145">
+        <v>10.10956175298805</v>
+      </c>
       <c r="O145">
         <v>185.9</v>
       </c>
@@ -8628,6 +9060,9 @@
       <c r="M146">
         <v>182241</v>
       </c>
+      <c r="N146">
+        <v>6.699919337580456</v>
+      </c>
       <c r="O146">
         <v>216.63</v>
       </c>
@@ -8666,6 +9101,9 @@
       <c r="M147">
         <v>37401</v>
       </c>
+      <c r="N147">
+        <v>15.88192829068741</v>
+      </c>
       <c r="O147">
         <v>187.44</v>
       </c>
@@ -8725,6 +9163,9 @@
       <c r="M148">
         <v>38905</v>
       </c>
+      <c r="N148">
+        <v>13.95707492610204</v>
+      </c>
       <c r="O148">
         <v>179.91</v>
       </c>
@@ -8784,6 +9225,9 @@
       <c r="M149">
         <v>55041</v>
       </c>
+      <c r="N149">
+        <v>12.31809015097836</v>
+      </c>
       <c r="O149">
         <v>183.42</v>
       </c>
@@ -8843,6 +9287,9 @@
       <c r="M150">
         <v>44540</v>
       </c>
+      <c r="N150">
+        <v>14.12213740458015</v>
+      </c>
       <c r="O150">
         <v>191.75</v>
       </c>
@@ -8902,6 +9349,9 @@
       <c r="M151">
         <v>53115</v>
       </c>
+      <c r="N151">
+        <v>12.85889108538078</v>
+      </c>
       <c r="O151">
         <v>186.69</v>
       </c>
@@ -8961,6 +9411,9 @@
       <c r="M152">
         <v>41943</v>
       </c>
+      <c r="N152">
+        <v>16.8800514984622</v>
+      </c>
       <c r="O152">
         <v>216.7</v>
       </c>
@@ -9020,6 +9473,9 @@
       <c r="M153">
         <v>49637</v>
       </c>
+      <c r="N153">
+        <v>8.018212220722445</v>
+      </c>
       <c r="O153">
         <v>220.16</v>
       </c>
@@ -9079,6 +9535,9 @@
       <c r="M154">
         <v>49533</v>
       </c>
+      <c r="N154">
+        <v>11.10370863868532</v>
+      </c>
       <c r="O154">
         <v>199.18</v>
       </c>
@@ -9138,6 +9597,9 @@
       <c r="M155">
         <v>47074</v>
       </c>
+      <c r="N155">
+        <v>10.49411564770362</v>
+      </c>
       <c r="O155">
         <v>220.35</v>
       </c>
@@ -9197,6 +9659,9 @@
       <c r="M156">
         <v>42510</v>
       </c>
+      <c r="N156">
+        <v>7.174782404140203</v>
+      </c>
       <c r="O156">
         <v>193.71</v>
       </c>
@@ -9256,6 +9721,9 @@
       <c r="M157">
         <v>64150</v>
       </c>
+      <c r="N157">
+        <v>6.37568199532346</v>
+      </c>
       <c r="O157">
         <v>232.48</v>
       </c>
@@ -9315,6 +9783,9 @@
       <c r="M158">
         <v>44391</v>
       </c>
+      <c r="N158">
+        <v>6.285057781982834</v>
+      </c>
       <c r="O158">
         <v>193.47</v>
       </c>
@@ -9374,6 +9845,9 @@
       <c r="M159">
         <v>39545</v>
       </c>
+      <c r="N159">
+        <v>8.446074092805665</v>
+      </c>
       <c r="O159">
         <v>268.48</v>
       </c>
@@ -9433,6 +9907,9 @@
       <c r="M160">
         <v>169552</v>
       </c>
+      <c r="N160">
+        <v>4.677031235255261</v>
+      </c>
       <c r="O160">
         <v>208.36</v>
       </c>
@@ -9492,6 +9969,9 @@
       <c r="M161">
         <v>39039</v>
       </c>
+      <c r="N161">
+        <v>9.324009324009324</v>
+      </c>
       <c r="O161">
         <v>188.62</v>
       </c>
@@ -9551,6 +10031,9 @@
       <c r="M162">
         <v>86228</v>
       </c>
+      <c r="N162">
+        <v>8.454330379922995</v>
+      </c>
       <c r="O162">
         <v>202.41</v>
       </c>
@@ -9610,6 +10093,9 @@
       <c r="M163">
         <v>67676</v>
       </c>
+      <c r="N163">
+        <v>8.289497015190022</v>
+      </c>
       <c r="O163">
         <v>209.52</v>
       </c>
@@ -9669,6 +10155,9 @@
       <c r="M164">
         <v>40784</v>
       </c>
+      <c r="N164">
+        <v>4.977442134170263</v>
+      </c>
       <c r="O164">
         <v>186.14</v>
       </c>
@@ -9728,6 +10217,9 @@
       <c r="M165">
         <v>902644</v>
       </c>
+      <c r="N165">
+        <v>3.840938398748565</v>
+      </c>
       <c r="O165">
         <v>258.44</v>
       </c>
@@ -9787,6 +10279,9 @@
       <c r="M166">
         <v>47707</v>
       </c>
+      <c r="N166">
+        <v>6.539920766344562</v>
+      </c>
       <c r="O166">
         <v>205.24</v>
       </c>
@@ -9846,6 +10341,9 @@
       <c r="M167">
         <v>68758</v>
       </c>
+      <c r="N167">
+        <v>8.348119491550074</v>
+      </c>
       <c r="O167">
         <v>249.11</v>
       </c>
@@ -9905,6 +10403,9 @@
       <c r="M168">
         <v>46215</v>
       </c>
+      <c r="N168">
+        <v>11.12193010927188</v>
+      </c>
       <c r="O168">
         <v>215.76</v>
       </c>
@@ -9964,6 +10465,9 @@
       <c r="M169">
         <v>44342</v>
       </c>
+      <c r="N169">
+        <v>10.26115195525687</v>
+      </c>
       <c r="O169">
         <v>218.24</v>
       </c>
@@ -10023,6 +10527,9 @@
       <c r="M170">
         <v>84737</v>
       </c>
+      <c r="N170">
+        <v>5.522971075209177</v>
+      </c>
       <c r="O170">
         <v>230.44</v>
       </c>
@@ -10082,6 +10589,9 @@
       <c r="M171">
         <v>78752</v>
       </c>
+      <c r="N171">
+        <v>8.355343356359203</v>
+      </c>
       <c r="O171">
         <v>225.02</v>
       </c>
@@ -10141,6 +10651,9 @@
       <c r="M172">
         <v>80217</v>
       </c>
+      <c r="N172">
+        <v>6.282957477841355</v>
+      </c>
       <c r="O172">
         <v>233.74</v>
       </c>
@@ -10200,6 +10713,9 @@
       <c r="M173">
         <v>36978</v>
       </c>
+      <c r="N173">
+        <v>6.301043863919087</v>
+      </c>
       <c r="O173">
         <v>210.59</v>
       </c>
@@ -10259,6 +10775,9 @@
       <c r="M174">
         <v>55666</v>
       </c>
+      <c r="N174">
+        <v>8.083929148852082</v>
+      </c>
       <c r="O174">
         <v>226.97</v>
       </c>
@@ -10318,6 +10837,9 @@
       <c r="M175">
         <v>34441</v>
       </c>
+      <c r="N175">
+        <v>8.478267181556866</v>
+      </c>
       <c r="O175">
         <v>238.34</v>
       </c>
@@ -10377,6 +10899,9 @@
       <c r="M176">
         <v>52169</v>
       </c>
+      <c r="N176">
+        <v>7.801567980984876</v>
+      </c>
       <c r="O176">
         <v>211.5</v>
       </c>
@@ -10436,6 +10961,9 @@
       <c r="M177">
         <v>53778</v>
       </c>
+      <c r="N177">
+        <v>11.54747294432668</v>
+      </c>
       <c r="O177">
         <v>236.79</v>
       </c>
@@ -10495,6 +11023,9 @@
       <c r="M178">
         <v>65031</v>
       </c>
+      <c r="N178">
+        <v>10.48730605403577</v>
+      </c>
       <c r="O178">
         <v>244.13</v>
       </c>
@@ -10554,6 +11085,9 @@
       <c r="M179">
         <v>77207</v>
       </c>
+      <c r="N179">
+        <v>6.16524408408564</v>
+      </c>
       <c r="O179">
         <v>234.38</v>
       </c>
@@ -10613,6 +11147,9 @@
       <c r="M180">
         <v>76365</v>
       </c>
+      <c r="N180">
+        <v>6.429647089635304</v>
+      </c>
       <c r="O180">
         <v>241.24</v>
       </c>
@@ -10672,6 +11209,9 @@
       <c r="M181">
         <v>375730</v>
       </c>
+      <c r="N181">
+        <v>6.13206291752056</v>
+      </c>
       <c r="O181">
         <v>205.99</v>
       </c>
@@ -10731,6 +11271,9 @@
       <c r="M182">
         <v>79809</v>
       </c>
+      <c r="N182">
+        <v>7.179641393827763</v>
+      </c>
       <c r="O182">
         <v>247.87</v>
       </c>
@@ -10790,6 +11333,9 @@
       <c r="M183">
         <v>138232</v>
       </c>
+      <c r="N183">
+        <v>6.742288326870768</v>
+      </c>
       <c r="O183">
         <v>211.6</v>
       </c>
@@ -10849,6 +11395,9 @@
       <c r="M184">
         <v>80304</v>
       </c>
+      <c r="N184">
+        <v>8.716875871687588</v>
+      </c>
       <c r="O184">
         <v>228.94</v>
       </c>
@@ -10908,6 +11457,9 @@
       <c r="M185">
         <v>2574412</v>
       </c>
+      <c r="N185">
+        <v>3.563920615659032</v>
+      </c>
       <c r="O185">
         <v>225.92</v>
       </c>
@@ -10967,6 +11519,9 @@
       <c r="M186">
         <v>55633</v>
       </c>
+      <c r="N186">
+        <v>14.86527780274298</v>
+      </c>
       <c r="O186">
         <v>261.42</v>
       </c>
@@ -11026,6 +11581,9 @@
       <c r="M187">
         <v>44294</v>
       </c>
+      <c r="N187">
+        <v>11.67200975301395</v>
+      </c>
       <c r="O187">
         <v>244.81</v>
       </c>
@@ -11085,6 +11643,9 @@
       <c r="M188">
         <v>79934</v>
       </c>
+      <c r="N188">
+        <v>6.405284359596667</v>
+      </c>
       <c r="O188">
         <v>248.38</v>
       </c>
@@ -11144,6 +11705,9 @@
       <c r="M189">
         <v>64802</v>
       </c>
+      <c r="N189">
+        <v>8.950341038856825</v>
+      </c>
       <c r="O189">
         <v>193.34</v>
       </c>
@@ -11203,6 +11767,9 @@
       <c r="M190">
         <v>102251</v>
       </c>
+      <c r="N190">
+        <v>5.114864402304134</v>
+      </c>
       <c r="O190">
         <v>211.72</v>
       </c>
@@ -11262,6 +11829,9 @@
       <c r="M191">
         <v>42968</v>
       </c>
+      <c r="N191">
+        <v>11.96239061627258</v>
+      </c>
       <c r="O191">
         <v>223</v>
       </c>
@@ -11321,6 +11891,9 @@
       <c r="M192">
         <v>38285</v>
       </c>
+      <c r="N192">
+        <v>11.41439205955335</v>
+      </c>
       <c r="O192">
         <v>236.55</v>
       </c>
@@ -11380,6 +11953,9 @@
       <c r="M193">
         <v>70679</v>
       </c>
+      <c r="N193">
+        <v>3.848384951682961</v>
+      </c>
       <c r="O193">
         <v>216.92</v>
       </c>
@@ -11439,6 +12015,9 @@
       <c r="M194">
         <v>49086</v>
       </c>
+      <c r="N194">
+        <v>8.474921566230696</v>
+      </c>
       <c r="O194">
         <v>227.93</v>
       </c>
@@ -11498,6 +12077,9 @@
       <c r="M195">
         <v>137892</v>
       </c>
+      <c r="N195">
+        <v>9.550952919676268</v>
+      </c>
       <c r="O195">
         <v>224.61</v>
       </c>
@@ -11557,6 +12139,9 @@
       <c r="M196">
         <v>45465</v>
       </c>
+      <c r="N196">
+        <v>8.644011877268229</v>
+      </c>
       <c r="O196">
         <v>225.85</v>
       </c>
@@ -11616,6 +12201,9 @@
       <c r="M197">
         <v>35124</v>
       </c>
+      <c r="N197">
+        <v>8.114110010249401</v>
+      </c>
       <c r="O197">
         <v>230.78</v>
       </c>
@@ -11675,6 +12263,9 @@
       <c r="M198">
         <v>303004</v>
       </c>
+      <c r="N198">
+        <v>5.448772953492363</v>
+      </c>
       <c r="O198">
         <v>207.41</v>
       </c>
@@ -11734,6 +12325,9 @@
       <c r="M199">
         <v>62285</v>
       </c>
+      <c r="N199">
+        <v>4.399133017580477</v>
+      </c>
       <c r="O199">
         <v>235.99</v>
       </c>
@@ -11793,6 +12387,9 @@
       <c r="M200">
         <v>249684</v>
       </c>
+      <c r="N200">
+        <v>5.522981048044729</v>
+      </c>
       <c r="O200">
         <v>221.97</v>
       </c>
@@ -11852,6 +12449,9 @@
       <c r="M201">
         <v>108937</v>
       </c>
+      <c r="N201">
+        <v>9.032743695897629</v>
+      </c>
       <c r="O201">
         <v>227.56</v>
       </c>
@@ -11911,6 +12511,9 @@
       <c r="M202">
         <v>39633</v>
       </c>
+      <c r="N202">
+        <v>8.831024651174527</v>
+      </c>
       <c r="O202">
         <v>255.17</v>
       </c>
@@ -11970,6 +12573,9 @@
       <c r="M203">
         <v>47406</v>
       </c>
+      <c r="N203">
+        <v>8.163523604607011</v>
+      </c>
       <c r="O203">
         <v>215.89</v>
       </c>
@@ -12029,6 +12635,9 @@
       <c r="M204">
         <v>38767</v>
       </c>
+      <c r="N204">
+        <v>10.70498104057575</v>
+      </c>
       <c r="O204">
         <v>238.86</v>
       </c>
@@ -12088,6 +12697,9 @@
       <c r="M205">
         <v>38649</v>
       </c>
+      <c r="N205">
+        <v>8.305518900877125</v>
+      </c>
       <c r="O205">
         <v>257.67</v>
       </c>
@@ -12147,6 +12759,9 @@
       <c r="M206">
         <v>65323</v>
       </c>
+      <c r="N206">
+        <v>6.751067770922952</v>
+      </c>
       <c r="O206">
         <v>227.94</v>
       </c>
@@ -12206,6 +12821,9 @@
       <c r="M207">
         <v>74825</v>
       </c>
+      <c r="N207">
+        <v>5.439358503174073</v>
+      </c>
       <c r="O207">
         <v>228.05</v>
       </c>
@@ -12265,6 +12883,9 @@
       <c r="M208">
         <v>85873</v>
       </c>
+      <c r="N208">
+        <v>5.566359624096049</v>
+      </c>
       <c r="O208">
         <v>221.5</v>
       </c>
@@ -12324,6 +12945,9 @@
       <c r="M209">
         <v>41447</v>
       </c>
+      <c r="N209">
+        <v>7.575940357565083</v>
+      </c>
       <c r="O209">
         <v>221.29</v>
       </c>
@@ -12383,6 +13007,9 @@
       <c r="M210">
         <v>42257</v>
       </c>
+      <c r="N210">
+        <v>13.46522469649999</v>
+      </c>
       <c r="O210">
         <v>281.14</v>
       </c>
@@ -12442,6 +13069,9 @@
       <c r="M211">
         <v>39715</v>
       </c>
+      <c r="N211">
+        <v>8.58617650761677</v>
+      </c>
       <c r="O211">
         <v>246.09</v>
       </c>
@@ -12501,6 +13131,9 @@
       <c r="M212">
         <v>88483</v>
       </c>
+      <c r="N212">
+        <v>5.61689816122871</v>
+      </c>
       <c r="O212">
         <v>209.73</v>
       </c>
@@ -12560,6 +13193,9 @@
       <c r="M213">
         <v>85797</v>
       </c>
+      <c r="N213">
+        <v>8.648321036866092</v>
+      </c>
       <c r="O213">
         <v>284.73</v>
       </c>
@@ -12619,6 +13255,9 @@
       <c r="M214">
         <v>74582</v>
       </c>
+      <c r="N214">
+        <v>7.857123702770106</v>
+      </c>
       <c r="O214">
         <v>257.36</v>
       </c>
@@ -12678,6 +13317,9 @@
       <c r="M215">
         <v>41647</v>
       </c>
+      <c r="N215">
+        <v>10.70905467380604</v>
+      </c>
       <c r="O215">
         <v>225.61</v>
       </c>
@@ -12737,6 +13379,9 @@
       <c r="M216">
         <v>49829</v>
       </c>
+      <c r="N216">
+        <v>8.76999337735054</v>
+      </c>
       <c r="O216">
         <v>219.77</v>
       </c>
@@ -12796,6 +13441,9 @@
       <c r="M217">
         <v>57499</v>
       </c>
+      <c r="N217">
+        <v>10.29583123184751</v>
+      </c>
       <c r="O217">
         <v>239.67</v>
       </c>
@@ -12855,6 +13503,9 @@
       <c r="M218">
         <v>215286</v>
       </c>
+      <c r="N218">
+        <v>6.089573869178674</v>
+      </c>
       <c r="O218">
         <v>296.25</v>
       </c>
@@ -12914,6 +13565,9 @@
       <c r="M219">
         <v>64255</v>
       </c>
+      <c r="N219">
+        <v>6.567582289316007</v>
+      </c>
       <c r="O219">
         <v>222.92</v>
       </c>
@@ -12973,6 +13627,9 @@
       <c r="M220">
         <v>86137</v>
       </c>
+      <c r="N220">
+        <v>7.000475985929391</v>
+      </c>
       <c r="O220">
         <v>229.32</v>
       </c>
@@ -13032,6 +13689,9 @@
       <c r="M221">
         <v>61516</v>
       </c>
+      <c r="N221">
+        <v>8.875739644970414</v>
+      </c>
       <c r="O221">
         <v>228.67</v>
       </c>
@@ -13091,6 +13751,9 @@
       <c r="M222">
         <v>40771</v>
       </c>
+      <c r="N222">
+        <v>10.96367516126659</v>
+      </c>
       <c r="O222">
         <v>225.74</v>
       </c>
@@ -13150,6 +13813,9 @@
       <c r="M223">
         <v>62609</v>
       </c>
+      <c r="N223">
+        <v>10.71730901308119</v>
+      </c>
       <c r="O223">
         <v>225.34</v>
       </c>
@@ -13209,6 +13875,9 @@
       <c r="M224">
         <v>58906</v>
       </c>
+      <c r="N224">
+        <v>4.142192645910433</v>
+      </c>
       <c r="O224">
         <v>190.98</v>
       </c>
@@ -13268,6 +13937,9 @@
       <c r="M225">
         <v>37390</v>
       </c>
+      <c r="N225">
+        <v>4.867611660871891</v>
+      </c>
       <c r="O225">
         <v>202.45</v>
       </c>
@@ -13327,6 +13999,9 @@
       <c r="M226">
         <v>63339</v>
       </c>
+      <c r="N226">
+        <v>4.641689954056742</v>
+      </c>
       <c r="O226">
         <v>206.56</v>
       </c>
@@ -13386,6 +14061,9 @@
       <c r="M227">
         <v>83009</v>
       </c>
+      <c r="N227">
+        <v>6.710115770579094</v>
+      </c>
       <c r="O227">
         <v>182.3</v>
       </c>
@@ -13445,6 +14123,9 @@
       <c r="M228">
         <v>42930</v>
       </c>
+      <c r="N228">
+        <v>6.335895644071745</v>
+      </c>
       <c r="O228">
         <v>213.48</v>
       </c>
@@ -13504,6 +14185,9 @@
       <c r="M229">
         <v>269298</v>
       </c>
+      <c r="N229">
+        <v>4.01785382735854</v>
+      </c>
       <c r="O229">
         <v>204.67</v>
       </c>
@@ -13563,6 +14247,9 @@
       <c r="M230">
         <v>66993</v>
       </c>
+      <c r="N230">
+        <v>3.985491021450002</v>
+      </c>
       <c r="O230">
         <v>189.89</v>
       </c>
@@ -13622,6 +14309,9 @@
       <c r="M231">
         <v>34768</v>
       </c>
+      <c r="N231">
+        <v>7.44937873907041</v>
+      </c>
       <c r="O231">
         <v>174.99</v>
       </c>
@@ -13681,6 +14371,9 @@
       <c r="M232">
         <v>86433</v>
       </c>
+      <c r="N232">
+        <v>4.662571008758229</v>
+      </c>
       <c r="O232">
         <v>188.25</v>
       </c>
@@ -13740,6 +14433,9 @@
       <c r="M233">
         <v>278034</v>
       </c>
+      <c r="N233">
+        <v>3.438428393649697</v>
+      </c>
       <c r="O233">
         <v>218.78</v>
       </c>
@@ -13799,6 +14495,9 @@
       <c r="M234">
         <v>785368</v>
       </c>
+      <c r="N234">
+        <v>3.166668364384594</v>
+      </c>
       <c r="O234">
         <v>203.82</v>
       </c>
@@ -13858,6 +14557,9 @@
       <c r="M235">
         <v>35534</v>
       </c>
+      <c r="N235">
+        <v>5.82540665278325</v>
+      </c>
       <c r="O235">
         <v>179.06</v>
       </c>
@@ -13917,6 +14619,9 @@
       <c r="M236">
         <v>38996</v>
       </c>
+      <c r="N236">
+        <v>3.718330085136937</v>
+      </c>
       <c r="O236">
         <v>183.51</v>
       </c>
@@ -13976,6 +14681,9 @@
       <c r="M237">
         <v>123207</v>
       </c>
+      <c r="N237">
+        <v>4.569545561534653</v>
+      </c>
       <c r="O237">
         <v>190.92</v>
       </c>
@@ -14035,6 +14743,9 @@
       <c r="M238">
         <v>49693</v>
       </c>
+      <c r="N238">
+        <v>6.520033002636186</v>
+      </c>
       <c r="O238">
         <v>188.78</v>
       </c>
@@ -14094,6 +14805,9 @@
       <c r="M239">
         <v>34624</v>
       </c>
+      <c r="N239">
+        <v>7.971349353049908</v>
+      </c>
       <c r="O239">
         <v>180.68</v>
       </c>
@@ -14153,6 +14867,9 @@
       <c r="M240">
         <v>84404</v>
       </c>
+      <c r="N240">
+        <v>6.350409933178522</v>
+      </c>
       <c r="O240">
         <v>192.9</v>
       </c>
@@ -14212,6 +14929,9 @@
       <c r="M241">
         <v>70067</v>
       </c>
+      <c r="N241">
+        <v>5.737365664292748</v>
+      </c>
       <c r="O241">
         <v>201.55</v>
       </c>
@@ -14271,6 +14991,9 @@
       <c r="M242">
         <v>66171</v>
       </c>
+      <c r="N242">
+        <v>4.65460700306781</v>
+      </c>
       <c r="O242">
         <v>211.21</v>
       </c>
@@ -14330,6 +15053,9 @@
       <c r="M243">
         <v>440939</v>
       </c>
+      <c r="N243">
+        <v>3.635423493952678</v>
+      </c>
       <c r="O243">
         <v>218.31</v>
       </c>
@@ -14389,6 +15115,9 @@
       <c r="M244">
         <v>59836</v>
       </c>
+      <c r="N244">
+        <v>4.880005347951066</v>
+      </c>
       <c r="O244">
         <v>196.48</v>
       </c>
@@ -14448,6 +15177,9 @@
       <c r="M245">
         <v>888679</v>
       </c>
+      <c r="N245">
+        <v>2.885181263425826</v>
+      </c>
       <c r="O245">
         <v>214.92</v>
       </c>
@@ -14507,6 +15239,9 @@
       <c r="M246">
         <v>46719</v>
       </c>
+      <c r="N246">
+        <v>5.672210449709968</v>
+      </c>
       <c r="O246">
         <v>190.19</v>
       </c>
@@ -14566,6 +15301,9 @@
       <c r="M247">
         <v>107774</v>
       </c>
+      <c r="N247">
+        <v>4.527993764729898</v>
+      </c>
       <c r="O247">
         <v>204.11</v>
       </c>
@@ -14625,6 +15363,9 @@
       <c r="M248">
         <v>50214</v>
       </c>
+      <c r="N248">
+        <v>8.583263631656511</v>
+      </c>
       <c r="O248">
         <v>219.1</v>
       </c>
@@ -14684,6 +15425,9 @@
       <c r="M249">
         <v>159121</v>
       </c>
+      <c r="N249">
+        <v>3.795853470000817</v>
+      </c>
       <c r="O249">
         <v>187.79</v>
       </c>
@@ -14743,6 +15487,9 @@
       <c r="M250">
         <v>53309</v>
       </c>
+      <c r="N250">
+        <v>5.458740550376109</v>
+      </c>
       <c r="O250">
         <v>182.58</v>
       </c>
@@ -14802,6 +15549,9 @@
       <c r="M251">
         <v>69876</v>
       </c>
+      <c r="N251">
+        <v>3.964165092449482</v>
+      </c>
       <c r="O251">
         <v>228.34</v>
       </c>
@@ -14861,6 +15611,9 @@
       <c r="M252">
         <v>103945</v>
       </c>
+      <c r="N252">
+        <v>2.424359036028669</v>
+      </c>
       <c r="O252">
         <v>200.17</v>
       </c>
@@ -14899,6 +15652,9 @@
       <c r="M253">
         <v>42407</v>
       </c>
+      <c r="N253">
+        <v>7.09788478317259</v>
+      </c>
       <c r="O253">
         <v>231.45</v>
       </c>
@@ -14958,6 +15714,9 @@
       <c r="M254">
         <v>43713</v>
       </c>
+      <c r="N254">
+        <v>5.581863518861666</v>
+      </c>
       <c r="O254">
         <v>203.69</v>
       </c>
@@ -15017,6 +15776,9 @@
       <c r="M255">
         <v>37372</v>
       </c>
+      <c r="N255">
+        <v>5.833244139997859</v>
+      </c>
       <c r="O255">
         <v>189.98</v>
       </c>
@@ -15076,6 +15838,9 @@
       <c r="M256">
         <v>90104</v>
       </c>
+      <c r="N256">
+        <v>5.704519222232087</v>
+      </c>
       <c r="O256">
         <v>200.19</v>
       </c>
@@ -15114,6 +15879,9 @@
       <c r="M257">
         <v>82003</v>
       </c>
+      <c r="N257">
+        <v>3.475482604294965</v>
+      </c>
       <c r="O257">
         <v>228.61</v>
       </c>
@@ -15173,6 +15941,9 @@
       <c r="M258">
         <v>42056</v>
       </c>
+      <c r="N258">
+        <v>5.801788092067719</v>
+      </c>
       <c r="O258">
         <v>188.87</v>
       </c>
@@ -15232,6 +16003,9 @@
       <c r="M259">
         <v>83647</v>
       </c>
+      <c r="N259">
+        <v>5.487345631044747</v>
+      </c>
       <c r="O259">
         <v>205.22</v>
       </c>
@@ -15291,6 +16065,9 @@
       <c r="M260">
         <v>64809</v>
       </c>
+      <c r="N260">
+        <v>4.119798176179234</v>
+      </c>
       <c r="O260">
         <v>221.36</v>
       </c>
@@ -15350,6 +16127,9 @@
       <c r="M261">
         <v>36129</v>
       </c>
+      <c r="N261">
+        <v>9.023222342162805</v>
+      </c>
       <c r="O261">
         <v>191.68</v>
       </c>
@@ -15409,6 +16189,9 @@
       <c r="M262">
         <v>46192</v>
       </c>
+      <c r="N262">
+        <v>7.100796674748874</v>
+      </c>
       <c r="O262">
         <v>208.24</v>
       </c>
@@ -15468,6 +16251,9 @@
       <c r="M263">
         <v>39278</v>
       </c>
+      <c r="N263">
+        <v>7.459646621518408</v>
+      </c>
       <c r="O263">
         <v>210.8</v>
       </c>
@@ -15527,6 +16313,9 @@
       <c r="M264">
         <v>39163</v>
       </c>
+      <c r="N264">
+        <v>6.945331052268723</v>
+      </c>
       <c r="O264">
         <v>264.28</v>
       </c>
@@ -15586,6 +16375,9 @@
       <c r="M265">
         <v>51107</v>
       </c>
+      <c r="N265">
+        <v>9.137691509969279</v>
+      </c>
       <c r="O265">
         <v>192.74</v>
       </c>
@@ -15645,6 +16437,9 @@
       <c r="M266">
         <v>54425</v>
       </c>
+      <c r="N266">
+        <v>5.861276986678916</v>
+      </c>
       <c r="O266">
         <v>198.56</v>
       </c>
@@ -15683,6 +16478,9 @@
       <c r="M267">
         <v>216969</v>
       </c>
+      <c r="N267">
+        <v>6.788988288649531</v>
+      </c>
       <c r="O267">
         <v>196</v>
       </c>
@@ -15742,6 +16540,9 @@
       <c r="M268">
         <v>155771</v>
       </c>
+      <c r="N268">
+        <v>2.413799744496729</v>
+      </c>
       <c r="O268">
         <v>206.48</v>
       </c>
@@ -15801,6 +16602,9 @@
       <c r="M269">
         <v>83205</v>
       </c>
+      <c r="N269">
+        <v>4.170422450573883</v>
+      </c>
       <c r="O269">
         <v>205.07</v>
       </c>
@@ -15860,6 +16664,9 @@
       <c r="M270">
         <v>402290</v>
       </c>
+      <c r="N270">
+        <v>4.220835715528599</v>
+      </c>
       <c r="O270">
         <v>221.7</v>
       </c>
@@ -15919,6 +16726,9 @@
       <c r="M271">
         <v>39403</v>
       </c>
+      <c r="N271">
+        <v>8.400375605918331</v>
+      </c>
       <c r="O271">
         <v>236.15</v>
       </c>
@@ -15978,6 +16788,9 @@
       <c r="M272">
         <v>62252</v>
       </c>
+      <c r="N272">
+        <v>5.558054359699287</v>
+      </c>
       <c r="O272">
         <v>176.96</v>
       </c>
@@ -16037,6 +16850,9 @@
       <c r="M273">
         <v>151064</v>
       </c>
+      <c r="N273">
+        <v>4.415347137637028</v>
+      </c>
       <c r="O273">
         <v>220.8</v>
       </c>
@@ -16096,6 +16912,9 @@
       <c r="M274">
         <v>85160</v>
       </c>
+      <c r="N274">
+        <v>5.037576326914044</v>
+      </c>
       <c r="O274">
         <v>194.59</v>
       </c>
@@ -16155,6 +16974,9 @@
       <c r="M275">
         <v>91887</v>
       </c>
+      <c r="N275">
+        <v>3.580484725804521</v>
+      </c>
       <c r="O275">
         <v>212.63</v>
       </c>
@@ -16214,6 +17036,9 @@
       <c r="M276">
         <v>122312</v>
       </c>
+      <c r="N276">
+        <v>4.619334161815685</v>
+      </c>
       <c r="O276">
         <v>199.24</v>
       </c>
@@ -16273,6 +17098,9 @@
       <c r="M277">
         <v>105638</v>
       </c>
+      <c r="N277">
+        <v>8.822582782710766</v>
+      </c>
       <c r="O277">
         <v>197.76</v>
       </c>
@@ -16332,6 +17160,9 @@
       <c r="M278">
         <v>36626</v>
       </c>
+      <c r="N278">
+        <v>6.361601048435538</v>
+      </c>
       <c r="O278">
         <v>190.67</v>
       </c>
@@ -16391,6 +17222,9 @@
       <c r="M279">
         <v>683285</v>
       </c>
+      <c r="N279">
+        <v>3.887104209809962</v>
+      </c>
       <c r="O279">
         <v>205.8</v>
       </c>
@@ -16450,6 +17284,9 @@
       <c r="M280">
         <v>41786</v>
       </c>
+      <c r="N280">
+        <v>10.14693916622792</v>
+      </c>
       <c r="O280">
         <v>201.82</v>
       </c>
@@ -16509,6 +17346,9 @@
       <c r="M281">
         <v>59125</v>
       </c>
+      <c r="N281">
+        <v>5.158562367864693</v>
+      </c>
       <c r="O281">
         <v>223.09</v>
       </c>
@@ -16568,6 +17408,9 @@
       <c r="M282">
         <v>57647</v>
       </c>
+      <c r="N282">
+        <v>4.701025205127761</v>
+      </c>
       <c r="O282">
         <v>196.79</v>
       </c>
@@ -16627,6 +17470,9 @@
       <c r="M283">
         <v>365402</v>
       </c>
+      <c r="N283">
+        <v>3.169112374863849</v>
+      </c>
       <c r="O283">
         <v>202.36</v>
       </c>
@@ -16686,6 +17532,9 @@
       <c r="M284">
         <v>68329</v>
       </c>
+      <c r="N284">
+        <v>6.205271553805851</v>
+      </c>
       <c r="O284">
         <v>182.67</v>
       </c>
@@ -16745,6 +17594,9 @@
       <c r="M285">
         <v>56615</v>
       </c>
+      <c r="N285">
+        <v>5.22829638788307</v>
+      </c>
       <c r="O285">
         <v>202.19</v>
       </c>
@@ -16804,6 +17656,9 @@
       <c r="M286">
         <v>59638</v>
       </c>
+      <c r="N286">
+        <v>6.690365203393809</v>
+      </c>
       <c r="O286">
         <v>198.42</v>
       </c>
@@ -16863,6 +17718,9 @@
       <c r="M287">
         <v>362960</v>
       </c>
+      <c r="N287">
+        <v>2.248181617809125</v>
+      </c>
       <c r="O287">
         <v>204.9</v>
       </c>
@@ -16901,6 +17759,9 @@
       <c r="M288">
         <v>65408</v>
       </c>
+      <c r="N288">
+        <v>7.44557240704501</v>
+      </c>
       <c r="O288">
         <v>226.57</v>
       </c>
@@ -16960,6 +17821,9 @@
       <c r="M289">
         <v>35991</v>
       </c>
+      <c r="N289">
+        <v>8.335417187630242</v>
+      </c>
       <c r="O289">
         <v>211.33</v>
       </c>
@@ -17019,6 +17883,9 @@
       <c r="M290">
         <v>414083</v>
       </c>
+      <c r="N290">
+        <v>3.88086446437067</v>
+      </c>
       <c r="O290">
         <v>229.82</v>
       </c>
@@ -17078,6 +17945,9 @@
       <c r="M291">
         <v>1587707</v>
       </c>
+      <c r="N291">
+        <v>2.337333021772909</v>
+      </c>
       <c r="O291">
         <v>211.95</v>
       </c>
@@ -17137,6 +18007,9 @@
       <c r="M292">
         <v>65635</v>
       </c>
+      <c r="N292">
+        <v>4.662146720499734</v>
+      </c>
       <c r="O292">
         <v>223.29</v>
       </c>
@@ -17196,6 +18069,9 @@
       <c r="M293">
         <v>104277</v>
       </c>
+      <c r="N293">
+        <v>4.699022795055477</v>
+      </c>
       <c r="O293">
         <v>218.48</v>
       </c>
@@ -17255,6 +18131,9 @@
       <c r="M294">
         <v>42682</v>
       </c>
+      <c r="N294">
+        <v>7.263014854036831</v>
+      </c>
       <c r="O294">
         <v>182.32</v>
       </c>
@@ -17314,6 +18193,9 @@
       <c r="M295">
         <v>51264</v>
       </c>
+      <c r="N295">
+        <v>6.963951310861423</v>
+      </c>
       <c r="O295">
         <v>224.72</v>
       </c>
@@ -17373,6 +18255,9 @@
       <c r="M296">
         <v>39117</v>
       </c>
+      <c r="N296">
+        <v>7.413656466497942</v>
+      </c>
       <c r="O296">
         <v>198.56</v>
       </c>
@@ -17432,6 +18317,9 @@
       <c r="M297">
         <v>36752</v>
       </c>
+      <c r="N297">
+        <v>5.741184153243361</v>
+      </c>
       <c r="O297">
         <v>205.86</v>
       </c>
@@ -17491,6 +18379,9 @@
       <c r="M298">
         <v>117759</v>
       </c>
+      <c r="N298">
+        <v>4.407306447914809</v>
+      </c>
       <c r="O298">
         <v>190.78</v>
       </c>
@@ -17550,6 +18441,9 @@
       <c r="M299">
         <v>98143</v>
       </c>
+      <c r="N299">
+        <v>5.07422842179269</v>
+      </c>
       <c r="O299">
         <v>218.58</v>
       </c>
@@ -17609,6 +18503,9 @@
       <c r="M300">
         <v>39233</v>
       </c>
+      <c r="N300">
+        <v>6.550607906609232</v>
+      </c>
       <c r="O300">
         <v>190.62</v>
       </c>
@@ -17668,6 +18565,9 @@
       <c r="M301">
         <v>67515</v>
       </c>
+      <c r="N301">
+        <v>5.095164037621269</v>
+      </c>
       <c r="O301">
         <v>210.65</v>
       </c>
@@ -17727,6 +18627,9 @@
       <c r="M302">
         <v>47575</v>
       </c>
+      <c r="N302">
+        <v>7.356805044666316</v>
+      </c>
       <c r="O302">
         <v>204.2</v>
       </c>
@@ -17786,6 +18689,9 @@
       <c r="M303">
         <v>43636</v>
       </c>
+      <c r="N303">
+        <v>5.935466128884407</v>
+      </c>
       <c r="O303">
         <v>195.37</v>
       </c>
@@ -17845,6 +18751,9 @@
       <c r="M304">
         <v>143799</v>
       </c>
+      <c r="N304">
+        <v>4.513244181113916</v>
+      </c>
       <c r="O304">
         <v>196.55</v>
       </c>
@@ -17904,6 +18813,9 @@
       <c r="M305">
         <v>243661</v>
       </c>
+      <c r="N305">
+        <v>4.822273568605563</v>
+      </c>
       <c r="O305">
         <v>212.68</v>
       </c>
@@ -17942,6 +18854,9 @@
       <c r="M306">
         <v>38530</v>
       </c>
+      <c r="N306">
+        <v>9.83649104593823</v>
+      </c>
       <c r="O306">
         <v>182.67</v>
       </c>
@@ -18001,6 +18916,9 @@
       <c r="M307">
         <v>51788</v>
       </c>
+      <c r="N307">
+        <v>11.75948096084035</v>
+      </c>
       <c r="O307">
         <v>297.04</v>
       </c>
@@ -18060,6 +18978,9 @@
       <c r="M308">
         <v>52809</v>
       </c>
+      <c r="N308">
+        <v>8.047870628112632</v>
+      </c>
       <c r="O308">
         <v>198.52</v>
       </c>
@@ -18098,6 +19019,9 @@
       <c r="M309">
         <v>37335</v>
       </c>
+      <c r="N309">
+        <v>19.39199142895406</v>
+      </c>
       <c r="O309">
         <v>198.57</v>
       </c>
@@ -18157,6 +19081,9 @@
       <c r="M310">
         <v>994464</v>
       </c>
+      <c r="N310">
+        <v>2.174035460308267</v>
+      </c>
       <c r="O310">
         <v>213.56</v>
       </c>
@@ -18216,6 +19143,9 @@
       <c r="M311">
         <v>62341</v>
       </c>
+      <c r="N311">
+        <v>6.271955855696893</v>
+      </c>
       <c r="O311">
         <v>211.49</v>
       </c>
@@ -18254,6 +19184,9 @@
       <c r="M312">
         <v>73596</v>
       </c>
+      <c r="N312">
+        <v>6.888961356595467</v>
+      </c>
       <c r="O312">
         <v>203.97</v>
       </c>
@@ -18313,6 +19246,9 @@
       <c r="M313">
         <v>60189</v>
       </c>
+      <c r="N313">
+        <v>6.014388011098373</v>
+      </c>
       <c r="O313">
         <v>212.42</v>
       </c>
@@ -18351,6 +19287,9 @@
       <c r="M314">
         <v>36499</v>
       </c>
+      <c r="N314">
+        <v>6.164552453491877</v>
+      </c>
       <c r="O314">
         <v>195.65</v>
       </c>
@@ -18410,6 +19349,9 @@
       <c r="M315">
         <v>97435</v>
       </c>
+      <c r="N315">
+        <v>5.377944270539334</v>
+      </c>
       <c r="O315">
         <v>201.99</v>
       </c>
@@ -18469,6 +19411,9 @@
       <c r="M316">
         <v>47397</v>
       </c>
+      <c r="N316">
+        <v>7.02576112412178</v>
+      </c>
       <c r="O316">
         <v>186.96</v>
       </c>
@@ -18528,6 +19473,9 @@
       <c r="M317">
         <v>53391</v>
       </c>
+      <c r="N317">
+        <v>7.098574666142234</v>
+      </c>
       <c r="O317">
         <v>225.5</v>
       </c>
@@ -18587,6 +19535,9 @@
       <c r="M318">
         <v>39161</v>
       </c>
+      <c r="N318">
+        <v>14.7595822374301</v>
+      </c>
       <c r="O318">
         <v>292.68</v>
       </c>
@@ -18625,6 +19576,9 @@
       <c r="M319">
         <v>60874</v>
       </c>
+      <c r="N319">
+        <v>9.56073200381115</v>
+      </c>
       <c r="O319">
         <v>220.29</v>
       </c>
@@ -18684,6 +19638,9 @@
       <c r="M320">
         <v>628849</v>
       </c>
+      <c r="N320">
+        <v>2.041825621095048</v>
+      </c>
       <c r="O320">
         <v>203.37</v>
       </c>
@@ -18743,6 +19700,9 @@
       <c r="M321">
         <v>44384</v>
       </c>
+      <c r="N321">
+        <v>4.055515501081471</v>
+      </c>
       <c r="O321">
         <v>188.28</v>
       </c>
@@ -18802,6 +19762,9 @@
       <c r="M322">
         <v>66978</v>
       </c>
+      <c r="N322">
+        <v>5.897458867090687</v>
+      </c>
       <c r="O322">
         <v>186.29</v>
       </c>
@@ -18861,6 +19824,9 @@
       <c r="M323">
         <v>108408</v>
       </c>
+      <c r="N323">
+        <v>4.381595454210022</v>
+      </c>
       <c r="O323">
         <v>201.29</v>
       </c>
@@ -18920,6 +19886,9 @@
       <c r="M324">
         <v>42114</v>
       </c>
+      <c r="N324">
+        <v>7.8833642019281</v>
+      </c>
       <c r="O324">
         <v>224.17</v>
       </c>
@@ -18979,6 +19948,9 @@
       <c r="M325">
         <v>35863</v>
       </c>
+      <c r="N325">
+        <v>7.919025179154003</v>
+      </c>
       <c r="O325">
         <v>187.59</v>
       </c>
@@ -19038,6 +20010,9 @@
       <c r="M326">
         <v>105558</v>
       </c>
+      <c r="N326">
+        <v>7.70192690274541</v>
+      </c>
       <c r="O326">
         <v>204.03</v>
       </c>
@@ -19097,6 +20072,9 @@
       <c r="M327">
         <v>43255</v>
       </c>
+      <c r="N327">
+        <v>4.808692636689401</v>
+      </c>
       <c r="O327">
         <v>201.18</v>
       </c>
@@ -19135,6 +20113,9 @@
       <c r="M328">
         <v>202450</v>
       </c>
+      <c r="N328">
+        <v>3.502099283773771</v>
+      </c>
       <c r="O328">
         <v>204.85</v>
       </c>
@@ -19194,6 +20175,9 @@
       <c r="M329">
         <v>34723</v>
       </c>
+      <c r="N329">
+        <v>7.516631627451545</v>
+      </c>
       <c r="O329">
         <v>178.18</v>
       </c>
@@ -19253,6 +20237,9 @@
       <c r="M330">
         <v>100360</v>
       </c>
+      <c r="N330">
+        <v>3.328019131127939</v>
+      </c>
       <c r="O330">
         <v>199.57</v>
       </c>
@@ -19312,6 +20299,9 @@
       <c r="M331">
         <v>44285</v>
       </c>
+      <c r="N331">
+        <v>6.051710511459862</v>
+      </c>
       <c r="O331">
         <v>206.34</v>
       </c>
@@ -19371,6 +20361,9 @@
       <c r="M332">
         <v>52613</v>
       </c>
+      <c r="N332">
+        <v>6.329234219679547</v>
+      </c>
       <c r="O332">
         <v>208.86</v>
       </c>
@@ -19430,6 +20423,9 @@
       <c r="M333">
         <v>160662</v>
       </c>
+      <c r="N333">
+        <v>2.682650533417983</v>
+      </c>
       <c r="O333">
         <v>211.32</v>
       </c>
@@ -19489,6 +20485,9 @@
       <c r="M334">
         <v>38478</v>
       </c>
+      <c r="N334">
+        <v>6.809085711315557</v>
+      </c>
       <c r="O334">
         <v>211.26</v>
       </c>
@@ -19548,6 +20547,9 @@
       <c r="M335">
         <v>50336</v>
       </c>
+      <c r="N335">
+        <v>9.972981563890654</v>
+      </c>
       <c r="O335">
         <v>184.07</v>
       </c>
@@ -19607,6 +20609,9 @@
       <c r="M336">
         <v>53528</v>
       </c>
+      <c r="N336">
+        <v>9.901360035869077</v>
+      </c>
       <c r="O336">
         <v>178.25</v>
       </c>
@@ -19666,6 +20671,9 @@
       <c r="M337">
         <v>38481</v>
       </c>
+      <c r="N337">
+        <v>8.887502923520698</v>
+      </c>
       <c r="O337">
         <v>191.89</v>
       </c>
@@ -19725,6 +20733,9 @@
       <c r="M338">
         <v>170667</v>
       </c>
+      <c r="N338">
+        <v>6.480456092859193</v>
+      </c>
       <c r="O338">
         <v>212.19</v>
       </c>
@@ -19784,6 +20795,9 @@
       <c r="M339">
         <v>68704</v>
       </c>
+      <c r="N339">
+        <v>8.456567303213786</v>
+      </c>
       <c r="O339">
         <v>187.59</v>
       </c>
@@ -19843,6 +20857,9 @@
       <c r="M340">
         <v>74095</v>
       </c>
+      <c r="N340">
+        <v>7.247452594642014</v>
+      </c>
       <c r="O340">
         <v>234.95</v>
       </c>
@@ -19902,6 +20919,9 @@
       <c r="M341">
         <v>54572</v>
       </c>
+      <c r="N341">
+        <v>7.971120721248992</v>
+      </c>
       <c r="O341">
         <v>218.75</v>
       </c>
@@ -19961,6 +20981,9 @@
       <c r="M342">
         <v>319394</v>
       </c>
+      <c r="N342">
+        <v>3.960625434416426</v>
+      </c>
       <c r="O342">
         <v>212.26</v>
       </c>
@@ -20020,6 +21043,9 @@
       <c r="M343">
         <v>74894</v>
       </c>
+      <c r="N343">
+        <v>7.11672497129276</v>
+      </c>
       <c r="O343">
         <v>184.13</v>
       </c>
@@ -20079,6 +21105,9 @@
       <c r="M344">
         <v>75083</v>
       </c>
+      <c r="N344">
+        <v>6.978943302744963</v>
+      </c>
       <c r="O344">
         <v>201.88</v>
       </c>
@@ -20138,6 +21167,9 @@
       <c r="M345">
         <v>39556</v>
       </c>
+      <c r="N345">
+        <v>15.19364950955607</v>
+      </c>
       <c r="O345">
         <v>180.35</v>
       </c>
@@ -20197,6 +21229,9 @@
       <c r="M346">
         <v>35228</v>
       </c>
+      <c r="N346">
+        <v>6.017940274781424</v>
+      </c>
       <c r="O346">
         <v>198.11</v>
       </c>
@@ -20256,6 +21291,9 @@
       <c r="M347">
         <v>75815</v>
       </c>
+      <c r="N347">
+        <v>7.848051177207677</v>
+      </c>
       <c r="O347">
         <v>186.11</v>
       </c>
@@ -20315,6 +21353,9 @@
       <c r="M348">
         <v>50153</v>
       </c>
+      <c r="N348">
+        <v>5.981696010208761</v>
+      </c>
       <c r="O348">
         <v>208.87</v>
       </c>
@@ -20374,6 +21415,9 @@
       <c r="M349">
         <v>71316</v>
       </c>
+      <c r="N349">
+        <v>5.454596443995738</v>
+      </c>
       <c r="O349">
         <v>201.99</v>
       </c>
@@ -20433,6 +21477,9 @@
       <c r="M350">
         <v>37409</v>
       </c>
+      <c r="N350">
+        <v>4.5710925178433</v>
+      </c>
       <c r="O350">
         <v>203.03</v>
       </c>
@@ -20492,6 +21539,9 @@
       <c r="M351">
         <v>63203</v>
       </c>
+      <c r="N351">
+        <v>5.9174406278183</v>
+      </c>
       <c r="O351">
         <v>199.39</v>
       </c>
@@ -20551,6 +21601,9 @@
       <c r="M352">
         <v>36021</v>
       </c>
+      <c r="N352">
+        <v>10.43835540379223</v>
+      </c>
       <c r="O352">
         <v>204.09</v>
       </c>
@@ -20610,6 +21663,9 @@
       <c r="M353">
         <v>75053</v>
       </c>
+      <c r="N353">
+        <v>5.542749790148295</v>
+      </c>
       <c r="O353">
         <v>194.55</v>
       </c>
@@ -20669,6 +21725,9 @@
       <c r="M354">
         <v>39902</v>
       </c>
+      <c r="N354">
+        <v>9.172472557766527</v>
+      </c>
       <c r="O354">
         <v>186.78</v>
       </c>
@@ -20728,6 +21787,9 @@
       <c r="M355">
         <v>64547</v>
       </c>
+      <c r="N355">
+        <v>5.670286767781617</v>
+      </c>
       <c r="O355">
         <v>199.45</v>
       </c>
@@ -20787,6 +21849,9 @@
       <c r="M356">
         <v>120515</v>
       </c>
+      <c r="N356">
+        <v>6.737750487491184</v>
+      </c>
       <c r="O356">
         <v>201.81</v>
       </c>
@@ -20846,6 +21911,9 @@
       <c r="M357">
         <v>657948</v>
       </c>
+      <c r="N357">
+        <v>2.793533835500678</v>
+      </c>
       <c r="O357">
         <v>202.58</v>
       </c>
@@ -20884,6 +21952,9 @@
       <c r="M358">
         <v>93065</v>
       </c>
+      <c r="N358">
+        <v>5.383334228764841</v>
+      </c>
       <c r="O358">
         <v>216.37</v>
       </c>
@@ -20943,6 +22014,9 @@
       <c r="M359">
         <v>189028</v>
       </c>
+      <c r="N359">
+        <v>5.062742027636117</v>
+      </c>
       <c r="O359">
         <v>198.18</v>
       </c>
@@ -21002,6 +22076,9 @@
       <c r="M360">
         <v>35397</v>
       </c>
+      <c r="N360">
+        <v>12.14792214029437</v>
+      </c>
       <c r="O360">
         <v>186.31</v>
       </c>
@@ -21061,6 +22138,9 @@
       <c r="M361">
         <v>42507</v>
       </c>
+      <c r="N361">
+        <v>5.340296892276566</v>
+      </c>
       <c r="O361">
         <v>200.86</v>
       </c>
@@ -21120,6 +22200,9 @@
       <c r="M362">
         <v>59264</v>
       </c>
+      <c r="N362">
+        <v>7.137553995680346</v>
+      </c>
       <c r="O362">
         <v>196.92</v>
       </c>
@@ -21179,6 +22262,9 @@
       <c r="M363">
         <v>78425</v>
       </c>
+      <c r="N363">
+        <v>5.508447561364361</v>
+      </c>
       <c r="O363">
         <v>217.4</v>
       </c>
@@ -21238,6 +22324,9 @@
       <c r="M364">
         <v>68244</v>
       </c>
+      <c r="N364">
+        <v>8.835941621241428</v>
+      </c>
       <c r="O364">
         <v>194.17</v>
       </c>
@@ -21297,6 +22386,9 @@
       <c r="M365">
         <v>196676</v>
       </c>
+      <c r="N365">
+        <v>4.225223209745979</v>
+      </c>
       <c r="O365">
         <v>190.43</v>
       </c>
@@ -21356,6 +22448,9 @@
       <c r="M366">
         <v>62065</v>
       </c>
+      <c r="N366">
+        <v>10.98847981954403</v>
+      </c>
       <c r="O366">
         <v>217.25</v>
       </c>
@@ -21415,6 +22510,9 @@
       <c r="M367">
         <v>68735</v>
       </c>
+      <c r="N367">
+        <v>5.295700880192042</v>
+      </c>
       <c r="O367">
         <v>203.39</v>
       </c>
@@ -21474,6 +22572,9 @@
       <c r="M368">
         <v>35491</v>
       </c>
+      <c r="N368">
+        <v>11.35499140627201</v>
+      </c>
       <c r="O368">
         <v>184.72</v>
       </c>
@@ -21533,6 +22634,9 @@
       <c r="M369">
         <v>86649</v>
       </c>
+      <c r="N369">
+        <v>5.920437627670256</v>
+      </c>
       <c r="O369">
         <v>194.3</v>
       </c>
@@ -21592,6 +22696,9 @@
       <c r="M370">
         <v>47738</v>
       </c>
+      <c r="N370">
+        <v>7.750638904017763</v>
+      </c>
       <c r="O370">
         <v>200.25</v>
       </c>
@@ -21651,6 +22758,9 @@
       <c r="M371">
         <v>34440</v>
       </c>
+      <c r="N371">
+        <v>8.97212543554007</v>
+      </c>
       <c r="O371">
         <v>203.39</v>
       </c>
@@ -21710,6 +22820,9 @@
       <c r="M372">
         <v>168733</v>
       </c>
+      <c r="N372">
+        <v>3.899652113101765</v>
+      </c>
       <c r="O372">
         <v>187.19</v>
       </c>
@@ -21769,6 +22882,9 @@
       <c r="M373">
         <v>39501</v>
       </c>
+      <c r="N373">
+        <v>8.632692843219159</v>
+      </c>
       <c r="O373">
         <v>187.97</v>
       </c>
@@ -21828,6 +22944,9 @@
       <c r="M374">
         <v>254481</v>
       </c>
+      <c r="N374">
+        <v>5.764673983519399</v>
+      </c>
       <c r="O374">
         <v>221.25</v>
       </c>
@@ -21887,6 +23006,9 @@
       <c r="M375">
         <v>217960</v>
       </c>
+      <c r="N375">
+        <v>5.175261515874473</v>
+      </c>
       <c r="O375">
         <v>204.15</v>
       </c>
@@ -21946,6 +23068,9 @@
       <c r="M376">
         <v>46249</v>
       </c>
+      <c r="N376">
+        <v>7.459620748556725</v>
+      </c>
       <c r="O376">
         <v>214.37</v>
       </c>
@@ -22005,6 +23130,9 @@
       <c r="M377">
         <v>116662</v>
       </c>
+      <c r="N377">
+        <v>5.983096466715812</v>
+      </c>
       <c r="O377">
         <v>222.36</v>
       </c>
@@ -22064,6 +23192,9 @@
       <c r="M378">
         <v>43725</v>
       </c>
+      <c r="N378">
+        <v>12.60148656375071</v>
+      </c>
       <c r="O378">
         <v>219.09</v>
       </c>
@@ -22123,6 +23254,9 @@
       <c r="M379">
         <v>37225</v>
       </c>
+      <c r="N379">
+        <v>7.683008730691739</v>
+      </c>
       <c r="O379">
         <v>188.41</v>
       </c>
@@ -22182,6 +23316,9 @@
       <c r="M380">
         <v>44839</v>
       </c>
+      <c r="N380">
+        <v>10.25892638105221</v>
+      </c>
       <c r="O380">
         <v>223.9</v>
       </c>
@@ -22241,6 +23378,9 @@
       <c r="M381">
         <v>49823</v>
       </c>
+      <c r="N381">
+        <v>10.35666258555286</v>
+      </c>
       <c r="O381">
         <v>189.76</v>
       </c>
@@ -22300,6 +23440,9 @@
       <c r="M382">
         <v>35224</v>
       </c>
+      <c r="N382">
+        <v>8.54531001589825</v>
+      </c>
       <c r="O382">
         <v>210.35</v>
       </c>
@@ -22359,6 +23502,9 @@
       <c r="M383">
         <v>40005</v>
       </c>
+      <c r="N383">
+        <v>9.398825146856643</v>
+      </c>
       <c r="O383">
         <v>208.67</v>
       </c>
@@ -22418,6 +23564,9 @@
       <c r="M384">
         <v>41551</v>
       </c>
+      <c r="N384">
+        <v>10.63752978267671</v>
+      </c>
       <c r="O384">
         <v>212.01</v>
       </c>
@@ -22477,6 +23626,9 @@
       <c r="M385">
         <v>119128</v>
       </c>
+      <c r="N385">
+        <v>5.405949902625747</v>
+      </c>
       <c r="O385">
         <v>216.03</v>
       </c>
@@ -22536,6 +23688,9 @@
       <c r="M386">
         <v>37272</v>
       </c>
+      <c r="N386">
+        <v>13.30757673320455</v>
+      </c>
       <c r="O386">
         <v>186.72</v>
       </c>
@@ -22592,6 +23747,9 @@
       <c r="M387">
         <v>50642</v>
       </c>
+      <c r="N387">
+        <v>6.75328778484262</v>
+      </c>
       <c r="O387">
         <v>209.86</v>
       </c>
@@ -22651,6 +23809,9 @@
       <c r="M388">
         <v>181007</v>
       </c>
+      <c r="N388">
+        <v>6.889236327876822</v>
+      </c>
       <c r="O388">
         <v>204.23</v>
       </c>
@@ -22710,6 +23871,9 @@
       <c r="M389">
         <v>37241</v>
       </c>
+      <c r="N389">
+        <v>7.411186595419028</v>
+      </c>
       <c r="O389">
         <v>192.43</v>
       </c>
@@ -22769,6 +23933,9 @@
       <c r="M390">
         <v>42746</v>
       </c>
+      <c r="N390">
+        <v>11.79057689608384</v>
+      </c>
       <c r="O390">
         <v>199.86</v>
       </c>
@@ -22807,6 +23974,9 @@
       <c r="M391">
         <v>35118</v>
       </c>
+      <c r="N391">
+        <v>5.040150350247736</v>
+      </c>
       <c r="O391">
         <v>204.52</v>
       </c>
@@ -22866,6 +24036,9 @@
       <c r="M392">
         <v>56170</v>
       </c>
+      <c r="N392">
+        <v>9.827309951931635</v>
+      </c>
       <c r="O392">
         <v>220.08</v>
       </c>
@@ -22925,6 +24098,9 @@
       <c r="M393">
         <v>36997</v>
       </c>
+      <c r="N393">
+        <v>11.48741789874855</v>
+      </c>
       <c r="O393">
         <v>201.54</v>
       </c>
@@ -22984,6 +24160,9 @@
       <c r="M394">
         <v>2568928</v>
       </c>
+      <c r="N394">
+        <v>2.235173582132314</v>
+      </c>
       <c r="O394">
         <v>216.54</v>
       </c>
@@ -23043,6 +24222,9 @@
       <c r="M395">
         <v>39922</v>
       </c>
+      <c r="N395">
+        <v>5.510745954611492</v>
+      </c>
       <c r="O395">
         <v>193.1</v>
       </c>
@@ -23102,6 +24284,9 @@
       <c r="M396">
         <v>40467</v>
       </c>
+      <c r="N396">
+        <v>9.069118046803569</v>
+      </c>
       <c r="O396">
         <v>205.72</v>
       </c>
@@ -23161,6 +24346,9 @@
       <c r="M397">
         <v>58413</v>
       </c>
+      <c r="N397">
+        <v>7.310016605892524</v>
+      </c>
       <c r="O397">
         <v>195.19</v>
       </c>
@@ -23199,6 +24387,9 @@
       <c r="M398">
         <v>109267</v>
       </c>
+      <c r="N398">
+        <v>5.802300786147693</v>
+      </c>
       <c r="O398">
         <v>200.55</v>
       </c>
@@ -23258,6 +24449,9 @@
       <c r="M399">
         <v>54940</v>
       </c>
+      <c r="N399">
+        <v>6.425191117582818</v>
+      </c>
       <c r="O399">
         <v>191.42</v>
       </c>
@@ -23317,6 +24511,9 @@
       <c r="M400">
         <v>34783</v>
       </c>
+      <c r="N400">
+        <v>7.618664290026738</v>
+      </c>
       <c r="O400">
         <v>200.55</v>
       </c>
@@ -23376,6 +24573,9 @@
       <c r="M401">
         <v>40932</v>
       </c>
+      <c r="N401">
+        <v>8.941659337437702</v>
+      </c>
       <c r="O401">
         <v>208.63</v>
       </c>
@@ -23435,6 +24635,9 @@
       <c r="M402">
         <v>41909</v>
       </c>
+      <c r="N402">
+        <v>6.227779235963635</v>
+      </c>
       <c r="O402">
         <v>193.89</v>
       </c>
@@ -23494,6 +24697,9 @@
       <c r="M403">
         <v>42936</v>
       </c>
+      <c r="N403">
+        <v>5.682876839947829</v>
+      </c>
       <c r="O403">
         <v>212.13</v>
       </c>
@@ -23553,6 +24759,9 @@
       <c r="M404">
         <v>48530</v>
       </c>
+      <c r="N404">
+        <v>7.088398928497837</v>
+      </c>
       <c r="O404">
         <v>220.36</v>
       </c>
@@ -23612,6 +24821,9 @@
       <c r="M405">
         <v>77976</v>
       </c>
+      <c r="N405">
+        <v>5.129783523135323</v>
+      </c>
       <c r="O405">
         <v>188.85</v>
       </c>
@@ -23671,6 +24883,9 @@
       <c r="M406">
         <v>36119</v>
       </c>
+      <c r="N406">
+        <v>12.56956172651513</v>
+      </c>
       <c r="O406">
         <v>197.53</v>
       </c>
@@ -23727,6 +24942,9 @@
       <c r="M407">
         <v>40147</v>
       </c>
+      <c r="N407">
+        <v>9.863750716118265</v>
+      </c>
       <c r="O407">
         <v>190.23</v>
       </c>
@@ -23786,6 +25004,9 @@
       <c r="M408">
         <v>84428</v>
       </c>
+      <c r="N408">
+        <v>7.841000615909414</v>
+      </c>
       <c r="O408">
         <v>176.47</v>
       </c>
@@ -23845,6 +25066,9 @@
       <c r="M409">
         <v>120394</v>
       </c>
+      <c r="N409">
+        <v>6.179709952323205</v>
+      </c>
       <c r="O409">
         <v>194.89</v>
       </c>
@@ -23904,6 +25128,9 @@
       <c r="M410">
         <v>153332</v>
       </c>
+      <c r="N410">
+        <v>6.052226541100358</v>
+      </c>
       <c r="O410">
         <v>213.82</v>
       </c>
@@ -23963,6 +25190,9 @@
       <c r="M411">
         <v>50959</v>
       </c>
+      <c r="N411">
+        <v>11.30320453698071</v>
+      </c>
       <c r="O411">
         <v>205.32</v>
       </c>
@@ -24022,6 +25252,9 @@
       <c r="M412">
         <v>90028</v>
       </c>
+      <c r="N412">
+        <v>6.842315723996979</v>
+      </c>
       <c r="O412">
         <v>194.31</v>
       </c>
@@ -24081,6 +25314,9 @@
       <c r="M413">
         <v>44978</v>
       </c>
+      <c r="N413">
+        <v>7.247987905198097</v>
+      </c>
       <c r="O413">
         <v>205.67</v>
       </c>
@@ -24140,6 +25376,9 @@
       <c r="M414">
         <v>394024</v>
       </c>
+      <c r="N414">
+        <v>3.685054717479138</v>
+      </c>
       <c r="O414">
         <v>221.66</v>
       </c>
@@ -24199,6 +25438,9 @@
       <c r="M415">
         <v>46979</v>
       </c>
+      <c r="N415">
+        <v>12.9632388939739</v>
+      </c>
       <c r="O415">
         <v>189.07</v>
       </c>
@@ -24258,6 +25500,9 @@
       <c r="M416">
         <v>81950</v>
       </c>
+      <c r="N416">
+        <v>4.966442953020135</v>
+      </c>
       <c r="O416">
         <v>228.12</v>
       </c>
@@ -24317,6 +25562,9 @@
       <c r="M417">
         <v>41894</v>
       </c>
+      <c r="N417">
+        <v>5.871962572206044</v>
+      </c>
       <c r="O417">
         <v>200.24</v>
       </c>
@@ -24376,6 +25624,9 @@
       <c r="M418">
         <v>42282</v>
       </c>
+      <c r="N418">
+        <v>3.855068350598363</v>
+      </c>
       <c r="O418">
         <v>241.71</v>
       </c>
@@ -24435,6 +25686,9 @@
       <c r="M419">
         <v>35250</v>
       </c>
+      <c r="N419">
+        <v>4.226950354609929</v>
+      </c>
       <c r="O419">
         <v>218.19</v>
       </c>
@@ -24494,6 +25748,9 @@
       <c r="M420">
         <v>122874</v>
       </c>
+      <c r="N420">
+        <v>3.361166723635594</v>
+      </c>
       <c r="O420">
         <v>237.38</v>
       </c>
@@ -24553,6 +25810,9 @@
       <c r="M421">
         <v>117677</v>
       </c>
+      <c r="N421">
+        <v>3.671065713775844</v>
+      </c>
       <c r="O421">
         <v>247.62</v>
       </c>
@@ -24612,6 +25872,9 @@
       <c r="M422">
         <v>43348</v>
       </c>
+      <c r="N422">
+        <v>5.144412660330349</v>
+      </c>
       <c r="O422">
         <v>238.32</v>
       </c>
@@ -24671,6 +25934,9 @@
       <c r="M423">
         <v>129630</v>
       </c>
+      <c r="N423">
+        <v>3.509989971457224</v>
+      </c>
       <c r="O423">
         <v>246.28</v>
       </c>
@@ -24730,6 +25996,9 @@
       <c r="M424">
         <v>2416339</v>
       </c>
+      <c r="N424">
+        <v>3.975435565953287</v>
+      </c>
       <c r="O424">
         <v>230.05</v>
       </c>
@@ -24789,6 +26058,9 @@
       <c r="M425">
         <v>429236</v>
       </c>
+      <c r="N425">
+        <v>5.924479773364769</v>
+      </c>
       <c r="O425">
         <v>231.27</v>
       </c>
@@ -24848,6 +26120,9 @@
       <c r="M426">
         <v>41332</v>
       </c>
+      <c r="N426">
+        <v>4.475950837123778</v>
+      </c>
       <c r="O426">
         <v>245.7</v>
       </c>
@@ -24907,6 +26182,9 @@
       <c r="M427">
         <v>49668</v>
       </c>
+      <c r="N427">
+        <v>4.167673351050978</v>
+      </c>
       <c r="O427">
         <v>232.62</v>
       </c>
@@ -24945,6 +26223,9 @@
       <c r="M428">
         <v>53995</v>
       </c>
+      <c r="N428">
+        <v>5.648671173256783</v>
+      </c>
       <c r="O428">
         <v>241.68</v>
       </c>
@@ -25004,6 +26285,9 @@
       <c r="M429">
         <v>40777</v>
       </c>
+      <c r="N429">
+        <v>7.357088554822572</v>
+      </c>
       <c r="O429">
         <v>255.29</v>
       </c>
@@ -25063,6 +26347,9 @@
       <c r="M430">
         <v>39850</v>
       </c>
+      <c r="N430">
+        <v>4.968632371392722</v>
+      </c>
       <c r="O430">
         <v>243.5</v>
       </c>
@@ -25122,6 +26409,9 @@
       <c r="M431">
         <v>53943</v>
       </c>
+      <c r="N431">
+        <v>3.392469829264223</v>
+      </c>
       <c r="O431">
         <v>246.4</v>
       </c>
@@ -25181,6 +26471,9 @@
       <c r="M432">
         <v>41536</v>
       </c>
+      <c r="N432">
+        <v>5.007704160246533</v>
+      </c>
       <c r="O432">
         <v>250.9</v>
       </c>
@@ -25240,6 +26533,9 @@
       <c r="M433">
         <v>90687</v>
       </c>
+      <c r="N433">
+        <v>3.616835930177424</v>
+      </c>
       <c r="O433">
         <v>234.84</v>
       </c>
@@ -25299,6 +26595,9 @@
       <c r="M434">
         <v>67872</v>
       </c>
+      <c r="N434">
+        <v>3.845473833097595</v>
+      </c>
       <c r="O434">
         <v>225.47</v>
       </c>
@@ -25358,6 +26657,9 @@
       <c r="M435">
         <v>54986</v>
       </c>
+      <c r="N435">
+        <v>9.056850834757938</v>
+      </c>
       <c r="O435">
         <v>244.46</v>
       </c>
@@ -25417,6 +26719,9 @@
       <c r="M436">
         <v>137980</v>
       </c>
+      <c r="N436">
+        <v>4.913755616756052</v>
+      </c>
       <c r="O436">
         <v>251</v>
       </c>
@@ -25476,6 +26781,9 @@
       <c r="M437">
         <v>649975</v>
       </c>
+      <c r="N437">
+        <v>4.675564444786338</v>
+      </c>
       <c r="O437">
         <v>227.71</v>
       </c>
@@ -25535,6 +26843,9 @@
       <c r="M438">
         <v>108551</v>
       </c>
+      <c r="N438">
+        <v>3.961271660325561</v>
+      </c>
       <c r="O438">
         <v>234.75</v>
       </c>
@@ -25594,6 +26905,9 @@
       <c r="M439">
         <v>83862</v>
       </c>
+      <c r="N439">
+        <v>2.83799575493072</v>
+      </c>
       <c r="O439">
         <v>230.96</v>
       </c>
@@ -25653,6 +26967,9 @@
       <c r="M440">
         <v>49353</v>
       </c>
+      <c r="N440">
+        <v>3.525621542763358</v>
+      </c>
       <c r="O440">
         <v>229.76</v>
       </c>
@@ -25712,6 +27029,9 @@
       <c r="M441">
         <v>242328</v>
       </c>
+      <c r="N441">
+        <v>3.037205770690965</v>
+      </c>
       <c r="O441">
         <v>246.08</v>
       </c>
@@ -25771,6 +27091,9 @@
       <c r="M442">
         <v>91573</v>
       </c>
+      <c r="N442">
+        <v>5.208958972622935</v>
+      </c>
       <c r="O442">
         <v>216.8</v>
       </c>
@@ -25830,6 +27153,9 @@
       <c r="M443">
         <v>57913</v>
       </c>
+      <c r="N443">
+        <v>6.9932484934298</v>
+      </c>
       <c r="O443">
         <v>238.03</v>
       </c>
@@ -25889,6 +27215,9 @@
       <c r="M444">
         <v>70668</v>
       </c>
+      <c r="N444">
+        <v>3.778230599422653</v>
+      </c>
       <c r="O444">
         <v>258.06</v>
       </c>
@@ -25948,6 +27277,9 @@
       <c r="M445">
         <v>60942</v>
       </c>
+      <c r="N445">
+        <v>4.266351613009091</v>
+      </c>
       <c r="O445">
         <v>230.85</v>
       </c>
@@ -26007,6 +27339,9 @@
       <c r="M446">
         <v>266649</v>
       </c>
+      <c r="N446">
+        <v>5.089087152023821</v>
+      </c>
       <c r="O446">
         <v>230.4</v>
       </c>
@@ -26066,6 +27401,9 @@
       <c r="M447">
         <v>52621</v>
       </c>
+      <c r="N447">
+        <v>3.591721936109158</v>
+      </c>
       <c r="O447">
         <v>243.86</v>
       </c>
@@ -26125,6 +27463,9 @@
       <c r="M448">
         <v>178713</v>
       </c>
+      <c r="N448">
+        <v>5.489248124087224</v>
+      </c>
       <c r="O448">
         <v>223.39</v>
       </c>
@@ -26184,6 +27525,9 @@
       <c r="M449">
         <v>48475</v>
       </c>
+      <c r="N449">
+        <v>6.518824136152656</v>
+      </c>
       <c r="O449">
         <v>228.07</v>
       </c>
@@ -26243,6 +27587,9 @@
       <c r="M450">
         <v>235445</v>
       </c>
+      <c r="N450">
+        <v>4.599800378007602</v>
+      </c>
       <c r="O450">
         <v>239.43</v>
       </c>
@@ -26302,6 +27649,9 @@
       <c r="M451">
         <v>117747</v>
       </c>
+      <c r="N451">
+        <v>4.772945382897229</v>
+      </c>
       <c r="O451">
         <v>237.29</v>
       </c>
@@ -26361,6 +27711,9 @@
       <c r="M452">
         <v>55877</v>
       </c>
+      <c r="N452">
+        <v>6.782754979687528</v>
+      </c>
       <c r="O452">
         <v>249.91</v>
       </c>
@@ -26420,6 +27773,9 @@
       <c r="M453">
         <v>96632</v>
       </c>
+      <c r="N453">
+        <v>4.077324281811408</v>
+      </c>
       <c r="O453">
         <v>244.69</v>
       </c>
@@ -26479,6 +27835,9 @@
       <c r="M454">
         <v>102500</v>
       </c>
+      <c r="N454">
+        <v>4.107317073170732</v>
+      </c>
       <c r="O454">
         <v>257.97</v>
       </c>
@@ -26538,6 +27897,9 @@
       <c r="M455">
         <v>106397</v>
       </c>
+      <c r="N455">
+        <v>4.28583512693027</v>
+      </c>
       <c r="O455">
         <v>226.35</v>
       </c>
@@ -26597,6 +27959,9 @@
       <c r="M456">
         <v>40011</v>
       </c>
+      <c r="N456">
+        <v>5.473494788933043</v>
+      </c>
       <c r="O456">
         <v>237.62</v>
       </c>
@@ -26656,6 +28021,9 @@
       <c r="M457">
         <v>39379</v>
       </c>
+      <c r="N457">
+        <v>5.459762817745498</v>
+      </c>
       <c r="O457">
         <v>206.83</v>
       </c>
@@ -26715,6 +28083,9 @@
       <c r="M458">
         <v>73281</v>
       </c>
+      <c r="N458">
+        <v>4.666966880910468</v>
+      </c>
       <c r="O458">
         <v>228.25</v>
       </c>
@@ -26774,6 +28145,9 @@
       <c r="M459">
         <v>67087</v>
       </c>
+      <c r="N459">
+        <v>4.755019601413091</v>
+      </c>
       <c r="O459">
         <v>204.08</v>
       </c>
@@ -26833,6 +28207,9 @@
       <c r="M460">
         <v>83360</v>
       </c>
+      <c r="N460">
+        <v>4.654510556621881</v>
+      </c>
       <c r="O460">
         <v>243.55</v>
       </c>
@@ -26892,6 +28269,9 @@
       <c r="M461">
         <v>48532</v>
       </c>
+      <c r="N461">
+        <v>4.182807219978571</v>
+      </c>
       <c r="O461">
         <v>227.02</v>
       </c>
@@ -26951,6 +28331,9 @@
       <c r="M462">
         <v>565764</v>
       </c>
+      <c r="N462">
+        <v>6.067901103640387</v>
+      </c>
       <c r="O462">
         <v>215.92</v>
       </c>
@@ -27010,6 +28393,9 @@
       <c r="M463">
         <v>53583</v>
       </c>
+      <c r="N463">
+        <v>2.370154713248605</v>
+      </c>
       <c r="O463">
         <v>252.43</v>
       </c>
@@ -27069,6 +28455,9 @@
       <c r="M464">
         <v>79981</v>
       </c>
+      <c r="N464">
+        <v>4.751128392993336</v>
+      </c>
       <c r="O464">
         <v>229.07</v>
       </c>
@@ -27128,6 +28517,9 @@
       <c r="M465">
         <v>109884</v>
       </c>
+      <c r="N465">
+        <v>3.885916056932766</v>
+      </c>
       <c r="O465">
         <v>235.39</v>
       </c>
@@ -27187,6 +28579,9 @@
       <c r="M466">
         <v>52696</v>
       </c>
+      <c r="N466">
+        <v>4.497495066039168</v>
+      </c>
       <c r="O466">
         <v>216.21</v>
       </c>
@@ -27246,6 +28641,9 @@
       <c r="M467">
         <v>38831</v>
       </c>
+      <c r="N467">
+        <v>4.867245242203394</v>
+      </c>
       <c r="O467">
         <v>261.6</v>
       </c>
@@ -27305,6 +28703,9 @@
       <c r="M468">
         <v>96545</v>
       </c>
+      <c r="N468">
+        <v>3.314516546688073</v>
+      </c>
       <c r="O468">
         <v>233.44</v>
       </c>
@@ -27364,6 +28765,9 @@
       <c r="M469">
         <v>64058</v>
       </c>
+      <c r="N469">
+        <v>7.196603078460146</v>
+      </c>
       <c r="O469">
         <v>228.59</v>
       </c>
@@ -27423,6 +28827,9 @@
       <c r="M470">
         <v>40239</v>
       </c>
+      <c r="N470">
+        <v>4.995153955118169</v>
+      </c>
       <c r="O470">
         <v>239.41</v>
       </c>
@@ -27482,6 +28889,9 @@
       <c r="M471">
         <v>39291</v>
       </c>
+      <c r="N471">
+        <v>4.861164134280115</v>
+      </c>
       <c r="O471">
         <v>230.1</v>
       </c>
@@ -27541,6 +28951,9 @@
       <c r="M472">
         <v>49354</v>
       </c>
+      <c r="N472">
+        <v>3.181099809539247</v>
+      </c>
       <c r="O472">
         <v>240.05</v>
       </c>
@@ -27600,6 +29013,9 @@
       <c r="M473">
         <v>434321</v>
       </c>
+      <c r="N473">
+        <v>3.1106025267026</v>
+      </c>
       <c r="O473">
         <v>236.18</v>
       </c>
@@ -27659,6 +29075,9 @@
       <c r="M474">
         <v>108161</v>
       </c>
+      <c r="N474">
+        <v>4.289901165854606</v>
+      </c>
       <c r="O474">
         <v>245.85</v>
       </c>
@@ -27718,6 +29137,9 @@
       <c r="M475">
         <v>35554</v>
       </c>
+      <c r="N475">
+        <v>3.347021432187658</v>
+      </c>
       <c r="O475">
         <v>213.2</v>
       </c>
@@ -27777,6 +29199,9 @@
       <c r="M476">
         <v>119142</v>
       </c>
+      <c r="N476">
+        <v>5.103154219334911</v>
+      </c>
       <c r="O476">
         <v>250.7</v>
       </c>
@@ -27836,6 +29261,9 @@
       <c r="M477">
         <v>112910</v>
       </c>
+      <c r="N477">
+        <v>6.429899920290497</v>
+      </c>
       <c r="O477">
         <v>230.93</v>
       </c>
@@ -27895,6 +29323,9 @@
       <c r="M478">
         <v>40552</v>
       </c>
+      <c r="N478">
+        <v>4.66068258039061</v>
+      </c>
       <c r="O478">
         <v>239.61</v>
       </c>
@@ -27954,6 +29385,9 @@
       <c r="M479">
         <v>40411</v>
       </c>
+      <c r="N479">
+        <v>6.879315037984707</v>
+      </c>
       <c r="O479">
         <v>244.15</v>
       </c>
@@ -28013,6 +29447,9 @@
       <c r="M480">
         <v>77601</v>
       </c>
+      <c r="N480">
+        <v>6.353010914807799</v>
+      </c>
       <c r="O480">
         <v>225.22</v>
       </c>
@@ -28072,6 +29509,9 @@
       <c r="M481">
         <v>98397</v>
       </c>
+      <c r="N481">
+        <v>4.46151813571552</v>
+      </c>
       <c r="O481">
         <v>218.3</v>
       </c>
@@ -28131,6 +29571,9 @@
       <c r="M482">
         <v>102033</v>
       </c>
+      <c r="N482">
+        <v>6.380288730116727</v>
+      </c>
       <c r="O482">
         <v>247.65</v>
       </c>
@@ -28190,6 +29633,9 @@
       <c r="M483">
         <v>116530</v>
       </c>
+      <c r="N483">
+        <v>4.196344289024285</v>
+      </c>
       <c r="O483">
         <v>246.57</v>
       </c>
@@ -28249,6 +29695,9 @@
       <c r="M484">
         <v>167870</v>
       </c>
+      <c r="N484">
+        <v>3.764818013939358</v>
+      </c>
       <c r="O484">
         <v>247.68</v>
       </c>
@@ -28308,6 +29757,9 @@
       <c r="M485">
         <v>93852</v>
       </c>
+      <c r="N485">
+        <v>4.400545539786046</v>
+      </c>
       <c r="O485">
         <v>241</v>
       </c>
@@ -28367,6 +29819,9 @@
       <c r="M486">
         <v>64910</v>
       </c>
+      <c r="N486">
+        <v>5.777230010784162</v>
+      </c>
       <c r="O486">
         <v>235.98</v>
       </c>
@@ -28426,6 +29881,9 @@
       <c r="M487">
         <v>57543</v>
       </c>
+      <c r="N487">
+        <v>4.744278191960794</v>
+      </c>
       <c r="O487">
         <v>223.39</v>
       </c>
@@ -28485,6 +29943,9 @@
       <c r="M488">
         <v>37742</v>
       </c>
+      <c r="N488">
+        <v>6.014519633299773</v>
+      </c>
       <c r="O488">
         <v>234.66</v>
       </c>
@@ -28544,6 +30005,9 @@
       <c r="M489">
         <v>171533</v>
       </c>
+      <c r="N489">
+        <v>7.602035759882938</v>
+      </c>
       <c r="O489">
         <v>237.55</v>
       </c>
@@ -28603,6 +30067,9 @@
       <c r="M490">
         <v>59569</v>
       </c>
+      <c r="N490">
+        <v>5.606943208715943</v>
+      </c>
       <c r="O490">
         <v>233.06</v>
       </c>
@@ -28662,6 +30129,9 @@
       <c r="M491">
         <v>38668</v>
       </c>
+      <c r="N491">
+        <v>4.163649529326575</v>
+      </c>
       <c r="O491">
         <v>234.24</v>
       </c>
@@ -28721,6 +30191,9 @@
       <c r="M492">
         <v>160751</v>
       </c>
+      <c r="N492">
+        <v>4.628276029387065</v>
+      </c>
       <c r="O492">
         <v>237.18</v>
       </c>
@@ -28780,6 +30253,9 @@
       <c r="M493">
         <v>344828</v>
       </c>
+      <c r="N493">
+        <v>3.685895576925308</v>
+      </c>
       <c r="O493">
         <v>212.96</v>
       </c>
@@ -28839,6 +30315,9 @@
       <c r="M494">
         <v>134286</v>
       </c>
+      <c r="N494">
+        <v>5.063819013151035</v>
+      </c>
       <c r="O494">
         <v>228.63</v>
       </c>
@@ -28898,6 +30377,9 @@
       <c r="M495">
         <v>41641</v>
       </c>
+      <c r="N495">
+        <v>3.674263346221272</v>
+      </c>
       <c r="O495">
         <v>233.1</v>
       </c>
@@ -28957,6 +30439,9 @@
       <c r="M496">
         <v>229483</v>
       </c>
+      <c r="N496">
+        <v>3.891355786703155</v>
+      </c>
       <c r="O496">
         <v>226.53</v>
       </c>
@@ -29016,6 +30501,9 @@
       <c r="M497">
         <v>48286</v>
       </c>
+      <c r="N497">
+        <v>3.002940811001118</v>
+      </c>
       <c r="O497">
         <v>226.03</v>
       </c>
@@ -29075,6 +30563,9 @@
       <c r="M498">
         <v>42320</v>
       </c>
+      <c r="N498">
+        <v>4.536862003780718</v>
+      </c>
       <c r="O498">
         <v>250.73</v>
       </c>
@@ -29134,6 +30625,9 @@
       <c r="M499">
         <v>43392</v>
       </c>
+      <c r="N499">
+        <v>6.683259587020649</v>
+      </c>
       <c r="O499">
         <v>228.02</v>
       </c>
@@ -29193,6 +30687,9 @@
       <c r="M500">
         <v>54239</v>
       </c>
+      <c r="N500">
+        <v>5.475764671177566</v>
+      </c>
       <c r="O500">
         <v>219.84</v>
       </c>
@@ -29252,6 +30749,9 @@
       <c r="M501">
         <v>43309</v>
       </c>
+      <c r="N501">
+        <v>4.571798009651574</v>
+      </c>
       <c r="O501">
         <v>233.55</v>
       </c>
@@ -29311,6 +30811,9 @@
       <c r="M502">
         <v>94062</v>
       </c>
+      <c r="N502">
+        <v>2.530246007952202</v>
+      </c>
       <c r="O502">
         <v>243.74</v>
       </c>
@@ -29370,6 +30873,9 @@
       <c r="M503">
         <v>36496</v>
       </c>
+      <c r="N503">
+        <v>6.219859710653222</v>
+      </c>
       <c r="O503">
         <v>221.83</v>
       </c>
@@ -29429,6 +30935,9 @@
       <c r="M504">
         <v>46653</v>
       </c>
+      <c r="N504">
+        <v>4.008316721325531</v>
+      </c>
       <c r="O504">
         <v>257.24</v>
       </c>
@@ -29488,6 +30997,9 @@
       <c r="M505">
         <v>74742</v>
       </c>
+      <c r="N505">
+        <v>3.492012523079393</v>
+      </c>
       <c r="O505">
         <v>253.71</v>
       </c>
@@ -29547,6 +31059,9 @@
       <c r="M506">
         <v>39327</v>
       </c>
+      <c r="N506">
+        <v>5.466981971673405</v>
+      </c>
       <c r="O506">
         <v>241.82</v>
       </c>
@@ -29606,6 +31121,9 @@
       <c r="M507">
         <v>237931</v>
       </c>
+      <c r="N507">
+        <v>3.736377353098167</v>
+      </c>
       <c r="O507">
         <v>231.34</v>
       </c>
@@ -29665,6 +31183,9 @@
       <c r="M508">
         <v>142571</v>
       </c>
+      <c r="N508">
+        <v>3.94890966606112</v>
+      </c>
       <c r="O508">
         <v>218.14</v>
       </c>
@@ -29703,6 +31224,9 @@
       <c r="M509">
         <v>84087</v>
       </c>
+      <c r="N509">
+        <v>3.639088087338114</v>
+      </c>
       <c r="O509">
         <v>237.78</v>
       </c>
@@ -29762,6 +31286,9 @@
       <c r="M510">
         <v>78079</v>
       </c>
+      <c r="N510">
+        <v>4.71317511750919</v>
+      </c>
       <c r="O510">
         <v>237.96</v>
       </c>
@@ -29821,6 +31348,9 @@
       <c r="M511">
         <v>57086</v>
       </c>
+      <c r="N511">
+        <v>4.78225834705532</v>
+      </c>
       <c r="O511">
         <v>238.3</v>
       </c>
@@ -29880,6 +31410,9 @@
       <c r="M512">
         <v>107222</v>
       </c>
+      <c r="N512">
+        <v>3.115032362761374</v>
+      </c>
       <c r="O512">
         <v>247.3</v>
       </c>
@@ -29939,6 +31472,9 @@
       <c r="M513">
         <v>354142</v>
       </c>
+      <c r="N513">
+        <v>5.757577468924895</v>
+      </c>
       <c r="O513">
         <v>224.42</v>
       </c>
@@ -29998,6 +31534,9 @@
       <c r="M514">
         <v>754954</v>
       </c>
+      <c r="N514">
+        <v>4.159193805185481</v>
+      </c>
       <c r="O514">
         <v>234.59</v>
       </c>
@@ -30057,6 +31596,9 @@
       <c r="M515">
         <v>90724</v>
       </c>
+      <c r="N515">
+        <v>4.552268418500066</v>
+      </c>
       <c r="O515">
         <v>222.75</v>
       </c>
@@ -30116,6 +31658,9 @@
       <c r="M516">
         <v>142802</v>
       </c>
+      <c r="N516">
+        <v>4.22262993515497</v>
+      </c>
       <c r="O516">
         <v>235.09</v>
       </c>
@@ -30175,6 +31720,9 @@
       <c r="M517">
         <v>34639</v>
       </c>
+      <c r="N517">
+        <v>4.532463408297006</v>
+      </c>
       <c r="O517">
         <v>224.41</v>
       </c>
@@ -30234,6 +31782,9 @@
       <c r="M518">
         <v>136826</v>
       </c>
+      <c r="N518">
+        <v>6.14649262567056</v>
+      </c>
       <c r="O518">
         <v>227.87</v>
       </c>
@@ -30293,6 +31844,9 @@
       <c r="M519">
         <v>79221</v>
       </c>
+      <c r="N519">
+        <v>4.216053824112294</v>
+      </c>
       <c r="O519">
         <v>234.46</v>
       </c>
@@ -30352,6 +31906,9 @@
       <c r="M520">
         <v>40608</v>
       </c>
+      <c r="N520">
+        <v>4.851260835303388</v>
+      </c>
       <c r="O520">
         <v>246.79</v>
       </c>
@@ -30411,6 +31968,9 @@
       <c r="M521">
         <v>102410</v>
       </c>
+      <c r="N521">
+        <v>7.147739478566546</v>
+      </c>
       <c r="O521">
         <v>246.95</v>
       </c>
@@ -30470,6 +32030,9 @@
       <c r="M522">
         <v>45250</v>
       </c>
+      <c r="N522">
+        <v>6.828729281767956</v>
+      </c>
       <c r="O522">
         <v>250.47</v>
       </c>
@@ -30529,6 +32092,9 @@
       <c r="M523">
         <v>198323</v>
       </c>
+      <c r="N523">
+        <v>6.050735416467076</v>
+      </c>
       <c r="O523">
         <v>228.92</v>
       </c>
@@ -30588,6 +32154,9 @@
       <c r="M524">
         <v>375485</v>
       </c>
+      <c r="N524">
+        <v>6.301183802282382</v>
+      </c>
       <c r="O524">
         <v>220.82</v>
       </c>
@@ -30647,6 +32216,9 @@
       <c r="M525">
         <v>39396</v>
       </c>
+      <c r="N525">
+        <v>7.919585744745659</v>
+      </c>
       <c r="O525">
         <v>240.88</v>
       </c>
@@ -30706,6 +32278,9 @@
       <c r="M526">
         <v>128622</v>
       </c>
+      <c r="N526">
+        <v>6.841753354791559</v>
+      </c>
       <c r="O526">
         <v>232.14</v>
       </c>
@@ -30765,6 +32340,9 @@
       <c r="M527">
         <v>37972</v>
       </c>
+      <c r="N527">
+        <v>9.823027493942906</v>
+      </c>
       <c r="O527">
         <v>244.08</v>
       </c>
@@ -30803,6 +32381,9 @@
       <c r="M528">
         <v>134944</v>
       </c>
+      <c r="N528">
+        <v>7.410481384870761</v>
+      </c>
       <c r="O528">
         <v>226.73</v>
       </c>
@@ -30862,6 +32443,9 @@
       <c r="M529">
         <v>43362</v>
       </c>
+      <c r="N529">
+        <v>13.4218901342189</v>
+      </c>
       <c r="O529">
         <v>227.04</v>
       </c>
@@ -30921,6 +32505,9 @@
       <c r="M530">
         <v>181912</v>
       </c>
+      <c r="N530">
+        <v>7.915915387659967</v>
+      </c>
       <c r="O530">
         <v>225.06</v>
       </c>
@@ -30980,6 +32567,9 @@
       <c r="M531">
         <v>45418</v>
       </c>
+      <c r="N531">
+        <v>13.03447972169624</v>
+      </c>
       <c r="O531">
         <v>233.86</v>
       </c>
@@ -31039,6 +32629,9 @@
       <c r="M532">
         <v>52084</v>
       </c>
+      <c r="N532">
+        <v>9.907073189463175</v>
+      </c>
       <c r="O532">
         <v>236.92</v>
       </c>
@@ -31098,6 +32691,9 @@
       <c r="M533">
         <v>45062</v>
       </c>
+      <c r="N533">
+        <v>6.835027295725888</v>
+      </c>
       <c r="O533">
         <v>247.72</v>
       </c>
@@ -31157,6 +32753,9 @@
       <c r="M534">
         <v>133359</v>
       </c>
+      <c r="N534">
+        <v>7.251104162448729</v>
+      </c>
       <c r="O534">
         <v>224.85</v>
       </c>
@@ -31216,6 +32815,9 @@
       <c r="M535">
         <v>572274</v>
       </c>
+      <c r="N535">
+        <v>6.149152329129054</v>
+      </c>
       <c r="O535">
         <v>221.22</v>
       </c>
@@ -31275,6 +32877,9 @@
       <c r="M536">
         <v>78442</v>
       </c>
+      <c r="N536">
+        <v>9.637694092450474</v>
+      </c>
       <c r="O536">
         <v>224.17</v>
       </c>
@@ -31334,6 +32939,9 @@
       <c r="M537">
         <v>502899</v>
       </c>
+      <c r="N537">
+        <v>5.122300899385364</v>
+      </c>
       <c r="O537">
         <v>225.88</v>
       </c>
@@ -31393,6 +33001,9 @@
       <c r="M538">
         <v>179120</v>
       </c>
+      <c r="N538">
+        <v>4.58910227780259</v>
+      </c>
       <c r="O538">
         <v>214.92</v>
       </c>
@@ -31452,6 +33063,9 @@
       <c r="M539">
         <v>137773</v>
       </c>
+      <c r="N539">
+        <v>9.319678021092667</v>
+      </c>
       <c r="O539">
         <v>214.98</v>
       </c>
@@ -31511,6 +33125,9 @@
       <c r="M540">
         <v>42442</v>
       </c>
+      <c r="N540">
+        <v>17.38843598322417</v>
+      </c>
       <c r="O540">
         <v>233.51</v>
       </c>
@@ -31570,6 +33187,9 @@
       <c r="M541">
         <v>98501</v>
       </c>
+      <c r="N541">
+        <v>5.065938416868864</v>
+      </c>
       <c r="O541">
         <v>223.57</v>
       </c>
@@ -31629,6 +33249,9 @@
       <c r="M542">
         <v>181688</v>
       </c>
+      <c r="N542">
+        <v>6.274492536656246</v>
+      </c>
       <c r="O542">
         <v>226.8</v>
       </c>
@@ -31688,6 +33311,9 @@
       <c r="M543">
         <v>518263</v>
       </c>
+      <c r="N543">
+        <v>3.243526935166122</v>
+      </c>
       <c r="O543">
         <v>199.64</v>
       </c>
@@ -31747,6 +33373,9 @@
       <c r="M544">
         <v>37172</v>
       </c>
+      <c r="N544">
+        <v>5.461099752501883</v>
+      </c>
       <c r="O544">
         <v>228.31</v>
       </c>
@@ -31806,6 +33435,9 @@
       <c r="M545">
         <v>238166</v>
       </c>
+      <c r="N545">
+        <v>8.040610330609743</v>
+      </c>
       <c r="O545">
         <v>219.52</v>
       </c>
@@ -31865,6 +33497,9 @@
       <c r="M546">
         <v>59837</v>
       </c>
+      <c r="N546">
+        <v>6.183465080134365</v>
+      </c>
       <c r="P546">
         <v>255.65</v>
       </c>
@@ -31921,6 +33556,9 @@
       <c r="M547">
         <v>519011</v>
       </c>
+      <c r="N547">
+        <v>6.493118642957471</v>
+      </c>
       <c r="P547">
         <v>241.72</v>
       </c>
@@ -31977,6 +33615,9 @@
       <c r="M548">
         <v>48563</v>
       </c>
+      <c r="N548">
+        <v>8.133764388526243</v>
+      </c>
       <c r="O548">
         <v>233.07</v>
       </c>
@@ -32036,6 +33677,9 @@
       <c r="M549">
         <v>866347</v>
       </c>
+      <c r="N549">
+        <v>3.470895611111945</v>
+      </c>
       <c r="O549">
         <v>206.67</v>
       </c>
@@ -32095,6 +33739,9 @@
       <c r="M550">
         <v>54300</v>
       </c>
+      <c r="N550">
+        <v>8.103130755064457</v>
+      </c>
       <c r="O550">
         <v>216.18</v>
       </c>
@@ -32154,6 +33801,9 @@
       <c r="M551">
         <v>240040</v>
       </c>
+      <c r="N551">
+        <v>7.465422429595067</v>
+      </c>
       <c r="O551">
         <v>213.86</v>
       </c>
@@ -32213,6 +33863,9 @@
       <c r="M552">
         <v>123980</v>
       </c>
+      <c r="N552">
+        <v>10.2758509437006</v>
+      </c>
       <c r="O552">
         <v>213.22</v>
       </c>
@@ -32272,6 +33925,9 @@
       <c r="M553">
         <v>107246</v>
       </c>
+      <c r="N553">
+        <v>3.776364619659474</v>
+      </c>
       <c r="O553">
         <v>238.89</v>
       </c>
@@ -32331,6 +33987,9 @@
       <c r="M554">
         <v>102149</v>
       </c>
+      <c r="N554">
+        <v>5.922720731480484</v>
+      </c>
       <c r="O554">
         <v>199.37</v>
       </c>
@@ -32390,6 +34049,9 @@
       <c r="M555">
         <v>264138</v>
       </c>
+      <c r="N555">
+        <v>9.343600693576843</v>
+      </c>
       <c r="O555">
         <v>243.38</v>
       </c>
@@ -32449,6 +34111,9 @@
       <c r="M556">
         <v>244092</v>
       </c>
+      <c r="N556">
+        <v>7.124362945119054</v>
+      </c>
       <c r="O556">
         <v>211.95</v>
       </c>
@@ -32508,6 +34173,9 @@
       <c r="M557">
         <v>43624</v>
       </c>
+      <c r="N557">
+        <v>15.8399046396479</v>
+      </c>
       <c r="O557">
         <v>220.93</v>
       </c>
@@ -32567,6 +34235,9 @@
       <c r="M558">
         <v>211986</v>
       </c>
+      <c r="N558">
+        <v>6.387214249997641</v>
+      </c>
       <c r="O558">
         <v>215.2</v>
       </c>
@@ -32626,6 +34297,9 @@
       <c r="M559">
         <v>178803</v>
       </c>
+      <c r="N559">
+        <v>3.982036095591238</v>
+      </c>
       <c r="O559">
         <v>203.85</v>
       </c>
@@ -32685,6 +34359,9 @@
       <c r="M560">
         <v>155544</v>
       </c>
+      <c r="N560">
+        <v>3.060227331173173</v>
+      </c>
       <c r="O560">
         <v>201.13</v>
       </c>
@@ -32744,6 +34421,9 @@
       <c r="M561">
         <v>516720</v>
       </c>
+      <c r="N561">
+        <v>3.767998142127264</v>
+      </c>
       <c r="O561">
         <v>220.6</v>
       </c>
@@ -32803,6 +34483,9 @@
       <c r="M562">
         <v>203328</v>
       </c>
+      <c r="N562">
+        <v>5.262433112999685</v>
+      </c>
       <c r="O562">
         <v>240.27</v>
       </c>
@@ -32862,6 +34545,9 @@
       <c r="M563">
         <v>843046</v>
       </c>
+      <c r="N563">
+        <v>2.977298984871525</v>
+      </c>
       <c r="O563">
         <v>203.41</v>
       </c>
@@ -32921,6 +34607,9 @@
       <c r="M564">
         <v>43656</v>
       </c>
+      <c r="N564">
+        <v>7.261315741249771</v>
+      </c>
       <c r="O564">
         <v>223.87</v>
       </c>
@@ -32980,6 +34669,9 @@
       <c r="M565">
         <v>44467</v>
       </c>
+      <c r="N565">
+        <v>6.116895675444712</v>
+      </c>
       <c r="O565">
         <v>225.35</v>
       </c>
@@ -33039,6 +34731,9 @@
       <c r="M566">
         <v>47614</v>
       </c>
+      <c r="N566">
+        <v>5.18754988028731</v>
+      </c>
       <c r="O566">
         <v>210</v>
       </c>
@@ -33098,6 +34793,9 @@
       <c r="M567">
         <v>294983</v>
       </c>
+      <c r="N567">
+        <v>4.844346962367323</v>
+      </c>
       <c r="O567">
         <v>221.68</v>
       </c>
@@ -33157,6 +34855,9 @@
       <c r="M568">
         <v>149093</v>
       </c>
+      <c r="N568">
+        <v>3.467634295372687</v>
+      </c>
       <c r="O568">
         <v>213.73</v>
       </c>
@@ -33216,6 +34917,9 @@
       <c r="M569">
         <v>137612</v>
       </c>
+      <c r="N569">
+        <v>5.522774176670639</v>
+      </c>
       <c r="O569">
         <v>230.67</v>
       </c>
@@ -33275,6 +34979,9 @@
       <c r="M570">
         <v>59113</v>
       </c>
+      <c r="N570">
+        <v>9.541048500329877</v>
+      </c>
       <c r="O570">
         <v>217.99</v>
       </c>
@@ -33334,6 +35041,9 @@
       <c r="M571">
         <v>168099</v>
       </c>
+      <c r="N571">
+        <v>6.692484785751254</v>
+      </c>
       <c r="O571">
         <v>247.86</v>
       </c>
@@ -33393,6 +35103,9 @@
       <c r="M572">
         <v>6729894</v>
       </c>
+      <c r="N572">
+        <v>3.547009804314897</v>
+      </c>
       <c r="O572">
         <v>223.29</v>
       </c>
@@ -33452,6 +35165,9 @@
       <c r="M573">
         <v>43686</v>
       </c>
+      <c r="N573">
+        <v>6.775626058691572</v>
+      </c>
       <c r="O573">
         <v>232.04</v>
       </c>
@@ -33490,6 +35206,9 @@
       <c r="M574">
         <v>47368</v>
       </c>
+      <c r="N574">
+        <v>12.18121938861679</v>
+      </c>
       <c r="O574">
         <v>232.92</v>
       </c>
@@ -33549,6 +35268,9 @@
       <c r="M575">
         <v>41197</v>
       </c>
+      <c r="N575">
+        <v>6.675243342961866</v>
+      </c>
       <c r="O575">
         <v>221.7</v>
       </c>
@@ -33608,6 +35330,9 @@
       <c r="M576">
         <v>960652</v>
       </c>
+      <c r="N576">
+        <v>2.095451838959373</v>
+      </c>
       <c r="O576">
         <v>203.82</v>
       </c>
@@ -33667,6 +35392,9 @@
       <c r="M577">
         <v>38708</v>
       </c>
+      <c r="N577">
+        <v>15.7073473183838</v>
+      </c>
       <c r="O577">
         <v>238.79</v>
       </c>
@@ -33726,6 +35454,9 @@
       <c r="M578">
         <v>466536</v>
       </c>
+      <c r="N578">
+        <v>1.787643397294099</v>
+      </c>
       <c r="O578">
         <v>209.27</v>
       </c>
@@ -33785,6 +35516,9 @@
       <c r="M579">
         <v>110556</v>
       </c>
+      <c r="N579">
+        <v>8.421071674083722</v>
+      </c>
       <c r="O579">
         <v>222.07</v>
       </c>
@@ -33844,6 +35578,9 @@
       <c r="M580">
         <v>95201</v>
       </c>
+      <c r="N580">
+        <v>9.411665843846178</v>
+      </c>
       <c r="O580">
         <v>244.18</v>
       </c>
@@ -33903,6 +35640,9 @@
       <c r="M581">
         <v>84737</v>
       </c>
+      <c r="N581">
+        <v>11.16395435288009</v>
+      </c>
       <c r="O581">
         <v>207.37</v>
       </c>
@@ -33962,6 +35702,9 @@
       <c r="M582">
         <v>176692</v>
       </c>
+      <c r="N582">
+        <v>4.720077875625382</v>
+      </c>
       <c r="O582">
         <v>226.46</v>
       </c>
@@ -34021,6 +35764,9 @@
       <c r="M583">
         <v>82300</v>
       </c>
+      <c r="N583">
+        <v>5.164034021871203</v>
+      </c>
       <c r="O583">
         <v>234.3</v>
       </c>
@@ -34080,6 +35826,9 @@
       <c r="M584">
         <v>71462</v>
       </c>
+      <c r="N584">
+        <v>7.136660043099829</v>
+      </c>
       <c r="O584">
         <v>223.97</v>
       </c>
@@ -34139,6 +35888,9 @@
       <c r="M585">
         <v>35904</v>
       </c>
+      <c r="N585">
+        <v>5.486853832442068</v>
+      </c>
       <c r="O585">
         <v>219.49</v>
       </c>
@@ -34198,6 +35950,9 @@
       <c r="M586">
         <v>279898</v>
       </c>
+      <c r="N586">
+        <v>5.502004301566999</v>
+      </c>
       <c r="O586">
         <v>242.48</v>
       </c>
@@ -34257,6 +36012,9 @@
       <c r="M587">
         <v>35642</v>
       </c>
+      <c r="N587">
+        <v>4.489085909881601</v>
+      </c>
       <c r="O587">
         <v>254.35</v>
       </c>
@@ -34316,6 +36074,9 @@
       <c r="M588">
         <v>38879</v>
       </c>
+      <c r="N588">
+        <v>7.819131150492554</v>
+      </c>
       <c r="O588">
         <v>243.75</v>
       </c>
@@ -34375,6 +36136,9 @@
       <c r="M589">
         <v>246655</v>
       </c>
+      <c r="N589">
+        <v>3.146094747724554</v>
+      </c>
       <c r="O589">
         <v>252.89</v>
       </c>
@@ -34434,6 +36198,9 @@
       <c r="M590">
         <v>69717</v>
       </c>
+      <c r="N590">
+        <v>5.436263752026048</v>
+      </c>
       <c r="O590">
         <v>253.06</v>
       </c>
@@ -34493,6 +36260,9 @@
       <c r="M591">
         <v>61473</v>
       </c>
+      <c r="N591">
+        <v>5.02659704260407</v>
+      </c>
       <c r="O591">
         <v>255.47</v>
       </c>
@@ -34552,6 +36322,9 @@
       <c r="M592">
         <v>207775</v>
       </c>
+      <c r="N592">
+        <v>3.652990013235471</v>
+      </c>
       <c r="O592">
         <v>253.88</v>
       </c>
@@ -34611,6 +36384,9 @@
       <c r="M593">
         <v>252318</v>
       </c>
+      <c r="N593">
+        <v>3.709604546643521</v>
+      </c>
       <c r="O593">
         <v>244.24</v>
       </c>
@@ -34670,6 +36446,9 @@
       <c r="M594">
         <v>135331</v>
       </c>
+      <c r="N594">
+        <v>5.756256881276278</v>
+      </c>
       <c r="O594">
         <v>257.33</v>
       </c>
@@ -34729,6 +36508,9 @@
       <c r="M595">
         <v>53157</v>
       </c>
+      <c r="N595">
+        <v>4.872359237729744</v>
+      </c>
       <c r="O595">
         <v>246.35</v>
       </c>
@@ -34788,6 +36570,9 @@
       <c r="M596">
         <v>89943</v>
       </c>
+      <c r="N596">
+        <v>6.359583291640261</v>
+      </c>
       <c r="O596">
         <v>251.2</v>
       </c>
@@ -34847,6 +36632,9 @@
       <c r="M597">
         <v>104642</v>
       </c>
+      <c r="N597">
+        <v>5.886737638806598</v>
+      </c>
       <c r="O597">
         <v>239.64</v>
       </c>
@@ -34906,6 +36694,9 @@
       <c r="M598">
         <v>166043</v>
       </c>
+      <c r="N598">
+        <v>3.288304836698928</v>
+      </c>
       <c r="O598">
         <v>259.85</v>
       </c>
@@ -34965,6 +36756,9 @@
       <c r="M599">
         <v>96098</v>
       </c>
+      <c r="N599">
+        <v>3.28830985036109</v>
+      </c>
       <c r="O599">
         <v>232.57</v>
       </c>
@@ -35024,6 +36818,9 @@
       <c r="M600">
         <v>35159</v>
       </c>
+      <c r="N600">
+        <v>4.181006285730539</v>
+      </c>
       <c r="O600">
         <v>236.28</v>
       </c>
@@ -35083,6 +36880,9 @@
       <c r="M601">
         <v>126600</v>
       </c>
+      <c r="N601">
+        <v>4.004739336492891</v>
+      </c>
       <c r="O601">
         <v>251.22</v>
       </c>
@@ -35142,6 +36942,9 @@
       <c r="M602">
         <v>330339</v>
       </c>
+      <c r="N602">
+        <v>9.254129848428432</v>
+      </c>
       <c r="O602">
         <v>246.94</v>
       </c>
@@ -35201,6 +37004,9 @@
       <c r="M603">
         <v>59873</v>
       </c>
+      <c r="N603">
+        <v>4.743373473852989</v>
+      </c>
       <c r="O603">
         <v>243.99</v>
       </c>
@@ -35260,6 +37066,9 @@
       <c r="M604">
         <v>391740</v>
       </c>
+      <c r="N604">
+        <v>2.700770919487415</v>
+      </c>
       <c r="O604">
         <v>237.26</v>
       </c>
@@ -35319,6 +37128,9 @@
       <c r="M605">
         <v>78210</v>
       </c>
+      <c r="N605">
+        <v>7.070707070707071</v>
+      </c>
       <c r="O605">
         <v>239.7</v>
       </c>
@@ -35378,6 +37190,9 @@
       <c r="M606">
         <v>66873</v>
       </c>
+      <c r="N606">
+        <v>7.551627712230646</v>
+      </c>
       <c r="O606">
         <v>239.85</v>
       </c>
@@ -35437,6 +37252,9 @@
       <c r="M607">
         <v>122988</v>
       </c>
+      <c r="N607">
+        <v>5.968061924740625</v>
+      </c>
       <c r="O607">
         <v>265.54</v>
       </c>
@@ -35496,6 +37314,9 @@
       <c r="M608">
         <v>63415</v>
       </c>
+      <c r="N608">
+        <v>7.238035165181739</v>
+      </c>
       <c r="O608">
         <v>250.07</v>
       </c>
@@ -35555,6 +37376,9 @@
       <c r="M609">
         <v>150442</v>
       </c>
+      <c r="N609">
+        <v>3.456481567647332</v>
+      </c>
       <c r="O609">
         <v>241.88</v>
       </c>
@@ -35614,6 +37438,9 @@
       <c r="M610">
         <v>184634</v>
       </c>
+      <c r="N610">
+        <v>4.939501933555033</v>
+      </c>
       <c r="O610">
         <v>239.34</v>
       </c>
@@ -35673,6 +37500,9 @@
       <c r="M611">
         <v>48473</v>
       </c>
+      <c r="N611">
+        <v>7.076104222969488</v>
+      </c>
       <c r="O611">
         <v>237.82</v>
       </c>
@@ -35732,6 +37562,9 @@
       <c r="M612">
         <v>99678</v>
       </c>
+      <c r="N612">
+        <v>3.65175866289452</v>
+      </c>
       <c r="O612">
         <v>238.29</v>
       </c>
@@ -35791,6 +37624,9 @@
       <c r="M613">
         <v>98257</v>
       </c>
+      <c r="N613">
+        <v>5.221002066010564</v>
+      </c>
       <c r="O613">
         <v>228.32</v>
       </c>
@@ -35850,6 +37686,9 @@
       <c r="M614">
         <v>97363</v>
       </c>
+      <c r="N614">
+        <v>6.439818000677875</v>
+      </c>
       <c r="O614">
         <v>219.83</v>
       </c>
@@ -35909,6 +37748,9 @@
       <c r="M615">
         <v>1185977</v>
       </c>
+      <c r="N615">
+        <v>2.064964160350496</v>
+      </c>
       <c r="O615">
         <v>239.29</v>
       </c>
@@ -35968,6 +37810,9 @@
       <c r="M616">
         <v>79663</v>
       </c>
+      <c r="N616">
+        <v>7.44385724865998</v>
+      </c>
       <c r="O616">
         <v>239.87</v>
       </c>
@@ -36027,6 +37872,9 @@
       <c r="M617">
         <v>47983</v>
       </c>
+      <c r="N617">
+        <v>8.127878623679219</v>
+      </c>
       <c r="O617">
         <v>245.48</v>
       </c>
@@ -36086,6 +37934,9 @@
       <c r="M618">
         <v>47403</v>
       </c>
+      <c r="N618">
+        <v>7.446786068392296</v>
+      </c>
       <c r="O618">
         <v>244.61</v>
       </c>
@@ -36145,6 +37996,9 @@
       <c r="M619">
         <v>51318</v>
       </c>
+      <c r="N619">
+        <v>8.203749171830546</v>
+      </c>
       <c r="O619">
         <v>245.88</v>
       </c>
@@ -36204,6 +38058,9 @@
       <c r="M620">
         <v>141084</v>
       </c>
+      <c r="N620">
+        <v>5.939723852456693</v>
+      </c>
       <c r="O620">
         <v>243.9</v>
       </c>
@@ -36263,6 +38120,9 @@
       <c r="M621">
         <v>398462</v>
       </c>
+      <c r="N621">
+        <v>1.804438064357454</v>
+      </c>
       <c r="O621">
         <v>233.64</v>
       </c>
@@ -36322,6 +38182,9 @@
       <c r="M622">
         <v>119172</v>
       </c>
+      <c r="N622">
+        <v>7.350719967777666</v>
+      </c>
       <c r="O622">
         <v>243.08</v>
       </c>
@@ -36381,6 +38244,9 @@
       <c r="M623">
         <v>46217</v>
       </c>
+      <c r="N623">
+        <v>10.1045069995889</v>
+      </c>
       <c r="O623">
         <v>261.72</v>
       </c>
@@ -36440,6 +38306,9 @@
       <c r="M624">
         <v>61204</v>
       </c>
+      <c r="N624">
+        <v>7.385138226259722</v>
+      </c>
       <c r="O624">
         <v>250.11</v>
       </c>
@@ -36499,6 +38368,9 @@
       <c r="M625">
         <v>287004</v>
       </c>
+      <c r="N625">
+        <v>4.289138827333417</v>
+      </c>
       <c r="O625">
         <v>227.3</v>
       </c>
@@ -36558,6 +38430,9 @@
       <c r="M626">
         <v>76513</v>
       </c>
+      <c r="N626">
+        <v>5.724517402271509</v>
+      </c>
       <c r="O626">
         <v>225.13</v>
       </c>
@@ -36617,6 +38492,9 @@
       <c r="M627">
         <v>115082</v>
       </c>
+      <c r="N627">
+        <v>8.21153612206948</v>
+      </c>
       <c r="O627">
         <v>236.82</v>
       </c>
@@ -36676,6 +38554,9 @@
       <c r="M628">
         <v>404118</v>
       </c>
+      <c r="N628">
+        <v>3.724159775115189</v>
+      </c>
       <c r="O628">
         <v>237.45</v>
       </c>
@@ -36735,6 +38616,9 @@
       <c r="M629">
         <v>46664</v>
       </c>
+      <c r="N629">
+        <v>9.77198697068404</v>
+      </c>
       <c r="O629">
         <v>246.07</v>
       </c>
@@ -36794,6 +38678,9 @@
       <c r="M630">
         <v>259323</v>
       </c>
+      <c r="N630">
+        <v>4.322794352988359</v>
+      </c>
       <c r="O630">
         <v>226.22</v>
       </c>
@@ -36853,6 +38740,9 @@
       <c r="M631">
         <v>68805</v>
       </c>
+      <c r="N631">
+        <v>4.316546762589928</v>
+      </c>
       <c r="O631">
         <v>235.27</v>
       </c>
@@ -36912,6 +38802,9 @@
       <c r="M632">
         <v>40681</v>
       </c>
+      <c r="N632">
+        <v>3.957621494063568</v>
+      </c>
       <c r="O632">
         <v>242.74</v>
       </c>
@@ -36971,6 +38864,9 @@
       <c r="M633">
         <v>73286</v>
       </c>
+      <c r="N633">
+        <v>5.307971508883006</v>
+      </c>
       <c r="O633">
         <v>248.75</v>
       </c>
@@ -37030,6 +38926,9 @@
       <c r="M634">
         <v>185622</v>
       </c>
+      <c r="N634">
+        <v>4.137440605100688</v>
+      </c>
       <c r="O634">
         <v>226.34</v>
       </c>
@@ -37089,6 +38988,9 @@
       <c r="M635">
         <v>364331</v>
       </c>
+      <c r="N635">
+        <v>2.365980385967705</v>
+      </c>
       <c r="O635">
         <v>258.91</v>
       </c>
@@ -37148,6 +39050,9 @@
       <c r="M636">
         <v>171107</v>
       </c>
+      <c r="N636">
+        <v>4.570239674589584</v>
+      </c>
       <c r="O636">
         <v>227.73</v>
       </c>
@@ -37207,6 +39112,9 @@
       <c r="M637">
         <v>149786</v>
       </c>
+      <c r="N637">
+        <v>4.953733993831199</v>
+      </c>
       <c r="O637">
         <v>217.01</v>
       </c>
@@ -37266,6 +39174,9 @@
       <c r="M638">
         <v>43115</v>
       </c>
+      <c r="N638">
+        <v>6.308709265916734</v>
+      </c>
       <c r="O638">
         <v>230.91</v>
       </c>
@@ -37325,6 +39236,9 @@
       <c r="M639">
         <v>40424</v>
       </c>
+      <c r="N639">
+        <v>7.050267168018999</v>
+      </c>
       <c r="O639">
         <v>248</v>
       </c>
@@ -37384,6 +39298,9 @@
       <c r="M640">
         <v>121710</v>
       </c>
+      <c r="N640">
+        <v>5.085859830745214</v>
+      </c>
       <c r="O640">
         <v>245.78</v>
       </c>
@@ -37443,6 +39360,9 @@
       <c r="M641">
         <v>38609</v>
       </c>
+      <c r="N641">
+        <v>7.433499961148955</v>
+      </c>
       <c r="O641">
         <v>247.81</v>
       </c>
@@ -37502,6 +39422,9 @@
       <c r="M642">
         <v>294973</v>
       </c>
+      <c r="N642">
+        <v>3.552867550589376</v>
+      </c>
       <c r="O642">
         <v>227.28</v>
       </c>
@@ -37561,6 +39484,9 @@
       <c r="M643">
         <v>1345364</v>
       </c>
+      <c r="N643">
+        <v>3.515777142840153</v>
+      </c>
       <c r="O643">
         <v>234.66</v>
       </c>
@@ -37620,6 +39546,9 @@
       <c r="M644">
         <v>247331</v>
       </c>
+      <c r="N644">
+        <v>3.966344695974221</v>
+      </c>
       <c r="O644">
         <v>252.51</v>
       </c>
@@ -37679,6 +39608,9 @@
       <c r="M645">
         <v>61908</v>
       </c>
+      <c r="N645">
+        <v>3.81210828972023</v>
+      </c>
       <c r="O645">
         <v>250.05</v>
       </c>
@@ -37738,6 +39670,9 @@
       <c r="M646">
         <v>77651</v>
       </c>
+      <c r="N646">
+        <v>5.486085175979704</v>
+      </c>
       <c r="O646">
         <v>227.22</v>
       </c>
@@ -37797,6 +39732,9 @@
       <c r="M647">
         <v>36329</v>
       </c>
+      <c r="N647">
+        <v>11.89132648848028</v>
+      </c>
       <c r="O647">
         <v>232.54</v>
       </c>
@@ -37856,6 +39794,9 @@
       <c r="M648">
         <v>267796</v>
       </c>
+      <c r="N648">
+        <v>3.790198509313059</v>
+      </c>
       <c r="O648">
         <v>266.94</v>
       </c>
@@ -37915,6 +39856,9 @@
       <c r="M649">
         <v>37999</v>
       </c>
+      <c r="N649">
+        <v>7.815995157767309</v>
+      </c>
       <c r="O649">
         <v>224.89</v>
       </c>
@@ -37974,6 +39918,9 @@
       <c r="M650">
         <v>117435</v>
       </c>
+      <c r="N650">
+        <v>6.607910759143356</v>
+      </c>
       <c r="O650">
         <v>236.75</v>
       </c>
@@ -38033,6 +39980,9 @@
       <c r="M651">
         <v>163928</v>
       </c>
+      <c r="N651">
+        <v>4.861890586110976</v>
+      </c>
       <c r="O651">
         <v>228.74</v>
       </c>
@@ -38092,6 +40042,9 @@
       <c r="M652">
         <v>163774</v>
       </c>
+      <c r="N652">
+        <v>3.346074468474849</v>
+      </c>
       <c r="O652">
         <v>243.08</v>
       </c>
@@ -38151,6 +40104,9 @@
       <c r="M653">
         <v>92324</v>
       </c>
+      <c r="N653">
+        <v>7.798622243403665</v>
+      </c>
       <c r="O653">
         <v>256.24</v>
       </c>
@@ -38210,6 +40166,9 @@
       <c r="M654">
         <v>241924</v>
       </c>
+      <c r="N654">
+        <v>4.600618376018915</v>
+      </c>
       <c r="O654">
         <v>221.13</v>
       </c>
@@ -38269,6 +40228,9 @@
       <c r="M655">
         <v>73919</v>
       </c>
+      <c r="N655">
+        <v>5.817178262692948</v>
+      </c>
       <c r="O655">
         <v>252.61</v>
       </c>
@@ -38328,6 +40290,9 @@
       <c r="M656">
         <v>40464</v>
       </c>
+      <c r="N656">
+        <v>4.670818505338079</v>
+      </c>
       <c r="O656">
         <v>254.21</v>
       </c>
@@ -38387,6 +40352,9 @@
       <c r="M657">
         <v>382521</v>
       </c>
+      <c r="N657">
+        <v>3.335764572402561</v>
+      </c>
       <c r="O657">
         <v>212.77</v>
       </c>
@@ -38446,6 +40414,9 @@
       <c r="M658">
         <v>45327</v>
       </c>
+      <c r="N658">
+        <v>7.677543186180422</v>
+      </c>
       <c r="O658">
         <v>247.17</v>
       </c>
@@ -38505,6 +40476,9 @@
       <c r="M659">
         <v>126403</v>
       </c>
+      <c r="N659">
+        <v>8.646946670569527</v>
+      </c>
       <c r="O659">
         <v>271.89</v>
       </c>
@@ -38564,6 +40538,9 @@
       <c r="M660">
         <v>174561</v>
       </c>
+      <c r="N660">
+        <v>4.812071424888721</v>
+      </c>
       <c r="O660">
         <v>225.54</v>
       </c>
@@ -38623,6 +40600,9 @@
       <c r="M661">
         <v>74119</v>
       </c>
+      <c r="N661">
+        <v>4.357856959753909</v>
+      </c>
       <c r="O661">
         <v>245.29</v>
       </c>
@@ -38682,6 +40662,9 @@
       <c r="M662">
         <v>38451</v>
       </c>
+      <c r="N662">
+        <v>5.539517827884841</v>
+      </c>
       <c r="O662">
         <v>220.5</v>
       </c>
@@ -38741,6 +40724,9 @@
       <c r="M663">
         <v>73467</v>
       </c>
+      <c r="N663">
+        <v>5.621571589965563</v>
+      </c>
       <c r="O663">
         <v>243.36</v>
       </c>
@@ -38800,6 +40786,9 @@
       <c r="M664">
         <v>249968</v>
       </c>
+      <c r="N664">
+        <v>4.024515137937656</v>
+      </c>
       <c r="O664">
         <v>241.92</v>
       </c>
@@ -38859,6 +40848,9 @@
       <c r="M665">
         <v>61801</v>
       </c>
+      <c r="N665">
+        <v>6.698920729438035</v>
+      </c>
       <c r="O665">
         <v>265.64</v>
       </c>
@@ -38918,6 +40910,9 @@
       <c r="M666">
         <v>50017</v>
       </c>
+      <c r="N666">
+        <v>4.338524901533479</v>
+      </c>
       <c r="O666">
         <v>275.37</v>
       </c>
@@ -38977,6 +40972,9 @@
       <c r="M667">
         <v>121988</v>
       </c>
+      <c r="N667">
+        <v>3.713480014427649</v>
+      </c>
       <c r="O667">
         <v>225.9</v>
       </c>
@@ -39036,6 +41034,9 @@
       <c r="M668">
         <v>46868</v>
       </c>
+      <c r="N668">
+        <v>8.513271315183067</v>
+      </c>
       <c r="O668">
         <v>214.31</v>
       </c>
@@ -39095,6 +41096,9 @@
       <c r="M669">
         <v>39531</v>
       </c>
+      <c r="N669">
+        <v>6.197667653234171</v>
+      </c>
       <c r="O669">
         <v>231.91</v>
       </c>
@@ -39154,6 +41158,9 @@
       <c r="M670">
         <v>137323</v>
       </c>
+      <c r="N670">
+        <v>3.888642106566271</v>
+      </c>
       <c r="O670">
         <v>249.25</v>
       </c>
@@ -39213,6 +41220,9 @@
       <c r="M671">
         <v>37859</v>
       </c>
+      <c r="N671">
+        <v>5.890277080746983</v>
+      </c>
       <c r="O671">
         <v>234.77</v>
       </c>
@@ -39272,6 +41282,9 @@
       <c r="M672">
         <v>460313</v>
       </c>
+      <c r="N672">
+        <v>3.971210893457278</v>
+      </c>
       <c r="O672">
         <v>252.38</v>
       </c>
@@ -39331,6 +41344,9 @@
       <c r="M673">
         <v>101316</v>
       </c>
+      <c r="N673">
+        <v>6.109597694342454</v>
+      </c>
       <c r="O673">
         <v>247.52</v>
       </c>
@@ -39390,6 +41406,9 @@
       <c r="M674">
         <v>68395</v>
       </c>
+      <c r="N674">
+        <v>5.541340741282258</v>
+      </c>
       <c r="O674">
         <v>251.57</v>
       </c>
@@ -39449,6 +41468,9 @@
       <c r="M675">
         <v>300728</v>
       </c>
+      <c r="N675">
+        <v>3.484876699209917</v>
+      </c>
       <c r="O675">
         <v>263.3</v>
       </c>
@@ -39508,6 +41530,9 @@
       <c r="M676">
         <v>76729</v>
       </c>
+      <c r="N676">
+        <v>2.072228231828904</v>
+      </c>
       <c r="O676">
         <v>250.01</v>
       </c>
@@ -39567,6 +41592,9 @@
       <c r="M677">
         <v>87370</v>
       </c>
+      <c r="N677">
+        <v>5.242073938422799</v>
+      </c>
       <c r="O677">
         <v>231.61</v>
       </c>
@@ -39626,6 +41654,9 @@
       <c r="M678">
         <v>54111</v>
       </c>
+      <c r="N678">
+        <v>6.172497274121713</v>
+      </c>
       <c r="O678">
         <v>264.33</v>
       </c>
@@ -39685,6 +41716,9 @@
       <c r="M679">
         <v>51660</v>
       </c>
+      <c r="N679">
+        <v>8.323654665118079</v>
+      </c>
       <c r="O679">
         <v>229.01</v>
       </c>
@@ -39744,6 +41778,9 @@
       <c r="M680">
         <v>97399</v>
       </c>
+      <c r="N680">
+        <v>3.44972740993234</v>
+      </c>
       <c r="O680">
         <v>243.65</v>
       </c>
@@ -39803,6 +41840,9 @@
       <c r="M681">
         <v>246627</v>
       </c>
+      <c r="N681">
+        <v>4.208784926224623</v>
+      </c>
       <c r="O681">
         <v>262.68</v>
       </c>
@@ -39862,6 +41902,9 @@
       <c r="M682">
         <v>80998</v>
       </c>
+      <c r="N682">
+        <v>3.975406800167905</v>
+      </c>
       <c r="O682">
         <v>248.61</v>
       </c>
@@ -39921,6 +41964,9 @@
       <c r="M683">
         <v>429380</v>
       </c>
+      <c r="N683">
+        <v>2.515254553076529</v>
+      </c>
       <c r="O683">
         <v>244.42</v>
       </c>
@@ -39980,6 +42026,9 @@
       <c r="M684">
         <v>65485</v>
       </c>
+      <c r="N684">
+        <v>3.222111934030694</v>
+      </c>
       <c r="O684">
         <v>257.83</v>
       </c>
@@ -40039,6 +42088,9 @@
       <c r="M685">
         <v>69324</v>
       </c>
+      <c r="N685">
+        <v>5.495932144711788</v>
+      </c>
       <c r="O685">
         <v>234.2</v>
       </c>
@@ -40098,6 +42150,9 @@
       <c r="M686">
         <v>468120</v>
       </c>
+      <c r="N686">
+        <v>2.151157822780484</v>
+      </c>
       <c r="O686">
         <v>246.73</v>
       </c>
@@ -40157,6 +42212,9 @@
       <c r="M687">
         <v>159735</v>
       </c>
+      <c r="N687">
+        <v>4.776661345353241</v>
+      </c>
       <c r="O687">
         <v>250.67</v>
       </c>
@@ -40216,6 +42274,9 @@
       <c r="M688">
         <v>95534</v>
       </c>
+      <c r="N688">
+        <v>5.987397157033098</v>
+      </c>
       <c r="O688">
         <v>246.09</v>
       </c>
@@ -40275,6 +42336,9 @@
       <c r="M689">
         <v>64519</v>
       </c>
+      <c r="N689">
+        <v>5.688246873014151</v>
+      </c>
       <c r="O689">
         <v>228.64</v>
       </c>
@@ -40334,6 +42398,9 @@
       <c r="M690">
         <v>48725</v>
       </c>
+      <c r="N690">
+        <v>4.576706003078502</v>
+      </c>
       <c r="O690">
         <v>234.23</v>
       </c>
@@ -40393,6 +42460,9 @@
       <c r="M691">
         <v>67296</v>
       </c>
+      <c r="N691">
+        <v>8.247146932952925</v>
+      </c>
       <c r="O691">
         <v>250.99</v>
       </c>
@@ -40452,6 +42522,9 @@
       <c r="M692">
         <v>64228</v>
       </c>
+      <c r="N692">
+        <v>3.59656224699508</v>
+      </c>
       <c r="O692">
         <v>263.65</v>
       </c>
@@ -40511,6 +42584,9 @@
       <c r="M693">
         <v>39435</v>
       </c>
+      <c r="N693">
+        <v>5.908456954482059</v>
+      </c>
       <c r="O693">
         <v>271.8</v>
       </c>
@@ -40570,6 +42646,9 @@
       <c r="M694">
         <v>56701</v>
       </c>
+      <c r="N694">
+        <v>7.178003915274862</v>
+      </c>
       <c r="O694">
         <v>253.43</v>
       </c>
@@ -40629,6 +42708,9 @@
       <c r="M695">
         <v>39193</v>
       </c>
+      <c r="N695">
+        <v>7.09310336029393</v>
+      </c>
       <c r="O695">
         <v>235.79</v>
       </c>
@@ -40688,6 +42770,9 @@
       <c r="M696">
         <v>756952</v>
       </c>
+      <c r="N696">
+        <v>5.06240818440271</v>
+      </c>
       <c r="O696">
         <v>231.02</v>
       </c>
@@ -40726,6 +42811,9 @@
       <c r="M697">
         <v>106877</v>
       </c>
+      <c r="N697">
+        <v>4.83733637733095</v>
+      </c>
       <c r="O697">
         <v>258.76</v>
       </c>
@@ -40785,6 +42873,9 @@
       <c r="M698">
         <v>42087</v>
       </c>
+      <c r="N698">
+        <v>9.266519352769263</v>
+      </c>
       <c r="O698">
         <v>248.26</v>
       </c>
@@ -40844,6 +42935,9 @@
       <c r="M699">
         <v>115690</v>
       </c>
+      <c r="N699">
+        <v>8.747514910536779</v>
+      </c>
       <c r="O699">
         <v>243.49</v>
       </c>
@@ -40903,6 +42997,9 @@
       <c r="M700">
         <v>46223</v>
       </c>
+      <c r="N700">
+        <v>5.581636847456894</v>
+      </c>
       <c r="O700">
         <v>239.27</v>
       </c>
@@ -40962,6 +43059,9 @@
       <c r="M701">
         <v>44332</v>
       </c>
+      <c r="N701">
+        <v>4.421185599566904</v>
+      </c>
       <c r="O701">
         <v>257.56</v>
       </c>
@@ -41021,6 +43121,9 @@
       <c r="M702">
         <v>63317</v>
       </c>
+      <c r="N702">
+        <v>4.469573732173034</v>
+      </c>
       <c r="O702">
         <v>255.19</v>
       </c>
@@ -41080,6 +43183,9 @@
       <c r="M703">
         <v>70543</v>
       </c>
+      <c r="N703">
+        <v>5.741179138964887</v>
+      </c>
       <c r="O703">
         <v>230.23</v>
       </c>
@@ -41139,6 +43245,9 @@
       <c r="M704">
         <v>54237</v>
       </c>
+      <c r="N704">
+        <v>5.144089827977211</v>
+      </c>
       <c r="O704">
         <v>256.89</v>
       </c>
@@ -41198,6 +43307,9 @@
       <c r="M705">
         <v>172027</v>
       </c>
+      <c r="N705">
+        <v>4.307463363309248</v>
+      </c>
       <c r="O705">
         <v>245.64</v>
       </c>
@@ -41257,6 +43369,9 @@
       <c r="M706">
         <v>438827</v>
       </c>
+      <c r="N706">
+        <v>5.733466719231041</v>
+      </c>
       <c r="O706">
         <v>250.76</v>
       </c>
@@ -41316,6 +43431,9 @@
       <c r="M707">
         <v>75475</v>
       </c>
+      <c r="N707">
+        <v>4.107320304736668</v>
+      </c>
       <c r="O707">
         <v>239.28</v>
       </c>
@@ -41375,6 +43493,9 @@
       <c r="M708">
         <v>106431</v>
       </c>
+      <c r="N708">
+        <v>6.473677781849274</v>
+      </c>
       <c r="O708">
         <v>243.37</v>
       </c>
@@ -41434,6 +43555,9 @@
       <c r="M709">
         <v>38376</v>
       </c>
+      <c r="N709">
+        <v>7.817385866166354</v>
+      </c>
       <c r="O709">
         <v>267.49</v>
       </c>
@@ -41493,6 +43617,9 @@
       <c r="M710">
         <v>58345</v>
       </c>
+      <c r="N710">
+        <v>6.221612820293084</v>
+      </c>
       <c r="O710">
         <v>231.36</v>
       </c>
@@ -41552,6 +43679,9 @@
       <c r="M711">
         <v>53940</v>
       </c>
+      <c r="N711">
+        <v>5.450500556173526</v>
+      </c>
       <c r="O711">
         <v>240.58</v>
       </c>
@@ -41611,6 +43741,9 @@
       <c r="M712">
         <v>365577</v>
       </c>
+      <c r="N712">
+        <v>4.100367364467677</v>
+      </c>
       <c r="O712">
         <v>246.44</v>
       </c>
@@ -41670,6 +43803,9 @@
       <c r="M713">
         <v>40383</v>
       </c>
+      <c r="N713">
+        <v>4.457321149988856</v>
+      </c>
       <c r="O713">
         <v>246.18</v>
       </c>
@@ -41729,6 +43865,9 @@
       <c r="M714">
         <v>234083</v>
       </c>
+      <c r="N714">
+        <v>3.554294844136482</v>
+      </c>
       <c r="O714">
         <v>245.15</v>
       </c>
@@ -41788,6 +43927,9 @@
       <c r="M715">
         <v>35902</v>
       </c>
+      <c r="N715">
+        <v>6.573449947078157</v>
+      </c>
       <c r="O715">
         <v>258.96</v>
       </c>
@@ -41847,6 +43989,9 @@
       <c r="M716">
         <v>35991</v>
       </c>
+      <c r="N716">
+        <v>4.05656969798005</v>
+      </c>
       <c r="O716">
         <v>242.81</v>
       </c>
@@ -41906,6 +44051,9 @@
       <c r="M717">
         <v>61732</v>
       </c>
+      <c r="N717">
+        <v>5.394284973757532</v>
+      </c>
       <c r="O717">
         <v>254.6</v>
       </c>
@@ -41965,6 +44113,9 @@
       <c r="M718">
         <v>118877</v>
       </c>
+      <c r="N718">
+        <v>6.300630063006301</v>
+      </c>
       <c r="O718">
         <v>254.4</v>
       </c>
@@ -42024,6 +44175,9 @@
       <c r="M719">
         <v>728400</v>
       </c>
+      <c r="N719">
+        <v>3.629873695771554</v>
+      </c>
       <c r="O719">
         <v>235.92</v>
       </c>
@@ -42083,6 +44237,9 @@
       <c r="M720">
         <v>208857</v>
       </c>
+      <c r="N720">
+        <v>5.056091009638173</v>
+      </c>
       <c r="O720">
         <v>245.62</v>
       </c>
@@ -42142,6 +44299,9 @@
       <c r="M721">
         <v>45317</v>
       </c>
+      <c r="N721">
+        <v>1.875675794955535</v>
+      </c>
       <c r="O721">
         <v>242.08</v>
       </c>
@@ -42198,6 +44358,9 @@
       <c r="M722">
         <v>140125</v>
       </c>
+      <c r="N722">
+        <v>2.990187332738626</v>
+      </c>
       <c r="O722">
         <v>249.17</v>
       </c>
@@ -42257,6 +44420,9 @@
       <c r="M723">
         <v>45138</v>
       </c>
+      <c r="N723">
+        <v>5.582879170543666</v>
+      </c>
       <c r="O723">
         <v>243.55</v>
       </c>
@@ -42316,6 +44482,9 @@
       <c r="M724">
         <v>189338</v>
       </c>
+      <c r="N724">
+        <v>2.936547338621935</v>
+      </c>
       <c r="O724">
         <v>254.8</v>
       </c>
@@ -42375,6 +44544,9 @@
       <c r="M725">
         <v>47677</v>
       </c>
+      <c r="N725">
+        <v>3.94320112423181</v>
+      </c>
       <c r="O725">
         <v>258.88</v>
       </c>
@@ -42434,6 +44606,9 @@
       <c r="M726">
         <v>36098</v>
       </c>
+      <c r="N726">
+        <v>7.839769516316694</v>
+      </c>
       <c r="O726">
         <v>239.12</v>
       </c>
@@ -42493,6 +44668,9 @@
       <c r="M727">
         <v>54586</v>
       </c>
+      <c r="N727">
+        <v>6.192063899168285</v>
+      </c>
       <c r="O727">
         <v>248.69</v>
       </c>
@@ -42552,6 +44730,9 @@
       <c r="M728">
         <v>162341</v>
       </c>
+      <c r="N728">
+        <v>7.471926377193685</v>
+      </c>
       <c r="O728">
         <v>231.55</v>
       </c>
@@ -42611,6 +44792,9 @@
       <c r="M729">
         <v>778711</v>
       </c>
+      <c r="N729">
+        <v>2.447634616693485</v>
+      </c>
       <c r="O729">
         <v>241.51</v>
       </c>
@@ -42670,6 +44854,9 @@
       <c r="M730">
         <v>429567</v>
       </c>
+      <c r="N730">
+        <v>4.409091014905707</v>
+      </c>
       <c r="O730">
         <v>222.72</v>
       </c>
@@ -42729,6 +44916,9 @@
       <c r="M731">
         <v>840499</v>
       </c>
+      <c r="N731">
+        <v>5.225467252191852</v>
+      </c>
       <c r="O731">
         <v>251.73</v>
       </c>
@@ -42788,6 +44978,9 @@
       <c r="M732">
         <v>172109</v>
       </c>
+      <c r="N732">
+        <v>6.827068892387963</v>
+      </c>
       <c r="O732">
         <v>264.1</v>
       </c>
@@ -42847,6 +45040,9 @@
       <c r="M733">
         <v>265294</v>
       </c>
+      <c r="N733">
+        <v>4.839913454507075</v>
+      </c>
       <c r="O733">
         <v>255.44</v>
       </c>
@@ -42906,6 +45102,9 @@
       <c r="M734">
         <v>95762</v>
       </c>
+      <c r="N734">
+        <v>3.821975313798793</v>
+      </c>
       <c r="O734">
         <v>251.74</v>
       </c>
@@ -42965,6 +45164,9 @@
       <c r="M735">
         <v>49815</v>
       </c>
+      <c r="N735">
+        <v>2.669878550637358</v>
+      </c>
       <c r="O735">
         <v>247.68</v>
       </c>
@@ -43024,6 +45226,9 @@
       <c r="M736">
         <v>53416</v>
       </c>
+      <c r="N736">
+        <v>4.399430882132695</v>
+      </c>
       <c r="O736">
         <v>238.14</v>
       </c>
@@ -43083,6 +45288,9 @@
       <c r="M737">
         <v>501597</v>
       </c>
+      <c r="N737">
+        <v>4.013181897020915</v>
+      </c>
       <c r="O737">
         <v>243.77</v>
       </c>
@@ -43142,6 +45350,9 @@
       <c r="M738">
         <v>724756</v>
       </c>
+      <c r="N738">
+        <v>4.079993818609298</v>
+      </c>
       <c r="O738">
         <v>253.78</v>
       </c>
@@ -43201,6 +45412,9 @@
       <c r="M739">
         <v>38166</v>
       </c>
+      <c r="N739">
+        <v>3.93019965414243</v>
+      </c>
       <c r="O739">
         <v>244.16</v>
       </c>
@@ -43260,6 +45474,9 @@
       <c r="M740">
         <v>11895578</v>
       </c>
+      <c r="N740">
+        <v>3.28037864154226</v>
+      </c>
       <c r="O740">
         <v>232.79</v>
       </c>
@@ -43319,6 +45536,9 @@
       <c r="M741">
         <v>39725</v>
       </c>
+      <c r="N741">
+        <v>6.091881686595343</v>
+      </c>
       <c r="O741">
         <v>247.47</v>
       </c>
@@ -43378,6 +45598,9 @@
       <c r="M742">
         <v>81342</v>
       </c>
+      <c r="N742">
+        <v>8.519583978756362</v>
+      </c>
       <c r="O742">
         <v>232.55</v>
       </c>
@@ -43437,6 +45660,9 @@
       <c r="M743">
         <v>84019</v>
       </c>
+      <c r="N743">
+        <v>7.772051559766243</v>
+      </c>
       <c r="O743">
         <v>234.28</v>
       </c>
@@ -43496,6 +45722,9 @@
       <c r="M744">
         <v>338407</v>
       </c>
+      <c r="N744">
+        <v>4.077929830056707</v>
+      </c>
       <c r="O744">
         <v>225.89</v>
       </c>
@@ -43555,6 +45784,9 @@
       <c r="M745">
         <v>45408</v>
       </c>
+      <c r="N745">
+        <v>5.175299506694856</v>
+      </c>
       <c r="O745">
         <v>231.18</v>
       </c>
@@ -43614,6 +45846,9 @@
       <c r="M746">
         <v>131600</v>
       </c>
+      <c r="N746">
+        <v>5.980243161094225</v>
+      </c>
       <c r="O746">
         <v>264.36</v>
       </c>
@@ -43673,6 +45908,9 @@
       <c r="M747">
         <v>41405</v>
       </c>
+      <c r="N747">
+        <v>6.110373143340176</v>
+      </c>
       <c r="O747">
         <v>260.95</v>
       </c>
@@ -43732,6 +45970,9 @@
       <c r="M748">
         <v>757459</v>
       </c>
+      <c r="N748">
+        <v>3.153966089253676</v>
+      </c>
       <c r="O748">
         <v>244.16</v>
       </c>
@@ -43791,6 +46032,9 @@
       <c r="M749">
         <v>289787</v>
       </c>
+      <c r="N749">
+        <v>3.047065603356948</v>
+      </c>
       <c r="O749">
         <v>233.72</v>
       </c>
@@ -43850,6 +46094,9 @@
       <c r="M750">
         <v>318765</v>
       </c>
+      <c r="N750">
+        <v>3.717472118959108</v>
+      </c>
       <c r="O750">
         <v>235.98</v>
       </c>
@@ -43909,6 +46156,9 @@
       <c r="M751">
         <v>284274</v>
       </c>
+      <c r="N751">
+        <v>3.85191751619916</v>
+      </c>
       <c r="O751">
         <v>241.38</v>
       </c>
@@ -43968,6 +46218,9 @@
       <c r="M752">
         <v>53322</v>
       </c>
+      <c r="N752">
+        <v>4.032106822699824</v>
+      </c>
       <c r="O752">
         <v>230.98</v>
       </c>
@@ -44027,6 +46280,9 @@
       <c r="M753">
         <v>128560</v>
       </c>
+      <c r="N753">
+        <v>4.830429371499688</v>
+      </c>
       <c r="O753">
         <v>235.89</v>
       </c>
@@ -44086,6 +46342,9 @@
       <c r="M754">
         <v>321298</v>
       </c>
+      <c r="N754">
+        <v>4.87086754352657</v>
+      </c>
       <c r="O754">
         <v>239.03</v>
       </c>
@@ -44145,6 +46404,9 @@
       <c r="M755">
         <v>38690</v>
       </c>
+      <c r="N755">
+        <v>10.05427759110881</v>
+      </c>
       <c r="O755">
         <v>261.72</v>
       </c>
@@ -44204,6 +46466,9 @@
       <c r="M756">
         <v>53083</v>
       </c>
+      <c r="N756">
+        <v>5.821072659796922</v>
+      </c>
       <c r="O756">
         <v>242.2</v>
       </c>
@@ -44263,6 +46528,9 @@
       <c r="M757">
         <v>65416</v>
       </c>
+      <c r="N757">
+        <v>4.387305857894093</v>
+      </c>
       <c r="O757">
         <v>251.67</v>
       </c>
@@ -44322,6 +46590,9 @@
       <c r="M758">
         <v>96598</v>
       </c>
+      <c r="N758">
+        <v>7.42251392368372</v>
+      </c>
       <c r="O758">
         <v>230.7</v>
       </c>
@@ -44381,6 +46652,9 @@
       <c r="M759">
         <v>131277</v>
       </c>
+      <c r="N759">
+        <v>3.686860607722602</v>
+      </c>
       <c r="O759">
         <v>247.44</v>
       </c>
@@ -44440,6 +46714,9 @@
       <c r="M760">
         <v>41226</v>
       </c>
+      <c r="N760">
+        <v>4.754281278804638</v>
+      </c>
       <c r="O760">
         <v>245.76</v>
       </c>
@@ -44499,6 +46776,9 @@
       <c r="M761">
         <v>52103</v>
       </c>
+      <c r="N761">
+        <v>4.6830316872349</v>
+      </c>
       <c r="O761">
         <v>243.89</v>
       </c>
@@ -44558,6 +46838,9 @@
       <c r="M762">
         <v>119576</v>
       </c>
+      <c r="N762">
+        <v>4.474141968287951</v>
+      </c>
       <c r="O762">
         <v>246.47</v>
       </c>
@@ -44617,6 +46900,9 @@
       <c r="M763">
         <v>79235</v>
       </c>
+      <c r="N763">
+        <v>7.042342399192276</v>
+      </c>
       <c r="O763">
         <v>259.92</v>
       </c>
@@ -44676,6 +46962,9 @@
       <c r="M764">
         <v>132849</v>
       </c>
+      <c r="N764">
+        <v>3.48515984313017</v>
+      </c>
       <c r="O764">
         <v>245.08</v>
       </c>
@@ -44735,6 +47024,9 @@
       <c r="M765">
         <v>100159</v>
       </c>
+      <c r="N765">
+        <v>3.604269211952995</v>
+      </c>
       <c r="O765">
         <v>249.85</v>
       </c>
@@ -44794,6 +47086,9 @@
       <c r="M766">
         <v>124788</v>
       </c>
+      <c r="N766">
+        <v>3.718306247395583</v>
+      </c>
       <c r="O766">
         <v>214.93</v>
       </c>
@@ -44853,6 +47148,9 @@
       <c r="M767">
         <v>134306</v>
       </c>
+      <c r="N767">
+        <v>5.465131863058985</v>
+      </c>
       <c r="O767">
         <v>267.92</v>
       </c>
@@ -44912,6 +47210,9 @@
       <c r="M768">
         <v>123863</v>
       </c>
+      <c r="N768">
+        <v>4.981309995721079</v>
+      </c>
       <c r="O768">
         <v>252.67</v>
       </c>
@@ -44971,6 +47272,9 @@
       <c r="M769">
         <v>160038</v>
       </c>
+      <c r="N769">
+        <v>5.236256389107587</v>
+      </c>
       <c r="O769">
         <v>239.02</v>
       </c>
@@ -45030,6 +47334,9 @@
       <c r="M770">
         <v>38105</v>
       </c>
+      <c r="N770">
+        <v>7.348117045007217</v>
+      </c>
       <c r="O770">
         <v>252.68</v>
       </c>
@@ -45089,6 +47396,9 @@
       <c r="M771">
         <v>111009</v>
       </c>
+      <c r="N771">
+        <v>6.720175841598429</v>
+      </c>
       <c r="O771">
         <v>255.73</v>
       </c>
@@ -45148,6 +47458,9 @@
       <c r="M772">
         <v>49971</v>
       </c>
+      <c r="N772">
+        <v>3.762182065598047</v>
+      </c>
       <c r="O772">
         <v>230.56</v>
       </c>
@@ -45207,6 +47520,9 @@
       <c r="M773">
         <v>142695</v>
       </c>
+      <c r="N773">
+        <v>4.80044850905778</v>
+      </c>
       <c r="O773">
         <v>242.69</v>
       </c>
@@ -45266,6 +47582,9 @@
       <c r="M774">
         <v>103340</v>
       </c>
+      <c r="N774">
+        <v>7.015676407973679</v>
+      </c>
       <c r="O774">
         <v>242.9</v>
       </c>
@@ -45325,6 +47644,9 @@
       <c r="M775">
         <v>364104</v>
       </c>
+      <c r="N775">
+        <v>5.179838727396568</v>
+      </c>
       <c r="O775">
         <v>240.73</v>
       </c>
@@ -45384,6 +47706,9 @@
       <c r="M776">
         <v>75291</v>
       </c>
+      <c r="N776">
+        <v>8.407379368051958</v>
+      </c>
       <c r="O776">
         <v>258.45</v>
       </c>
@@ -45443,6 +47768,9 @@
       <c r="M777">
         <v>82359</v>
       </c>
+      <c r="N777">
+        <v>5.536735511601647</v>
+      </c>
       <c r="O777">
         <v>251.53</v>
       </c>
@@ -45502,6 +47830,9 @@
       <c r="M778">
         <v>240720</v>
       </c>
+      <c r="N778">
+        <v>5.994516450648056</v>
+      </c>
       <c r="O778">
         <v>238.3</v>
       </c>
@@ -45561,6 +47892,9 @@
       <c r="M779">
         <v>45830</v>
       </c>
+      <c r="N779">
+        <v>6.851407375081824</v>
+      </c>
       <c r="O779">
         <v>237.23</v>
       </c>
@@ -45620,6 +47954,9 @@
       <c r="M780">
         <v>1829225</v>
       </c>
+      <c r="N780">
+        <v>5.470076125134962</v>
+      </c>
       <c r="O780">
         <v>237.52</v>
       </c>
@@ -45679,6 +48016,9 @@
       <c r="M781">
         <v>47014</v>
       </c>
+      <c r="N781">
+        <v>5.33883524056664</v>
+      </c>
       <c r="O781">
         <v>256.1</v>
       </c>
@@ -45738,6 +48078,9 @@
       <c r="M782">
         <v>161506</v>
       </c>
+      <c r="N782">
+        <v>5.541589786137976</v>
+      </c>
       <c r="O782">
         <v>238.09</v>
       </c>
@@ -45797,6 +48140,9 @@
       <c r="M783">
         <v>295500</v>
       </c>
+      <c r="N783">
+        <v>4.791878172588833</v>
+      </c>
       <c r="O783">
         <v>266.17</v>
       </c>
@@ -45835,6 +48181,9 @@
       <c r="M784">
         <v>101302</v>
       </c>
+      <c r="N784">
+        <v>7.561548636749521</v>
+      </c>
       <c r="O784">
         <v>248.83</v>
       </c>
@@ -45894,6 +48243,9 @@
       <c r="M785">
         <v>188710</v>
       </c>
+      <c r="N785">
+        <v>6.480843622489534</v>
+      </c>
       <c r="O785">
         <v>240.62</v>
       </c>
@@ -45953,6 +48305,9 @@
       <c r="M786">
         <v>44323</v>
       </c>
+      <c r="N786">
+        <v>5.911152223450578</v>
+      </c>
       <c r="O786">
         <v>237.49</v>
       </c>
@@ -46012,6 +48367,9 @@
       <c r="M787">
         <v>53054</v>
       </c>
+      <c r="N787">
+        <v>6.93632902325932</v>
+      </c>
       <c r="O787">
         <v>232.8</v>
       </c>
@@ -46071,6 +48429,9 @@
       <c r="M788">
         <v>60796</v>
       </c>
+      <c r="N788">
+        <v>5.608921639581552</v>
+      </c>
       <c r="O788">
         <v>255.6</v>
       </c>
@@ -46130,6 +48491,9 @@
       <c r="M789">
         <v>41400</v>
       </c>
+      <c r="N789">
+        <v>8.454106280193237</v>
+      </c>
       <c r="O789">
         <v>213.99</v>
       </c>
@@ -46189,6 +48553,9 @@
       <c r="M790">
         <v>36231</v>
       </c>
+      <c r="N790">
+        <v>4.167701691921283</v>
+      </c>
       <c r="O790">
         <v>228.44</v>
       </c>
@@ -46248,6 +48615,9 @@
       <c r="M791">
         <v>45857</v>
       </c>
+      <c r="N791">
+        <v>6.345814161414833</v>
+      </c>
       <c r="O791">
         <v>243.61</v>
       </c>
@@ -46307,6 +48677,9 @@
       <c r="M792">
         <v>577318</v>
       </c>
+      <c r="N792">
+        <v>4.829227566090093</v>
+      </c>
       <c r="O792">
         <v>253.59</v>
       </c>
@@ -46366,6 +48739,9 @@
       <c r="M793">
         <v>38050</v>
       </c>
+      <c r="N793">
+        <v>4.730617608409987</v>
+      </c>
       <c r="O793">
         <v>274.32</v>
       </c>
@@ -46425,6 +48801,9 @@
       <c r="M794">
         <v>58140</v>
       </c>
+      <c r="N794">
+        <v>7.585139318885449</v>
+      </c>
       <c r="O794">
         <v>240.85</v>
       </c>
@@ -46484,6 +48863,9 @@
       <c r="M795">
         <v>44098</v>
       </c>
+      <c r="N795">
+        <v>4.716767200326546</v>
+      </c>
       <c r="O795">
         <v>255.03</v>
       </c>
@@ -46543,6 +48925,9 @@
       <c r="M796">
         <v>425983</v>
       </c>
+      <c r="N796">
+        <v>5.195042994673496</v>
+      </c>
       <c r="O796">
         <v>265.54</v>
       </c>
@@ -46602,6 +48987,9 @@
       <c r="M797">
         <v>41416</v>
       </c>
+      <c r="N797">
+        <v>6.977979524821325</v>
+      </c>
       <c r="O797">
         <v>242.28</v>
       </c>
@@ -46661,6 +49049,9 @@
       <c r="M798">
         <v>57120</v>
       </c>
+      <c r="N798">
+        <v>5.339635854341736</v>
+      </c>
       <c r="O798">
         <v>261.91</v>
       </c>
@@ -46720,6 +49111,9 @@
       <c r="M799">
         <v>48207</v>
       </c>
+      <c r="N799">
+        <v>6.326881988093016</v>
+      </c>
       <c r="O799">
         <v>245.85</v>
       </c>
@@ -46779,6 +49173,9 @@
       <c r="M800">
         <v>49891</v>
       </c>
+      <c r="N800">
+        <v>5.351666633260508</v>
+      </c>
       <c r="O800">
         <v>213.58</v>
       </c>
@@ -46838,6 +49235,9 @@
       <c r="M801">
         <v>34806</v>
       </c>
+      <c r="N801">
+        <v>6.952824225708211</v>
+      </c>
       <c r="O801">
         <v>245.26</v>
       </c>
@@ -46897,6 +49297,9 @@
       <c r="M802">
         <v>36623</v>
       </c>
+      <c r="N802">
+        <v>5.788712011577424</v>
+      </c>
       <c r="O802">
         <v>244.31</v>
       </c>
@@ -46956,6 +49359,9 @@
       <c r="M803">
         <v>149819</v>
       </c>
+      <c r="N803">
+        <v>7.322168750292019</v>
+      </c>
       <c r="O803">
         <v>234.72</v>
       </c>
@@ -47015,6 +49421,9 @@
       <c r="M804">
         <v>95525</v>
       </c>
+      <c r="N804">
+        <v>5.652970426589898</v>
+      </c>
       <c r="O804">
         <v>272.42</v>
       </c>
@@ -47074,6 +49483,9 @@
       <c r="M805">
         <v>96602</v>
       </c>
+      <c r="N805">
+        <v>4.513364112544254</v>
+      </c>
       <c r="O805">
         <v>258.76</v>
       </c>
@@ -47133,6 +49545,9 @@
       <c r="M806">
         <v>131199</v>
       </c>
+      <c r="N806">
+        <v>5.457358668892294</v>
+      </c>
       <c r="O806">
         <v>245.85</v>
       </c>
@@ -47192,6 +49607,9 @@
       <c r="M807">
         <v>124934</v>
       </c>
+      <c r="N807">
+        <v>4.482366689612115</v>
+      </c>
       <c r="O807">
         <v>217.03</v>
       </c>
@@ -47230,6 +49648,9 @@
       <c r="M808">
         <v>34513</v>
       </c>
+      <c r="N808">
+        <v>6.895952249876858</v>
+      </c>
       <c r="O808">
         <v>228.31</v>
       </c>
@@ -47289,6 +49710,9 @@
       <c r="M809">
         <v>372562</v>
       </c>
+      <c r="N809">
+        <v>5.327972256966626</v>
+      </c>
       <c r="O809">
         <v>238.42</v>
       </c>
@@ -47348,6 +49772,9 @@
       <c r="M810">
         <v>50428</v>
       </c>
+      <c r="N810">
+        <v>6.068057428412787</v>
+      </c>
       <c r="O810">
         <v>249.93</v>
       </c>
@@ -47407,6 +49834,9 @@
       <c r="M811">
         <v>39307</v>
       </c>
+      <c r="N811">
+        <v>6.283868013330959</v>
+      </c>
       <c r="O811">
         <v>223.53</v>
       </c>
@@ -47466,6 +49896,9 @@
       <c r="M812">
         <v>74935</v>
       </c>
+      <c r="N812">
+        <v>4.030159471542003</v>
+      </c>
       <c r="O812">
         <v>260.07</v>
       </c>
@@ -47525,6 +49958,9 @@
       <c r="M813">
         <v>45534</v>
       </c>
+      <c r="N813">
+        <v>7.049677164316774</v>
+      </c>
       <c r="O813">
         <v>255.89</v>
       </c>
@@ -47584,6 +50020,9 @@
       <c r="M814">
         <v>345644</v>
       </c>
+      <c r="N814">
+        <v>3.992547245142401</v>
+      </c>
       <c r="O814">
         <v>237.66</v>
       </c>
@@ -47643,6 +50082,9 @@
       <c r="M815">
         <v>43413</v>
       </c>
+      <c r="N815">
+        <v>6.795199594591482</v>
+      </c>
       <c r="O815">
         <v>241.59</v>
       </c>
@@ -47702,6 +50144,9 @@
       <c r="M816">
         <v>125785</v>
       </c>
+      <c r="N816">
+        <v>5.175497873355329</v>
+      </c>
       <c r="O816">
         <v>232.52</v>
       </c>
@@ -47761,6 +50206,9 @@
       <c r="M817">
         <v>77182</v>
       </c>
+      <c r="N817">
+        <v>5.597159959576067</v>
+      </c>
       <c r="O817">
         <v>233.48</v>
       </c>
@@ -47820,6 +50268,9 @@
       <c r="M818">
         <v>158620</v>
       </c>
+      <c r="N818">
+        <v>5.781112091791703</v>
+      </c>
       <c r="O818">
         <v>248.27</v>
       </c>
@@ -47879,6 +50330,9 @@
       <c r="M819">
         <v>121972</v>
       </c>
+      <c r="N819">
+        <v>5.443872364149149</v>
+      </c>
       <c r="O819">
         <v>242.9</v>
       </c>
@@ -47938,6 +50392,9 @@
       <c r="M820">
         <v>56397</v>
       </c>
+      <c r="N820">
+        <v>6.223735305069418</v>
+      </c>
       <c r="O820">
         <v>238.02</v>
       </c>
@@ -47997,6 +50454,9 @@
       <c r="M821">
         <v>50178</v>
       </c>
+      <c r="N821">
+        <v>6.775877874765833</v>
+      </c>
       <c r="O821">
         <v>231.6</v>
       </c>
@@ -48056,6 +50516,9 @@
       <c r="M822">
         <v>75597</v>
       </c>
+      <c r="N822">
+        <v>3.161501117769224</v>
+      </c>
       <c r="O822">
         <v>226.97</v>
       </c>
@@ -48115,6 +50578,9 @@
       <c r="M823">
         <v>148758</v>
       </c>
+      <c r="N823">
+        <v>9.276812003388054</v>
+      </c>
       <c r="O823">
         <v>235.01</v>
       </c>
@@ -48174,6 +50640,9 @@
       <c r="M824">
         <v>50730</v>
       </c>
+      <c r="N824">
+        <v>5.795387344766411</v>
+      </c>
       <c r="O824">
         <v>231.03</v>
       </c>
@@ -48230,6 +50699,9 @@
       <c r="M825">
         <v>82028</v>
       </c>
+      <c r="N825">
+        <v>4.193689959526015</v>
+      </c>
       <c r="O825">
         <v>214.88</v>
       </c>
@@ -48289,6 +50761,9 @@
       <c r="M826">
         <v>380597</v>
       </c>
+      <c r="N826">
+        <v>7.015294392756643</v>
+      </c>
       <c r="O826">
         <v>234.45</v>
       </c>
@@ -48348,6 +50823,9 @@
       <c r="M827">
         <v>35534</v>
       </c>
+      <c r="N827">
+        <v>5.03742894129566</v>
+      </c>
       <c r="O827">
         <v>223.2</v>
       </c>
@@ -48407,6 +50885,9 @@
       <c r="M828">
         <v>151949</v>
       </c>
+      <c r="N828">
+        <v>5.449196769968871</v>
+      </c>
       <c r="O828">
         <v>238.23</v>
       </c>
@@ -48466,6 +50947,9 @@
       <c r="M829">
         <v>75998</v>
       </c>
+      <c r="N829">
+        <v>7.263349035500934</v>
+      </c>
       <c r="O829">
         <v>228.35</v>
       </c>
@@ -48525,6 +51009,9 @@
       <c r="M830">
         <v>113525</v>
       </c>
+      <c r="N830">
+        <v>5.029729134551861</v>
+      </c>
       <c r="O830">
         <v>225.96</v>
       </c>
@@ -48584,6 +51071,9 @@
       <c r="M831">
         <v>38656</v>
       </c>
+      <c r="N831">
+        <v>5.354925496688741</v>
+      </c>
       <c r="O831">
         <v>228.51</v>
       </c>
@@ -48643,6 +51133,9 @@
       <c r="M832">
         <v>56721</v>
       </c>
+      <c r="N832">
+        <v>6.223444579608963</v>
+      </c>
       <c r="O832">
         <v>243.6</v>
       </c>
@@ -48702,6 +51195,9 @@
       <c r="M833">
         <v>275959</v>
       </c>
+      <c r="N833">
+        <v>4.725339633786178</v>
+      </c>
       <c r="O833">
         <v>231.08</v>
       </c>
@@ -48761,6 +51257,9 @@
       <c r="M834">
         <v>85982</v>
       </c>
+      <c r="N834">
+        <v>6.978204740527088</v>
+      </c>
       <c r="O834">
         <v>241.47</v>
       </c>
@@ -48820,6 +51319,9 @@
       <c r="M835">
         <v>225281</v>
       </c>
+      <c r="N835">
+        <v>5.402142213502248</v>
+      </c>
       <c r="O835">
         <v>231.01</v>
       </c>
@@ -48879,6 +51381,9 @@
       <c r="M836">
         <v>41512</v>
       </c>
+      <c r="N836">
+        <v>6.455964540373868</v>
+      </c>
       <c r="O836">
         <v>217.11</v>
       </c>
@@ -48938,6 +51443,9 @@
       <c r="M837">
         <v>576361</v>
       </c>
+      <c r="N837">
+        <v>3.596704148962195</v>
+      </c>
       <c r="O837">
         <v>219.95</v>
       </c>
@@ -48997,6 +51505,9 @@
       <c r="M838">
         <v>76982</v>
       </c>
+      <c r="N838">
+        <v>5.196019848795823</v>
+      </c>
       <c r="O838">
         <v>226.46</v>
       </c>
@@ -49056,6 +51567,9 @@
       <c r="M839">
         <v>49941</v>
       </c>
+      <c r="N839">
+        <v>4.945836086582167</v>
+      </c>
       <c r="O839">
         <v>232.13</v>
       </c>
@@ -49115,6 +51629,9 @@
       <c r="M840">
         <v>62455</v>
       </c>
+      <c r="N840">
+        <v>6.420622848450884</v>
+      </c>
       <c r="O840">
         <v>239.87</v>
       </c>
@@ -49174,6 +51691,9 @@
       <c r="M841">
         <v>56107</v>
       </c>
+      <c r="N841">
+        <v>4.794410679594346</v>
+      </c>
       <c r="O841">
         <v>222.56</v>
       </c>
@@ -49233,6 +51753,9 @@
       <c r="M842">
         <v>76333</v>
       </c>
+      <c r="N842">
+        <v>6.379940523757746</v>
+      </c>
       <c r="O842">
         <v>242.42</v>
       </c>
@@ -49292,6 +51815,9 @@
       <c r="M843">
         <v>287289</v>
       </c>
+      <c r="N843">
+        <v>5.718979842597523</v>
+      </c>
       <c r="O843">
         <v>241.46</v>
       </c>
@@ -49351,6 +51877,9 @@
       <c r="M844">
         <v>83330</v>
       </c>
+      <c r="N844">
+        <v>6.744269770790831</v>
+      </c>
       <c r="O844">
         <v>234.65</v>
       </c>
@@ -49407,6 +51936,9 @@
       <c r="M845">
         <v>34546</v>
       </c>
+      <c r="N845">
+        <v>5.152550222891217</v>
+      </c>
       <c r="O845">
         <v>232.12</v>
       </c>
@@ -49463,6 +51995,9 @@
       <c r="M846">
         <v>195753</v>
       </c>
+      <c r="N846">
+        <v>4.454593288480892</v>
+      </c>
       <c r="O846">
         <v>251.97</v>
       </c>
@@ -49522,6 +52057,9 @@
       <c r="M847">
         <v>654888</v>
       </c>
+      <c r="N847">
+        <v>3.721246991852042</v>
+      </c>
       <c r="O847">
         <v>256.48</v>
       </c>
@@ -49581,6 +52119,9 @@
       <c r="M848">
         <v>171609</v>
       </c>
+      <c r="N848">
+        <v>6.736243437115769</v>
+      </c>
       <c r="O848">
         <v>210.76</v>
       </c>
@@ -49640,6 +52181,9 @@
       <c r="M849">
         <v>43992</v>
       </c>
+      <c r="N849">
+        <v>5.205491907619567</v>
+      </c>
       <c r="O849">
         <v>222.05</v>
       </c>
@@ -49696,6 +52240,9 @@
       <c r="M850">
         <v>57023</v>
       </c>
+      <c r="N850">
+        <v>6.418462725566877</v>
+      </c>
       <c r="O850">
         <v>241.57</v>
       </c>
@@ -49755,6 +52302,9 @@
       <c r="M851">
         <v>93619</v>
       </c>
+      <c r="N851">
+        <v>7.498477873081319</v>
+      </c>
       <c r="O851">
         <v>231.6</v>
       </c>
@@ -49814,6 +52364,9 @@
       <c r="M852">
         <v>245477</v>
       </c>
+      <c r="N852">
+        <v>3.878163738354306</v>
+      </c>
       <c r="O852">
         <v>221.2</v>
       </c>
@@ -49873,6 +52426,9 @@
       <c r="M853">
         <v>36124</v>
       </c>
+      <c r="N853">
+        <v>8.027903886612778</v>
+      </c>
       <c r="O853">
         <v>230.03</v>
       </c>
@@ -49932,6 +52488,9 @@
       <c r="M854">
         <v>36392</v>
       </c>
+      <c r="N854">
+        <v>7.556605847438997</v>
+      </c>
       <c r="O854">
         <v>252.6</v>
       </c>
@@ -49991,6 +52550,9 @@
       <c r="M855">
         <v>76390</v>
       </c>
+      <c r="N855">
+        <v>7.370074617096479</v>
+      </c>
       <c r="O855">
         <v>227.5</v>
       </c>
@@ -50050,6 +52612,9 @@
       <c r="M856">
         <v>40168</v>
       </c>
+      <c r="N856">
+        <v>8.564031069508067</v>
+      </c>
       <c r="O856">
         <v>235.8</v>
       </c>
@@ -50109,6 +52674,9 @@
       <c r="M857">
         <v>86851</v>
       </c>
+      <c r="N857">
+        <v>6.862327434341574</v>
+      </c>
       <c r="O857">
         <v>242.87</v>
       </c>
@@ -50168,6 +52736,9 @@
       <c r="M858">
         <v>55784</v>
       </c>
+      <c r="N858">
+        <v>10.91710884841532</v>
+      </c>
       <c r="O858">
         <v>222.7</v>
       </c>
@@ -50227,6 +52798,9 @@
       <c r="M859">
         <v>34733</v>
       </c>
+      <c r="N859">
+        <v>7.111392623729595</v>
+      </c>
       <c r="O859">
         <v>242.53</v>
       </c>
@@ -50286,6 +52860,9 @@
       <c r="M860">
         <v>289949</v>
       </c>
+      <c r="N860">
+        <v>3.645468685872343</v>
+      </c>
       <c r="O860">
         <v>239.59</v>
       </c>
@@ -50345,6 +52922,9 @@
       <c r="M861">
         <v>46969</v>
       </c>
+      <c r="N861">
+        <v>5.769763035193425</v>
+      </c>
       <c r="O861">
         <v>239.95</v>
       </c>
@@ -50404,6 +52984,9 @@
       <c r="M862">
         <v>56674</v>
       </c>
+      <c r="N862">
+        <v>6.334474362141369</v>
+      </c>
       <c r="O862">
         <v>226.1</v>
       </c>
@@ -50463,6 +53046,9 @@
       <c r="M863">
         <v>48903</v>
       </c>
+      <c r="N863">
+        <v>7.320614277242705</v>
+      </c>
       <c r="O863">
         <v>250.25</v>
       </c>
@@ -50522,6 +53108,9 @@
       <c r="M864">
         <v>115495</v>
       </c>
+      <c r="N864">
+        <v>4.536992943417464</v>
+      </c>
       <c r="O864">
         <v>228.22</v>
       </c>
@@ -50581,6 +53170,9 @@
       <c r="M865">
         <v>58299</v>
       </c>
+      <c r="N865">
+        <v>4.768520900873085</v>
+      </c>
       <c r="O865">
         <v>233.65</v>
       </c>
@@ -50640,6 +53232,9 @@
       <c r="M866">
         <v>54194</v>
       </c>
+      <c r="N866">
+        <v>4.926744658080231</v>
+      </c>
       <c r="O866">
         <v>241.13</v>
       </c>
@@ -50699,6 +53294,9 @@
       <c r="M867">
         <v>74329</v>
       </c>
+      <c r="N867">
+        <v>4.412813303017665</v>
+      </c>
       <c r="O867">
         <v>217.56</v>
       </c>
@@ -50758,6 +53356,9 @@
       <c r="M868">
         <v>194116</v>
       </c>
+      <c r="N868">
+        <v>4.87337468317913</v>
+      </c>
       <c r="O868">
         <v>211.03</v>
       </c>
@@ -50817,6 +53418,9 @@
       <c r="M869">
         <v>121900</v>
       </c>
+      <c r="N869">
+        <v>5.406070549630845</v>
+      </c>
       <c r="O869">
         <v>224.33</v>
       </c>
@@ -50873,6 +53477,9 @@
       <c r="M870">
         <v>127775</v>
       </c>
+      <c r="N870">
+        <v>5.055762081784387</v>
+      </c>
       <c r="O870">
         <v>243.32</v>
       </c>
@@ -50932,6 +53539,9 @@
       <c r="M871">
         <v>82250</v>
       </c>
+      <c r="N871">
+        <v>5.72644376899696</v>
+      </c>
       <c r="O871">
         <v>227.72</v>
       </c>
@@ -50991,6 +53601,9 @@
       <c r="M872">
         <v>141303</v>
       </c>
+      <c r="N872">
+        <v>5.824363247772517</v>
+      </c>
       <c r="O872">
         <v>220.68</v>
       </c>
@@ -51050,6 +53663,9 @@
       <c r="M873">
         <v>63959</v>
       </c>
+      <c r="N873">
+        <v>5.878766084522898</v>
+      </c>
       <c r="O873">
         <v>235.13</v>
       </c>
@@ -51109,6 +53725,9 @@
       <c r="M874">
         <v>64704</v>
       </c>
+      <c r="N874">
+        <v>10.10756676557864</v>
+      </c>
       <c r="O874">
         <v>251.81</v>
       </c>
@@ -51168,6 +53787,9 @@
       <c r="M875">
         <v>50613</v>
       </c>
+      <c r="N875">
+        <v>6.026119771600182</v>
+      </c>
       <c r="O875">
         <v>228.89</v>
       </c>
@@ -51227,6 +53849,9 @@
       <c r="M876">
         <v>50998</v>
       </c>
+      <c r="N876">
+        <v>7.588532883642496</v>
+      </c>
       <c r="O876">
         <v>237.52</v>
       </c>
@@ -51286,6 +53911,9 @@
       <c r="M877">
         <v>359554</v>
       </c>
+      <c r="N877">
+        <v>3.412561117384315</v>
+      </c>
       <c r="O877">
         <v>217.81</v>
       </c>
@@ -51345,6 +53973,9 @@
       <c r="M878">
         <v>66012</v>
       </c>
+      <c r="N878">
+        <v>6.877537417439253</v>
+      </c>
       <c r="O878">
         <v>223.05</v>
       </c>
@@ -51404,6 +54035,9 @@
       <c r="M879">
         <v>63638</v>
       </c>
+      <c r="N879">
+        <v>4.35274521512304</v>
+      </c>
       <c r="O879">
         <v>232.09</v>
       </c>
@@ -51463,6 +54097,9 @@
       <c r="M880">
         <v>479256</v>
       </c>
+      <c r="N880">
+        <v>3.858063331497154</v>
+      </c>
       <c r="O880">
         <v>234.53</v>
       </c>
@@ -51522,6 +54159,9 @@
       <c r="M881">
         <v>36109</v>
       </c>
+      <c r="N881">
+        <v>6.701930266692514</v>
+      </c>
       <c r="O881">
         <v>231.7</v>
       </c>
@@ -51581,6 +54221,9 @@
       <c r="M882">
         <v>60486</v>
       </c>
+      <c r="N882">
+        <v>5.571537215223358</v>
+      </c>
       <c r="O882">
         <v>221.54</v>
       </c>
@@ -51640,6 +54283,9 @@
       <c r="M883">
         <v>38094</v>
       </c>
+      <c r="N883">
+        <v>6.746469260250958</v>
+      </c>
       <c r="O883">
         <v>221.01</v>
       </c>
@@ -51699,6 +54345,9 @@
       <c r="M884">
         <v>40954</v>
       </c>
+      <c r="N884">
+        <v>5.542804121697515</v>
+      </c>
       <c r="O884">
         <v>203.07</v>
       </c>
@@ -51758,6 +54407,9 @@
       <c r="M885">
         <v>109497</v>
       </c>
+      <c r="N885">
+        <v>4.511539128925906</v>
+      </c>
       <c r="O885">
         <v>247.04</v>
       </c>
@@ -51817,6 +54469,9 @@
       <c r="M886">
         <v>49440</v>
       </c>
+      <c r="N886">
+        <v>7.564724919093851</v>
+      </c>
       <c r="O886">
         <v>237.87</v>
       </c>
@@ -51876,6 +54531,9 @@
       <c r="M887">
         <v>78181</v>
       </c>
+      <c r="N887">
+        <v>8.198923011985009</v>
+      </c>
       <c r="O887">
         <v>226.5</v>
       </c>
@@ -51935,6 +54593,9 @@
       <c r="M888">
         <v>72477</v>
       </c>
+      <c r="N888">
+        <v>7.423044552064793</v>
+      </c>
       <c r="O888">
         <v>256.82</v>
       </c>
@@ -51994,6 +54655,9 @@
       <c r="M889">
         <v>35522</v>
       </c>
+      <c r="N889">
+        <v>4.588705590901413</v>
+      </c>
       <c r="O889">
         <v>235.61</v>
       </c>
@@ -52053,6 +54717,9 @@
       <c r="M890">
         <v>41621</v>
       </c>
+      <c r="N890">
+        <v>10.71574445592369</v>
+      </c>
       <c r="O890">
         <v>226.16</v>
       </c>
@@ -52112,6 +54779,9 @@
       <c r="M891">
         <v>275294</v>
       </c>
+      <c r="N891">
+        <v>5.550429722405864</v>
+      </c>
       <c r="O891">
         <v>224.74</v>
       </c>
@@ -52171,6 +54841,9 @@
       <c r="M892">
         <v>95956</v>
       </c>
+      <c r="N892">
+        <v>5.387886114469132</v>
+      </c>
       <c r="O892">
         <v>219.54</v>
       </c>
@@ -52230,6 +54903,9 @@
       <c r="M893">
         <v>34763</v>
       </c>
+      <c r="N893">
+        <v>8.486034001668441</v>
+      </c>
       <c r="O893">
         <v>246.94</v>
       </c>
@@ -52289,6 +54965,9 @@
       <c r="M894">
         <v>87775</v>
       </c>
+      <c r="N894">
+        <v>5.11535175163771</v>
+      </c>
       <c r="O894">
         <v>253.93</v>
       </c>
@@ -52348,6 +55027,9 @@
       <c r="M895">
         <v>36830</v>
       </c>
+      <c r="N895">
+        <v>6.65218571816454</v>
+      </c>
       <c r="O895">
         <v>213.03</v>
       </c>
@@ -52407,6 +55089,9 @@
       <c r="M896">
         <v>96651</v>
       </c>
+      <c r="N896">
+        <v>6.197556155652813</v>
+      </c>
       <c r="O896">
         <v>240.05</v>
       </c>
@@ -52466,6 +55151,9 @@
       <c r="M897">
         <v>46656</v>
       </c>
+      <c r="N897">
+        <v>7.566015089163237</v>
+      </c>
       <c r="O897">
         <v>230.52</v>
       </c>
@@ -52525,6 +55213,9 @@
       <c r="M898">
         <v>66295</v>
       </c>
+      <c r="N898">
+        <v>4.766573648088091</v>
+      </c>
       <c r="O898">
         <v>221.56</v>
       </c>
@@ -52584,6 +55275,9 @@
       <c r="M899">
         <v>235879</v>
       </c>
+      <c r="N899">
+        <v>4.930494024478652</v>
+      </c>
       <c r="O899">
         <v>231.75</v>
       </c>
@@ -52643,6 +55337,9 @@
       <c r="M900">
         <v>48929</v>
       </c>
+      <c r="N900">
+        <v>5.293384291524454</v>
+      </c>
       <c r="O900">
         <v>233.36</v>
       </c>
@@ -52699,6 +55396,9 @@
       <c r="M901">
         <v>45042</v>
       </c>
+      <c r="N901">
+        <v>5.128546689756227</v>
+      </c>
       <c r="O901">
         <v>245.16</v>
       </c>
@@ -52758,6 +55458,9 @@
       <c r="M902">
         <v>53555</v>
       </c>
+      <c r="N902">
+        <v>9.578937540845859</v>
+      </c>
       <c r="O902">
         <v>236.08</v>
       </c>
@@ -52817,6 +55520,9 @@
       <c r="M903">
         <v>214564</v>
       </c>
+      <c r="N903">
+        <v>4.334371096735706</v>
+      </c>
       <c r="O903">
         <v>222.76</v>
       </c>
@@ -52876,6 +55582,9 @@
       <c r="M904">
         <v>336131</v>
       </c>
+      <c r="N904">
+        <v>6.286239591111799</v>
+      </c>
       <c r="O904">
         <v>217.46</v>
       </c>
@@ -52935,6 +55644,9 @@
       <c r="M905">
         <v>35237</v>
       </c>
+      <c r="N905">
+        <v>6.924539546499418</v>
+      </c>
       <c r="O905">
         <v>235.89</v>
       </c>
@@ -52994,6 +55706,9 @@
       <c r="M906">
         <v>1389322</v>
       </c>
+      <c r="N906">
+        <v>1.735378839462702</v>
+      </c>
       <c r="O906">
         <v>213.68</v>
       </c>
@@ -53053,6 +55768,9 @@
       <c r="M907">
         <v>198958</v>
       </c>
+      <c r="N907">
+        <v>6.996451512379497</v>
+      </c>
       <c r="O907">
         <v>218.99</v>
       </c>
@@ -53112,6 +55830,9 @@
       <c r="M908">
         <v>35666</v>
       </c>
+      <c r="N908">
+        <v>4.990747490607301</v>
+      </c>
       <c r="O908">
         <v>221.13</v>
       </c>
@@ -53171,6 +55892,9 @@
       <c r="M909">
         <v>37700</v>
       </c>
+      <c r="N909">
+        <v>3.925729442970822</v>
+      </c>
       <c r="O909">
         <v>211.87</v>
       </c>
@@ -53230,6 +55954,9 @@
       <c r="M910">
         <v>138104</v>
       </c>
+      <c r="N910">
+        <v>4.380756531309737</v>
+      </c>
       <c r="O910">
         <v>241.6</v>
       </c>
@@ -53289,6 +56016,9 @@
       <c r="M911">
         <v>282244</v>
       </c>
+      <c r="N911">
+        <v>3.42965660917504</v>
+      </c>
       <c r="O911">
         <v>224.34</v>
       </c>
@@ -53348,6 +56078,9 @@
       <c r="M912">
         <v>87296</v>
       </c>
+      <c r="N912">
+        <v>5.246517595307918</v>
+      </c>
       <c r="O912">
         <v>212.98</v>
       </c>
@@ -53407,6 +56140,9 @@
       <c r="M913">
         <v>79395</v>
       </c>
+      <c r="N913">
+        <v>3.703003967504251</v>
+      </c>
       <c r="O913">
         <v>241.12</v>
       </c>
@@ -53466,6 +56202,9 @@
       <c r="M914">
         <v>50331</v>
       </c>
+      <c r="N914">
+        <v>5.205539329637798</v>
+      </c>
       <c r="O914">
         <v>239.86</v>
       </c>
@@ -53525,6 +56264,9 @@
       <c r="M915">
         <v>79130</v>
       </c>
+      <c r="N915">
+        <v>4.309364337166688</v>
+      </c>
       <c r="O915">
         <v>226.48</v>
       </c>
@@ -53584,6 +56326,9 @@
       <c r="M916">
         <v>44393</v>
       </c>
+      <c r="N916">
+        <v>6.938030770616989</v>
+      </c>
       <c r="O916">
         <v>228.19</v>
       </c>
@@ -53643,6 +56388,9 @@
       <c r="M917">
         <v>61323</v>
       </c>
+      <c r="N917">
+        <v>6.751137419891394</v>
+      </c>
       <c r="O917">
         <v>217.37</v>
       </c>
@@ -53702,6 +56450,9 @@
       <c r="M918">
         <v>60102</v>
       </c>
+      <c r="N918">
+        <v>5.806795114971216</v>
+      </c>
       <c r="O918">
         <v>207.89</v>
       </c>
@@ -53761,6 +56512,9 @@
       <c r="M919">
         <v>225669</v>
       </c>
+      <c r="N919">
+        <v>5.570104888132619</v>
+      </c>
       <c r="O919">
         <v>219.76</v>
       </c>
@@ -53820,6 +56574,9 @@
       <c r="M920">
         <v>43283</v>
       </c>
+      <c r="N920">
+        <v>6.399741237899407</v>
+      </c>
       <c r="O920">
         <v>228.86</v>
       </c>
@@ -53879,6 +56636,9 @@
       <c r="M921">
         <v>35858</v>
       </c>
+      <c r="N921">
+        <v>4.880361425623292</v>
+      </c>
       <c r="O921">
         <v>230.44</v>
       </c>
@@ -53938,6 +56698,9 @@
       <c r="M922">
         <v>77898</v>
       </c>
+      <c r="N922">
+        <v>8.973272741277055</v>
+      </c>
       <c r="O922">
         <v>241.17</v>
       </c>
@@ -53997,6 +56760,9 @@
       <c r="M923">
         <v>136542</v>
       </c>
+      <c r="N923">
+        <v>5.522110412913243</v>
+      </c>
       <c r="O923">
         <v>226.78</v>
       </c>
@@ -54056,6 +56822,9 @@
       <c r="M924">
         <v>54360</v>
       </c>
+      <c r="N924">
+        <v>7.707873436350257</v>
+      </c>
       <c r="O924">
         <v>226.42</v>
       </c>
@@ -54115,6 +56884,9 @@
       <c r="M925">
         <v>43268</v>
       </c>
+      <c r="N925">
+        <v>6.332624572432283</v>
+      </c>
       <c r="O925">
         <v>237.75</v>
       </c>
@@ -54174,6 +56946,9 @@
       <c r="M926">
         <v>56296</v>
       </c>
+      <c r="N926">
+        <v>5.488844678129885</v>
+      </c>
       <c r="O926">
         <v>227.68</v>
       </c>
@@ -54233,6 +57008,9 @@
       <c r="M927">
         <v>120885</v>
       </c>
+      <c r="N927">
+        <v>5.732721181288001</v>
+      </c>
       <c r="O927">
         <v>214.35</v>
       </c>
@@ -54292,6 +57070,9 @@
       <c r="M928">
         <v>66110</v>
       </c>
+      <c r="N928">
+        <v>5.596732718196945</v>
+      </c>
       <c r="O928">
         <v>221.3</v>
       </c>
@@ -54351,6 +57132,9 @@
       <c r="M929">
         <v>70805</v>
       </c>
+      <c r="N929">
+        <v>4.321728691476591</v>
+      </c>
       <c r="O929">
         <v>241.86</v>
       </c>
@@ -54410,6 +57194,9 @@
       <c r="M930">
         <v>232113</v>
       </c>
+      <c r="N930">
+        <v>4.433185560481317</v>
+      </c>
       <c r="O930">
         <v>221.36</v>
       </c>
@@ -54469,6 +57256,9 @@
       <c r="M931">
         <v>41414</v>
       </c>
+      <c r="N931">
+        <v>9.296373207128024</v>
+      </c>
       <c r="O931">
         <v>223.06</v>
       </c>
@@ -54528,6 +57318,9 @@
       <c r="M932">
         <v>48561</v>
       </c>
+      <c r="N932">
+        <v>6.054241057638846</v>
+      </c>
       <c r="O932">
         <v>199.36</v>
       </c>
@@ -54566,6 +57359,9 @@
       <c r="M933">
         <v>99107</v>
       </c>
+      <c r="N933">
+        <v>8.021633184336121</v>
+      </c>
       <c r="O933">
         <v>207.65</v>
       </c>
@@ -54625,6 +57421,9 @@
       <c r="M934">
         <v>260640</v>
       </c>
+      <c r="N934">
+        <v>6.476365868631062</v>
+      </c>
       <c r="O934">
         <v>217.72</v>
       </c>
@@ -54684,6 +57483,9 @@
       <c r="M935">
         <v>47558</v>
       </c>
+      <c r="N935">
+        <v>6.875814794566635</v>
+      </c>
       <c r="O935">
         <v>215.88</v>
       </c>
@@ -54722,6 +57524,9 @@
       <c r="M936">
         <v>52707</v>
       </c>
+      <c r="N936">
+        <v>8.044472271235319</v>
+      </c>
       <c r="O936">
         <v>243.71</v>
       </c>
@@ -54781,6 +57586,9 @@
       <c r="M937">
         <v>50610</v>
       </c>
+      <c r="N937">
+        <v>5.374431930448528</v>
+      </c>
       <c r="O937">
         <v>252.8</v>
       </c>
@@ -54840,6 +57648,9 @@
       <c r="M938">
         <v>42543</v>
       </c>
+      <c r="N938">
+        <v>5.876407399572198</v>
+      </c>
       <c r="O938">
         <v>213.58</v>
       </c>
@@ -54899,6 +57710,9 @@
       <c r="M939">
         <v>97577</v>
       </c>
+      <c r="N939">
+        <v>6.302714779097533</v>
+      </c>
       <c r="O939">
         <v>228.93</v>
       </c>
@@ -54958,6 +57772,9 @@
       <c r="M940">
         <v>39936</v>
       </c>
+      <c r="N940">
+        <v>6.435296474358974</v>
+      </c>
       <c r="O940">
         <v>220.32</v>
       </c>
@@ -55017,6 +57834,9 @@
       <c r="M941">
         <v>49374</v>
       </c>
+      <c r="N941">
+        <v>10.95718394296593</v>
+      </c>
       <c r="O941">
         <v>198.24</v>
       </c>
@@ -55076,6 +57896,9 @@
       <c r="M942">
         <v>141435</v>
       </c>
+      <c r="N942">
+        <v>5.295718881464984</v>
+      </c>
       <c r="O942">
         <v>231.93</v>
       </c>
@@ -55135,6 +57958,9 @@
       <c r="M943">
         <v>61291</v>
       </c>
+      <c r="N943">
+        <v>3.622065229805355</v>
+      </c>
       <c r="O943">
         <v>214.24</v>
       </c>
@@ -55194,6 +58020,9 @@
       <c r="M944">
         <v>72694</v>
       </c>
+      <c r="N944">
+        <v>4.594602030428921</v>
+      </c>
       <c r="O944">
         <v>213.78</v>
       </c>
@@ -55253,6 +58082,9 @@
       <c r="M945">
         <v>91626</v>
       </c>
+      <c r="N945">
+        <v>5.205945910549407</v>
+      </c>
       <c r="O945">
         <v>201.88</v>
       </c>
@@ -55312,6 +58144,9 @@
       <c r="M946">
         <v>50033</v>
       </c>
+      <c r="N946">
+        <v>5.116623028800992</v>
+      </c>
       <c r="O946">
         <v>224</v>
       </c>
@@ -55371,6 +58206,9 @@
       <c r="M947">
         <v>47831</v>
       </c>
+      <c r="N947">
+        <v>5.623967719679706</v>
+      </c>
       <c r="O947">
         <v>231.92</v>
       </c>
@@ -55430,6 +58268,9 @@
       <c r="M948">
         <v>37541</v>
       </c>
+      <c r="N948">
+        <v>4.5550198449695</v>
+      </c>
       <c r="O948">
         <v>194.37</v>
       </c>
@@ -55489,6 +58330,9 @@
       <c r="M949">
         <v>682932</v>
       </c>
+      <c r="N949">
+        <v>3.082298091171595</v>
+      </c>
       <c r="O949">
         <v>211.31</v>
       </c>
@@ -55548,6 +58392,9 @@
       <c r="M950">
         <v>35899</v>
       </c>
+      <c r="N950">
+        <v>4.039109724504861</v>
+      </c>
       <c r="O950">
         <v>227.13</v>
       </c>
@@ -55604,6 +58451,9 @@
       <c r="M951">
         <v>47800</v>
       </c>
+      <c r="N951">
+        <v>4.288702928870292</v>
+      </c>
       <c r="O951">
         <v>211.55</v>
       </c>
@@ -55663,6 +58513,9 @@
       <c r="M952">
         <v>92256</v>
       </c>
+      <c r="N952">
+        <v>5.181234824835241</v>
+      </c>
       <c r="O952">
         <v>241.71</v>
       </c>
@@ -55722,6 +58575,9 @@
       <c r="M953">
         <v>61223</v>
       </c>
+      <c r="N953">
+        <v>4.802116851510053</v>
+      </c>
       <c r="O953">
         <v>215.33</v>
       </c>
@@ -55781,6 +58637,9 @@
       <c r="M954">
         <v>54795</v>
       </c>
+      <c r="N954">
+        <v>2.865224929281869</v>
+      </c>
       <c r="O954">
         <v>214.68</v>
       </c>
@@ -55840,6 +58699,9 @@
       <c r="M955">
         <v>92927</v>
       </c>
+      <c r="N955">
+        <v>4.551960140755646</v>
+      </c>
       <c r="O955">
         <v>219.71</v>
       </c>
@@ -55899,6 +58761,9 @@
       <c r="M956">
         <v>259167</v>
       </c>
+      <c r="N956">
+        <v>4.421859264489692</v>
+      </c>
       <c r="O956">
         <v>221.42</v>
       </c>
@@ -55958,6 +58823,9 @@
       <c r="M957">
         <v>216029</v>
       </c>
+      <c r="N957">
+        <v>3.555078253382648</v>
+      </c>
       <c r="O957">
         <v>223.92</v>
       </c>
@@ -56017,6 +58885,9 @@
       <c r="M958">
         <v>120985</v>
       </c>
+      <c r="N958">
+        <v>5.769310245071703</v>
+      </c>
       <c r="O958">
         <v>227.26</v>
       </c>
@@ -56076,6 +58947,9 @@
       <c r="M959">
         <v>112547</v>
       </c>
+      <c r="N959">
+        <v>3.802855695842626</v>
+      </c>
       <c r="O959">
         <v>224.76</v>
       </c>
@@ -56135,6 +59009,9 @@
       <c r="M960">
         <v>314627</v>
       </c>
+      <c r="N960">
+        <v>3.41038753825959</v>
+      </c>
       <c r="O960">
         <v>213.86</v>
       </c>
@@ -56194,6 +59071,9 @@
       <c r="M961">
         <v>240613</v>
       </c>
+      <c r="N961">
+        <v>3.304060877841181</v>
+      </c>
       <c r="O961">
         <v>211.02</v>
       </c>
@@ -56253,6 +59133,9 @@
       <c r="M962">
         <v>415847</v>
       </c>
+      <c r="N962">
+        <v>3.45800258268065</v>
+      </c>
       <c r="O962">
         <v>236.88</v>
       </c>
@@ -56312,6 +59195,9 @@
       <c r="M963">
         <v>550925</v>
       </c>
+      <c r="N963">
+        <v>3.151064119435495</v>
+      </c>
       <c r="O963">
         <v>213.52</v>
       </c>
@@ -56371,6 +59257,9 @@
       <c r="M964">
         <v>36583</v>
       </c>
+      <c r="N964">
+        <v>3.143536615367794</v>
+      </c>
       <c r="O964">
         <v>222.1</v>
       </c>
@@ -56430,6 +59319,9 @@
       <c r="M965">
         <v>104788</v>
       </c>
+      <c r="N965">
+        <v>3.61682635416269</v>
+      </c>
       <c r="O965">
         <v>228.22</v>
       </c>
@@ -56489,6 +59381,9 @@
       <c r="M966">
         <v>120789</v>
       </c>
+      <c r="N966">
+        <v>3.866246098568578</v>
+      </c>
       <c r="O966">
         <v>234.85</v>
       </c>
@@ -56548,6 +59443,9 @@
       <c r="M967">
         <v>98963</v>
       </c>
+      <c r="N967">
+        <v>4.921031092428484</v>
+      </c>
       <c r="O967">
         <v>210.68</v>
       </c>
@@ -56607,6 +59505,9 @@
       <c r="M968">
         <v>65705</v>
       </c>
+      <c r="N968">
+        <v>5.829084544555209</v>
+      </c>
       <c r="O968">
         <v>215.72</v>
       </c>
@@ -56645,6 +59546,9 @@
       <c r="M969">
         <v>120478</v>
       </c>
+      <c r="N969">
+        <v>4.739454506216902</v>
+      </c>
       <c r="O969">
         <v>214.45</v>
       </c>
@@ -56704,6 +59608,9 @@
       <c r="M970">
         <v>77014</v>
       </c>
+      <c r="N970">
+        <v>4.232996598021139</v>
+      </c>
       <c r="O970">
         <v>252.87</v>
       </c>
@@ -56763,6 +59670,9 @@
       <c r="M971">
         <v>1494599</v>
       </c>
+      <c r="N971">
+        <v>3.561490406456849</v>
+      </c>
       <c r="O971">
         <v>219.72</v>
       </c>
@@ -56822,6 +59732,9 @@
       <c r="M972">
         <v>78754</v>
       </c>
+      <c r="N972">
+        <v>3.771237016532494</v>
+      </c>
       <c r="O972">
         <v>221.59</v>
       </c>
@@ -56881,6 +59794,9 @@
       <c r="M973">
         <v>36777</v>
       </c>
+      <c r="N973">
+        <v>3.888299752562743</v>
+      </c>
       <c r="O973">
         <v>227.52</v>
       </c>
@@ -56940,6 +59856,9 @@
       <c r="M974">
         <v>53629</v>
       </c>
+      <c r="N974">
+        <v>4.214137873165638</v>
+      </c>
       <c r="O974">
         <v>227.9</v>
       </c>
@@ -56999,6 +59918,9 @@
       <c r="M975">
         <v>36983</v>
       </c>
+      <c r="N975">
+        <v>4.407430441013439</v>
+      </c>
       <c r="O975">
         <v>248.62</v>
       </c>
@@ -57058,6 +59980,9 @@
       <c r="M976">
         <v>46943</v>
       </c>
+      <c r="N976">
+        <v>3.98355452357114</v>
+      </c>
       <c r="O976">
         <v>248.88</v>
       </c>
@@ -57117,6 +60042,9 @@
       <c r="M977">
         <v>112289</v>
       </c>
+      <c r="N977">
+        <v>5.085092929850653</v>
+      </c>
       <c r="O977">
         <v>256.11</v>
       </c>
@@ -57176,6 +60104,9 @@
       <c r="M978">
         <v>46427</v>
       </c>
+      <c r="N978">
+        <v>4.717082732030931</v>
+      </c>
       <c r="O978">
         <v>240.28</v>
       </c>
@@ -57235,6 +60166,9 @@
       <c r="M979">
         <v>110404</v>
       </c>
+      <c r="N979">
+        <v>3.278866707727981</v>
+      </c>
       <c r="O979">
         <v>233.2</v>
       </c>
@@ -57294,6 +60228,9 @@
       <c r="M980">
         <v>218872</v>
       </c>
+      <c r="N980">
+        <v>4.125699038707555</v>
+      </c>
       <c r="O980">
         <v>231.31</v>
       </c>
@@ -57353,6 +60290,9 @@
       <c r="M981">
         <v>73781</v>
       </c>
+      <c r="N981">
+        <v>4.703107846193465</v>
+      </c>
       <c r="O981">
         <v>255.14</v>
       </c>
@@ -57412,6 +60352,9 @@
       <c r="M982">
         <v>53640</v>
       </c>
+      <c r="N982">
+        <v>2.628635346756152</v>
+      </c>
       <c r="O982">
         <v>240.62</v>
       </c>
@@ -57471,6 +60414,9 @@
       <c r="M983">
         <v>34466</v>
       </c>
+      <c r="N983">
+        <v>6.586200893634306</v>
+      </c>
       <c r="O983">
         <v>223.4</v>
       </c>
@@ -57530,6 +60476,9 @@
       <c r="M984">
         <v>107092</v>
       </c>
+      <c r="N984">
+        <v>3.651066372838307</v>
+      </c>
       <c r="O984">
         <v>212.65</v>
       </c>
@@ -57589,6 +60538,9 @@
       <c r="M985">
         <v>36692</v>
       </c>
+      <c r="N985">
+        <v>5.041971001853265</v>
+      </c>
       <c r="O985">
         <v>201.03</v>
       </c>
@@ -57648,6 +60600,9 @@
       <c r="M986">
         <v>110619</v>
       </c>
+      <c r="N986">
+        <v>6.264746562525425</v>
+      </c>
       <c r="O986">
         <v>212.6</v>
       </c>
@@ -57707,6 +60662,9 @@
       <c r="M987">
         <v>45400</v>
       </c>
+      <c r="N987">
+        <v>5</v>
+      </c>
       <c r="O987">
         <v>201.19</v>
       </c>
@@ -57766,6 +60724,9 @@
       <c r="M988">
         <v>36060</v>
       </c>
+      <c r="N988">
+        <v>5.102606766500277</v>
+      </c>
       <c r="O988">
         <v>246.21</v>
       </c>
@@ -57825,6 +60786,9 @@
       <c r="M989">
         <v>49986</v>
       </c>
+      <c r="N989">
+        <v>4.621293962309447</v>
+      </c>
       <c r="O989">
         <v>248.77</v>
       </c>
@@ -57884,6 +60848,9 @@
       <c r="M990">
         <v>238025</v>
       </c>
+      <c r="N990">
+        <v>3.802121625879634</v>
+      </c>
       <c r="O990">
         <v>261.35</v>
       </c>
@@ -57943,6 +60910,9 @@
       <c r="M991">
         <v>39481</v>
       </c>
+      <c r="N991">
+        <v>3.875281781109901</v>
+      </c>
       <c r="O991">
         <v>233.47</v>
       </c>
@@ -58002,6 +60972,9 @@
       <c r="M992">
         <v>74614</v>
       </c>
+      <c r="N992">
+        <v>5.025866459377597</v>
+      </c>
       <c r="O992">
         <v>200.58</v>
       </c>
@@ -58061,6 +61034,9 @@
       <c r="M993">
         <v>35031</v>
       </c>
+      <c r="N993">
+        <v>4.139191002255146</v>
+      </c>
       <c r="O993">
         <v>238.15</v>
       </c>
@@ -58120,6 +61096,9 @@
       <c r="M994">
         <v>169849</v>
       </c>
+      <c r="N994">
+        <v>4.368586214814335</v>
+      </c>
       <c r="O994">
         <v>211.91</v>
       </c>
@@ -58179,6 +61158,9 @@
       <c r="M995">
         <v>150858</v>
       </c>
+      <c r="N995">
+        <v>3.122141351469594</v>
+      </c>
       <c r="O995">
         <v>228.57</v>
       </c>
@@ -58238,6 +61220,9 @@
       <c r="M996">
         <v>44150</v>
       </c>
+      <c r="N996">
+        <v>2.672706681766704</v>
+      </c>
       <c r="O996">
         <v>233.66</v>
       </c>
@@ -58296,6 +61281,9 @@
       </c>
       <c r="M997">
         <v>213506</v>
+      </c>
+      <c r="N997">
+        <v>4.800801851001846</v>
       </c>
       <c r="O997">
         <v>222.7</v>
